--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="241">
   <si>
     <t>Timestamp</t>
   </si>
@@ -251,6 +251,489 @@
   </si>
   <si>
     <t>103</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:11.110Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:14.255Z</t>
+  </si>
+  <si>
+    <t>Access denied for room 102</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:14.287Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:15.661Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:15.687Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:16.463Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:16.522Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:17.088Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:17.134Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:17.764Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:17.793Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:24.125Z</t>
+  </si>
+  <si>
+    <t>/user/6BF02F00?roomID=105</t>
+  </si>
+  <si>
+    <t>Access denied for room 105</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:24.154Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:24.796Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:24.825Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:25.399Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:25.467Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:44.796Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:46.922Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:46.974Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:47.119Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:47.171Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:47.458Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:47.536Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:47.841Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:47.877Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:48.232Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:48.266Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:48.759Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:48.852Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:49.000Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:49.077Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:49.241Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:49.278Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:49.590Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:49.796Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:50.213Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:50.276Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:50.805Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:50.862Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:51.245Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:51.276Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:51.828Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:51.870Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:54.515Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:55.549Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:55.589Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:55.887Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:55.971Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:56.397Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:56.539Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:57.193Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:57.229Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:58.394Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:07:58.604Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:03.508Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:06.248Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:06.318Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:06.533Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:06.608Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:07.058Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:07.090Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:07.614Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:07.648Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:08.424Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:08.500Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:14.572Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:17.402Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:17.456Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:18.488Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:18.521Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:18.891Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:18.973Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:19.187Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:19.255Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:19.680Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:19.720Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:19.977Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:20.017Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:20.225Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:23.178Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:23.478Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:23.538Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:26.285Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:26.342Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:26.975Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:27.072Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:31.830Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:08:31.873Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:10:51.270Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:10:51.471Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:31.651Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:37.358Z</t>
+  </si>
+  <si>
+    <t>/stats?user=TEST&amp;password=TEST</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Invalid credentials in /stats</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:38.045Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:38.080Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:45.335Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:50.264Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:52.716Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:52.759Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:57.037Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:57.972Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:58.034Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:58.440Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:58.477Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:58.817Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:58.878Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:59.462Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:59.494Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:59.571Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:59.598Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:59.800Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:15:59.844Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.131Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.193Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.404Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.466Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.646Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.676Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.868Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:00.911Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.122Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.156Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.336Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.371Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.504Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.539Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.761Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.801Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.953Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:01.989Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:02.276Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:02.339Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:02.585Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:02.621Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:03.052Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:03.095Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:03.299Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:03.551Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:03.755Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:03.799Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.033Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.160Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.271Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.310Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.517Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.560Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.703Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:04.744Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:08.904Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:26.777Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:26.822Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:28.342Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:28.364Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:30.495Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:16:30.521Z</t>
   </si>
 </sst>
 </file>
@@ -627,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K187"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1750,6 +2233,5431 @@
         <v>19</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>403</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>403</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38">
+        <v>403</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <v>403</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>403</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>200</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44">
+        <v>403</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46">
+        <v>403</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>403</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <v>200</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60">
+        <v>200</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61">
+        <v>200</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <v>200</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63">
+        <v>200</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65">
+        <v>200</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67">
+        <v>200</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <v>200</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69">
+        <v>200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>200</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>200</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73">
+        <v>200</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <v>200</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75">
+        <v>200</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>200</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78">
+        <v>200</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>200</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80">
+        <v>200</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81">
+        <v>200</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82">
+        <v>200</v>
+      </c>
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <v>200</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84">
+        <v>200</v>
+      </c>
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>200</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86">
+        <v>200</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87">
+        <v>200</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88">
+        <v>200</v>
+      </c>
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>52</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89">
+        <v>200</v>
+      </c>
+      <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90">
+        <v>200</v>
+      </c>
+      <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91">
+        <v>200</v>
+      </c>
+      <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>200</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93">
+        <v>200</v>
+      </c>
+      <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94">
+        <v>200</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>200</v>
+      </c>
+      <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96">
+        <v>200</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97">
+        <v>200</v>
+      </c>
+      <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98">
+        <v>200</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <v>200</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>52</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100">
+        <v>200</v>
+      </c>
+      <c r="F100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s">
+        <v>43</v>
+      </c>
+      <c r="J100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J102" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>39</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E104">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>93</v>
+      </c>
+      <c r="E106">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" t="s">
+        <v>32</v>
+      </c>
+      <c r="I106" t="s">
+        <v>43</v>
+      </c>
+      <c r="J106" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108">
+        <v>200</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I108" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>200</v>
+      </c>
+      <c r="F109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110">
+        <v>200</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>200</v>
+      </c>
+      <c r="F111" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112">
+        <v>200</v>
+      </c>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>200</v>
+      </c>
+      <c r="F113" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>39</v>
+      </c>
+      <c r="K113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114">
+        <v>200</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>200</v>
+      </c>
+      <c r="F115" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s">
+        <v>32</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116">
+        <v>200</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s">
+        <v>32</v>
+      </c>
+      <c r="I116" t="s">
+        <v>43</v>
+      </c>
+      <c r="J116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117">
+        <v>200</v>
+      </c>
+      <c r="F117" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118">
+        <v>200</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119">
+        <v>200</v>
+      </c>
+      <c r="F119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>93</v>
+      </c>
+      <c r="E120">
+        <v>200</v>
+      </c>
+      <c r="F120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121">
+        <v>200</v>
+      </c>
+      <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s">
+        <v>32</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122">
+        <v>200</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>200</v>
+      </c>
+      <c r="F123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" t="s">
+        <v>76</v>
+      </c>
+      <c r="E124">
+        <v>200</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s">
+        <v>32</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>77</v>
+      </c>
+      <c r="K124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125">
+        <v>401</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>177</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>178</v>
+      </c>
+      <c r="K125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126">
+        <v>404</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>43</v>
+      </c>
+      <c r="J126" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>404</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128">
+        <v>200</v>
+      </c>
+      <c r="F128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" t="s">
+        <v>177</v>
+      </c>
+      <c r="H128" t="s">
+        <v>32</v>
+      </c>
+      <c r="I128" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" t="s">
+        <v>34</v>
+      </c>
+      <c r="K128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129">
+        <v>200</v>
+      </c>
+      <c r="F129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" t="s">
+        <v>177</v>
+      </c>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>93</v>
+      </c>
+      <c r="E130">
+        <v>200</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>177</v>
+      </c>
+      <c r="H130" t="s">
+        <v>32</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" t="s">
+        <v>37</v>
+      </c>
+      <c r="K130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>184</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131">
+        <v>200</v>
+      </c>
+      <c r="F131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" t="s">
+        <v>177</v>
+      </c>
+      <c r="H131" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>185</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132">
+        <v>200</v>
+      </c>
+      <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>177</v>
+      </c>
+      <c r="H132" t="s">
+        <v>32</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>52</v>
+      </c>
+      <c r="K132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133">
+        <v>200</v>
+      </c>
+      <c r="F133" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" t="s">
+        <v>177</v>
+      </c>
+      <c r="H133" t="s">
+        <v>32</v>
+      </c>
+      <c r="I133" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" t="s">
+        <v>37</v>
+      </c>
+      <c r="K133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134">
+        <v>200</v>
+      </c>
+      <c r="F134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s">
+        <v>177</v>
+      </c>
+      <c r="H134" t="s">
+        <v>32</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>93</v>
+      </c>
+      <c r="E135">
+        <v>200</v>
+      </c>
+      <c r="F135" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>177</v>
+      </c>
+      <c r="H135" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" t="s">
+        <v>43</v>
+      </c>
+      <c r="J135" t="s">
+        <v>37</v>
+      </c>
+      <c r="K135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136">
+        <v>200</v>
+      </c>
+      <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s">
+        <v>177</v>
+      </c>
+      <c r="H136" t="s">
+        <v>32</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>93</v>
+      </c>
+      <c r="E137">
+        <v>200</v>
+      </c>
+      <c r="F137" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" t="s">
+        <v>177</v>
+      </c>
+      <c r="H137" t="s">
+        <v>32</v>
+      </c>
+      <c r="I137" t="s">
+        <v>43</v>
+      </c>
+      <c r="J137" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138">
+        <v>200</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>177</v>
+      </c>
+      <c r="H138" t="s">
+        <v>32</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139">
+        <v>200</v>
+      </c>
+      <c r="F139" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" t="s">
+        <v>177</v>
+      </c>
+      <c r="H139" t="s">
+        <v>32</v>
+      </c>
+      <c r="I139" t="s">
+        <v>43</v>
+      </c>
+      <c r="J139" t="s">
+        <v>37</v>
+      </c>
+      <c r="K139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140">
+        <v>200</v>
+      </c>
+      <c r="F140" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s">
+        <v>177</v>
+      </c>
+      <c r="H140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141">
+        <v>200</v>
+      </c>
+      <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
+        <v>177</v>
+      </c>
+      <c r="H141" t="s">
+        <v>32</v>
+      </c>
+      <c r="I141" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142">
+        <v>200</v>
+      </c>
+      <c r="F142" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>177</v>
+      </c>
+      <c r="H142" t="s">
+        <v>32</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>39</v>
+      </c>
+      <c r="K142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143">
+        <v>200</v>
+      </c>
+      <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
+        <v>177</v>
+      </c>
+      <c r="H143" t="s">
+        <v>32</v>
+      </c>
+      <c r="I143" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" t="s">
+        <v>37</v>
+      </c>
+      <c r="K143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>200</v>
+      </c>
+      <c r="F144" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" t="s">
+        <v>177</v>
+      </c>
+      <c r="H144" t="s">
+        <v>32</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>198</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145">
+        <v>200</v>
+      </c>
+      <c r="F145" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>177</v>
+      </c>
+      <c r="H145" t="s">
+        <v>32</v>
+      </c>
+      <c r="I145" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" t="s">
+        <v>37</v>
+      </c>
+      <c r="K145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>199</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146">
+        <v>200</v>
+      </c>
+      <c r="F146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>177</v>
+      </c>
+      <c r="H146" t="s">
+        <v>32</v>
+      </c>
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>39</v>
+      </c>
+      <c r="K146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147">
+        <v>200</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>177</v>
+      </c>
+      <c r="H147" t="s">
+        <v>32</v>
+      </c>
+      <c r="I147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
+        <v>37</v>
+      </c>
+      <c r="K147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148">
+        <v>200</v>
+      </c>
+      <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>177</v>
+      </c>
+      <c r="H148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>39</v>
+      </c>
+      <c r="K148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149">
+        <v>200</v>
+      </c>
+      <c r="F149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>177</v>
+      </c>
+      <c r="H149" t="s">
+        <v>32</v>
+      </c>
+      <c r="I149" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" t="s">
+        <v>37</v>
+      </c>
+      <c r="K149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>200</v>
+      </c>
+      <c r="F150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>177</v>
+      </c>
+      <c r="H150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>39</v>
+      </c>
+      <c r="K150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>93</v>
+      </c>
+      <c r="E151">
+        <v>200</v>
+      </c>
+      <c r="F151" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
+        <v>177</v>
+      </c>
+      <c r="H151" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" t="s">
+        <v>43</v>
+      </c>
+      <c r="J151" t="s">
+        <v>37</v>
+      </c>
+      <c r="K151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152">
+        <v>200</v>
+      </c>
+      <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s">
+        <v>177</v>
+      </c>
+      <c r="H152" t="s">
+        <v>32</v>
+      </c>
+      <c r="I152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>39</v>
+      </c>
+      <c r="K152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>93</v>
+      </c>
+      <c r="E153">
+        <v>200</v>
+      </c>
+      <c r="F153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" t="s">
+        <v>177</v>
+      </c>
+      <c r="H153" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153" t="s">
+        <v>37</v>
+      </c>
+      <c r="K153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>207</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154">
+        <v>200</v>
+      </c>
+      <c r="F154" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
+        <v>177</v>
+      </c>
+      <c r="H154" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>93</v>
+      </c>
+      <c r="E155">
+        <v>200</v>
+      </c>
+      <c r="F155" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" t="s">
+        <v>177</v>
+      </c>
+      <c r="H155" t="s">
+        <v>32</v>
+      </c>
+      <c r="I155" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155" t="s">
+        <v>37</v>
+      </c>
+      <c r="K155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>209</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156">
+        <v>200</v>
+      </c>
+      <c r="F156" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s">
+        <v>177</v>
+      </c>
+      <c r="H156" t="s">
+        <v>32</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>39</v>
+      </c>
+      <c r="K156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>210</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>93</v>
+      </c>
+      <c r="E157">
+        <v>200</v>
+      </c>
+      <c r="F157" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" t="s">
+        <v>177</v>
+      </c>
+      <c r="H157" t="s">
+        <v>32</v>
+      </c>
+      <c r="I157" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157" t="s">
+        <v>37</v>
+      </c>
+      <c r="K157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>211</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158">
+        <v>200</v>
+      </c>
+      <c r="F158" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>177</v>
+      </c>
+      <c r="H158" t="s">
+        <v>32</v>
+      </c>
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>39</v>
+      </c>
+      <c r="K158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>212</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159">
+        <v>200</v>
+      </c>
+      <c r="F159" t="s">
+        <v>30</v>
+      </c>
+      <c r="G159" t="s">
+        <v>177</v>
+      </c>
+      <c r="H159" t="s">
+        <v>32</v>
+      </c>
+      <c r="I159" t="s">
+        <v>43</v>
+      </c>
+      <c r="J159" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>213</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160">
+        <v>200</v>
+      </c>
+      <c r="F160" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s">
+        <v>177</v>
+      </c>
+      <c r="H160" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>39</v>
+      </c>
+      <c r="K160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>214</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161">
+        <v>200</v>
+      </c>
+      <c r="F161" t="s">
+        <v>30</v>
+      </c>
+      <c r="G161" t="s">
+        <v>177</v>
+      </c>
+      <c r="H161" t="s">
+        <v>32</v>
+      </c>
+      <c r="I161" t="s">
+        <v>43</v>
+      </c>
+      <c r="J161" t="s">
+        <v>37</v>
+      </c>
+      <c r="K161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>215</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162">
+        <v>200</v>
+      </c>
+      <c r="F162" t="s">
+        <v>30</v>
+      </c>
+      <c r="G162" t="s">
+        <v>177</v>
+      </c>
+      <c r="H162" t="s">
+        <v>32</v>
+      </c>
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>39</v>
+      </c>
+      <c r="K162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>216</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>93</v>
+      </c>
+      <c r="E163">
+        <v>200</v>
+      </c>
+      <c r="F163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" t="s">
+        <v>177</v>
+      </c>
+      <c r="H163" t="s">
+        <v>32</v>
+      </c>
+      <c r="I163" t="s">
+        <v>43</v>
+      </c>
+      <c r="J163" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164">
+        <v>200</v>
+      </c>
+      <c r="F164" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>177</v>
+      </c>
+      <c r="H164" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>39</v>
+      </c>
+      <c r="K164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165">
+        <v>200</v>
+      </c>
+      <c r="F165" t="s">
+        <v>30</v>
+      </c>
+      <c r="G165" t="s">
+        <v>177</v>
+      </c>
+      <c r="H165" t="s">
+        <v>32</v>
+      </c>
+      <c r="I165" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>219</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166">
+        <v>200</v>
+      </c>
+      <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
+        <v>177</v>
+      </c>
+      <c r="H166" t="s">
+        <v>32</v>
+      </c>
+      <c r="I166" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>39</v>
+      </c>
+      <c r="K166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>220</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167">
+        <v>200</v>
+      </c>
+      <c r="F167" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
+        <v>177</v>
+      </c>
+      <c r="H167" t="s">
+        <v>32</v>
+      </c>
+      <c r="I167" t="s">
+        <v>43</v>
+      </c>
+      <c r="J167" t="s">
+        <v>37</v>
+      </c>
+      <c r="K167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>221</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168">
+        <v>200</v>
+      </c>
+      <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
+        <v>177</v>
+      </c>
+      <c r="H168" t="s">
+        <v>32</v>
+      </c>
+      <c r="I168" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>39</v>
+      </c>
+      <c r="K168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>93</v>
+      </c>
+      <c r="E169">
+        <v>200</v>
+      </c>
+      <c r="F169" t="s">
+        <v>30</v>
+      </c>
+      <c r="G169" t="s">
+        <v>177</v>
+      </c>
+      <c r="H169" t="s">
+        <v>32</v>
+      </c>
+      <c r="I169" t="s">
+        <v>43</v>
+      </c>
+      <c r="J169" t="s">
+        <v>37</v>
+      </c>
+      <c r="K169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>223</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170">
+        <v>200</v>
+      </c>
+      <c r="F170" t="s">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s">
+        <v>177</v>
+      </c>
+      <c r="H170" t="s">
+        <v>32</v>
+      </c>
+      <c r="I170" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>39</v>
+      </c>
+      <c r="K170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>93</v>
+      </c>
+      <c r="E171">
+        <v>200</v>
+      </c>
+      <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>177</v>
+      </c>
+      <c r="H171" t="s">
+        <v>32</v>
+      </c>
+      <c r="I171" t="s">
+        <v>43</v>
+      </c>
+      <c r="J171" t="s">
+        <v>37</v>
+      </c>
+      <c r="K171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172">
+        <v>200</v>
+      </c>
+      <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>177</v>
+      </c>
+      <c r="H172" t="s">
+        <v>32</v>
+      </c>
+      <c r="I172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>39</v>
+      </c>
+      <c r="K172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>93</v>
+      </c>
+      <c r="E173">
+        <v>200</v>
+      </c>
+      <c r="F173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s">
+        <v>177</v>
+      </c>
+      <c r="H173" t="s">
+        <v>32</v>
+      </c>
+      <c r="I173" t="s">
+        <v>43</v>
+      </c>
+      <c r="J173" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174">
+        <v>200</v>
+      </c>
+      <c r="F174" t="s">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s">
+        <v>177</v>
+      </c>
+      <c r="H174" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>39</v>
+      </c>
+      <c r="K174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>228</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>93</v>
+      </c>
+      <c r="E175">
+        <v>200</v>
+      </c>
+      <c r="F175" t="s">
+        <v>30</v>
+      </c>
+      <c r="G175" t="s">
+        <v>177</v>
+      </c>
+      <c r="H175" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" t="s">
+        <v>43</v>
+      </c>
+      <c r="J175" t="s">
+        <v>37</v>
+      </c>
+      <c r="K175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>229</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176">
+        <v>200</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>177</v>
+      </c>
+      <c r="H176" t="s">
+        <v>32</v>
+      </c>
+      <c r="I176" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>39</v>
+      </c>
+      <c r="K176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>230</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>93</v>
+      </c>
+      <c r="E177">
+        <v>200</v>
+      </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>177</v>
+      </c>
+      <c r="H177" t="s">
+        <v>32</v>
+      </c>
+      <c r="I177" t="s">
+        <v>43</v>
+      </c>
+      <c r="J177" t="s">
+        <v>37</v>
+      </c>
+      <c r="K177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>231</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178">
+        <v>200</v>
+      </c>
+      <c r="F178" t="s">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>177</v>
+      </c>
+      <c r="H178" t="s">
+        <v>32</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>232</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>93</v>
+      </c>
+      <c r="E179">
+        <v>200</v>
+      </c>
+      <c r="F179" t="s">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>177</v>
+      </c>
+      <c r="H179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" t="s">
+        <v>43</v>
+      </c>
+      <c r="J179" t="s">
+        <v>37</v>
+      </c>
+      <c r="K179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>233</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180">
+        <v>200</v>
+      </c>
+      <c r="F180" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+      <c r="H180" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>39</v>
+      </c>
+      <c r="K180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>234</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>176</v>
+      </c>
+      <c r="E181">
+        <v>200</v>
+      </c>
+      <c r="F181" t="s">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s">
+        <v>177</v>
+      </c>
+      <c r="H181" t="s">
+        <v>32</v>
+      </c>
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>52</v>
+      </c>
+      <c r="K181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>235</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>93</v>
+      </c>
+      <c r="E182">
+        <v>200</v>
+      </c>
+      <c r="F182" t="s">
+        <v>30</v>
+      </c>
+      <c r="G182" t="s">
+        <v>177</v>
+      </c>
+      <c r="H182" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" t="s">
+        <v>43</v>
+      </c>
+      <c r="J182" t="s">
+        <v>37</v>
+      </c>
+      <c r="K182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>236</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>21</v>
+      </c>
+      <c r="E183">
+        <v>200</v>
+      </c>
+      <c r="F183" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183" t="s">
+        <v>177</v>
+      </c>
+      <c r="H183" t="s">
+        <v>32</v>
+      </c>
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>39</v>
+      </c>
+      <c r="K183" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>237</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>93</v>
+      </c>
+      <c r="E184">
+        <v>200</v>
+      </c>
+      <c r="F184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
+        <v>177</v>
+      </c>
+      <c r="H184" t="s">
+        <v>32</v>
+      </c>
+      <c r="I184" t="s">
+        <v>43</v>
+      </c>
+      <c r="J184" t="s">
+        <v>37</v>
+      </c>
+      <c r="K184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>238</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185">
+        <v>200</v>
+      </c>
+      <c r="F185" t="s">
+        <v>30</v>
+      </c>
+      <c r="G185" t="s">
+        <v>177</v>
+      </c>
+      <c r="H185" t="s">
+        <v>32</v>
+      </c>
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>39</v>
+      </c>
+      <c r="K185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>239</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>93</v>
+      </c>
+      <c r="E186">
+        <v>200</v>
+      </c>
+      <c r="F186" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" t="s">
+        <v>177</v>
+      </c>
+      <c r="H186" t="s">
+        <v>32</v>
+      </c>
+      <c r="I186" t="s">
+        <v>43</v>
+      </c>
+      <c r="J186" t="s">
+        <v>37</v>
+      </c>
+      <c r="K186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>240</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>21</v>
+      </c>
+      <c r="E187">
+        <v>200</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>177</v>
+      </c>
+      <c r="H187" t="s">
+        <v>32</v>
+      </c>
+      <c r="I187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>39</v>
+      </c>
+      <c r="K187" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="367">
   <si>
     <t>Timestamp</t>
   </si>
@@ -734,6 +734,384 @@
   </si>
   <si>
     <t>2025-11-24T21:16:30.521Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:17:52.871Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:17:52.921Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:18:04.077Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:18:04.140Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:39:54.732Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:39:54.758Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:44:58.360Z</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Health check</t>
+  </si>
+  <si>
+    <t>::1</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:44:58.567Z</t>
+  </si>
+  <si>
+    <t>/favicon.ico</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:45:27.788Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:45:37.629Z</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:45:44.108Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:45:53.343Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:46:52.289Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:46:52.335Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:46:56.715Z</t>
+  </si>
+  <si>
+    <t>/user/6BF02F00?roomID=104</t>
+  </si>
+  <si>
+    <t>Access denied for room 104</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:46:57.041Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:03.592Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:06.329Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:06.445Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:13.068Z</t>
+  </si>
+  <si>
+    <t>/user/835DF613?roomID=104</t>
+  </si>
+  <si>
+    <t>UID 835DF613 not found in /user</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:13.110Z</t>
+  </si>
+  <si>
+    <t>/uid-name/835DF613</t>
+  </si>
+  <si>
+    <t>UID 835DF613 not found in /uid-name</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:20.753Z</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>835DF613</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:22.927Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:23.422Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:27.560Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:30.011Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:30.060Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:36.960Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:37.009Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:39.187Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:39.246Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:49.558Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:49.606Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:55.231Z</t>
+  </si>
+  <si>
+    <t>/room/835DF613/104</t>
+  </si>
+  <si>
+    <t>User deleted because no rooms remain</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:47:58.345Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:04.120Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:10.895Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:14.064Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:14.100Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:22.754Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:25.689Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:30.430Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:30.596Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:32.719Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:34.152Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:34.175Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:35.100Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:35.173Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:35.839Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:35.886Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:37.143Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:37.170Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:37.594Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:37.622Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:37.989Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:38.078Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:40.038Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:41.854Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:41.896Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:42.738Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:42.777Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:43.241Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:43.301Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:43.885Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:44.046Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:45.029Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:47.752Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:47.835Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:49.184Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:49.226Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:53.378Z</t>
+  </si>
+  <si>
+    <t>/user/6BF02F00?roomID=103</t>
+  </si>
+  <si>
+    <t>Access denied for room 103</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:53.435Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:57.795Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:58.257Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:58.328Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:59.500Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:48:59.864Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:03.201Z</t>
+  </si>
+  <si>
+    <t>/user/6BF02F00?roomID=101</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Access denied for room 101</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:03.367Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:06.684Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:07.875Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:08.066Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:08.291Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:08.334Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:10.383Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:15.308Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:15.346Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:23.898Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:26.537Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:28.654Z</t>
+  </si>
+  <si>
+    <t>/user/835DF613?roomID=101</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:28.685Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:30.902Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:31.554Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:31.602Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:32.024Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:32.062Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:32.515Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:32.555Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:32.889Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:32.954Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:33.503Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:33.573Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:33.892Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:34.088Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:49:34.960Z</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K292"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7658,6 +8036,3681 @@
         <v>19</v>
       </c>
     </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>241</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>93</v>
+      </c>
+      <c r="E188">
+        <v>200</v>
+      </c>
+      <c r="F188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" t="s">
+        <v>177</v>
+      </c>
+      <c r="H188" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" t="s">
+        <v>43</v>
+      </c>
+      <c r="J188" t="s">
+        <v>37</v>
+      </c>
+      <c r="K188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>242</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>21</v>
+      </c>
+      <c r="E189">
+        <v>200</v>
+      </c>
+      <c r="F189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>177</v>
+      </c>
+      <c r="H189" t="s">
+        <v>32</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>39</v>
+      </c>
+      <c r="K189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>243</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>93</v>
+      </c>
+      <c r="E190">
+        <v>200</v>
+      </c>
+      <c r="F190" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s">
+        <v>177</v>
+      </c>
+      <c r="H190" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" t="s">
+        <v>43</v>
+      </c>
+      <c r="J190" t="s">
+        <v>37</v>
+      </c>
+      <c r="K190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>244</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191">
+        <v>200</v>
+      </c>
+      <c r="F191" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s">
+        <v>177</v>
+      </c>
+      <c r="H191" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>39</v>
+      </c>
+      <c r="K191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>245</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192">
+        <v>200</v>
+      </c>
+      <c r="F192" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" t="s">
+        <v>177</v>
+      </c>
+      <c r="H192" t="s">
+        <v>32</v>
+      </c>
+      <c r="I192" t="s">
+        <v>43</v>
+      </c>
+      <c r="J192" t="s">
+        <v>37</v>
+      </c>
+      <c r="K192" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>246</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193">
+        <v>200</v>
+      </c>
+      <c r="F193" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" t="s">
+        <v>177</v>
+      </c>
+      <c r="H193" t="s">
+        <v>32</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>39</v>
+      </c>
+      <c r="K193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>247</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>248</v>
+      </c>
+      <c r="E194">
+        <v>200</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>249</v>
+      </c>
+      <c r="K194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>251</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>252</v>
+      </c>
+      <c r="E195">
+        <v>404</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>16</v>
+      </c>
+      <c r="K195" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>248</v>
+      </c>
+      <c r="E196">
+        <v>304</v>
+      </c>
+      <c r="F196" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>249</v>
+      </c>
+      <c r="K196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>255</v>
+      </c>
+      <c r="E197">
+        <v>200</v>
+      </c>
+      <c r="F197" t="s">
+        <v>30</v>
+      </c>
+      <c r="G197" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>16</v>
+      </c>
+      <c r="K197" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>200</v>
+      </c>
+      <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>16</v>
+      </c>
+      <c r="K198" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>257</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>200</v>
+      </c>
+      <c r="F199" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199" t="s">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>16</v>
+      </c>
+      <c r="K199" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>258</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>93</v>
+      </c>
+      <c r="E200">
+        <v>200</v>
+      </c>
+      <c r="F200" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" t="s">
+        <v>177</v>
+      </c>
+      <c r="H200" t="s">
+        <v>32</v>
+      </c>
+      <c r="I200" t="s">
+        <v>43</v>
+      </c>
+      <c r="J200" t="s">
+        <v>37</v>
+      </c>
+      <c r="K200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201">
+        <v>200</v>
+      </c>
+      <c r="F201" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" t="s">
+        <v>177</v>
+      </c>
+      <c r="H201" t="s">
+        <v>32</v>
+      </c>
+      <c r="I201" t="s">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>39</v>
+      </c>
+      <c r="K201" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>261</v>
+      </c>
+      <c r="E202">
+        <v>403</v>
+      </c>
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" t="s">
+        <v>177</v>
+      </c>
+      <c r="H202" t="s">
+        <v>32</v>
+      </c>
+      <c r="I202" t="s">
+        <v>45</v>
+      </c>
+      <c r="J202" t="s">
+        <v>262</v>
+      </c>
+      <c r="K202" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>263</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203">
+        <v>200</v>
+      </c>
+      <c r="F203" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" t="s">
+        <v>177</v>
+      </c>
+      <c r="H203" t="s">
+        <v>32</v>
+      </c>
+      <c r="I203" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>39</v>
+      </c>
+      <c r="K203" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>264</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204">
+        <v>200</v>
+      </c>
+      <c r="F204" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" t="s">
+        <v>177</v>
+      </c>
+      <c r="H204" t="s">
+        <v>32</v>
+      </c>
+      <c r="I204" t="s">
+        <v>45</v>
+      </c>
+      <c r="J204" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>265</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>261</v>
+      </c>
+      <c r="E205">
+        <v>200</v>
+      </c>
+      <c r="F205" t="s">
+        <v>30</v>
+      </c>
+      <c r="G205" t="s">
+        <v>177</v>
+      </c>
+      <c r="H205" t="s">
+        <v>32</v>
+      </c>
+      <c r="I205" t="s">
+        <v>45</v>
+      </c>
+      <c r="J205" t="s">
+        <v>37</v>
+      </c>
+      <c r="K205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>266</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>21</v>
+      </c>
+      <c r="E206">
+        <v>200</v>
+      </c>
+      <c r="F206" t="s">
+        <v>30</v>
+      </c>
+      <c r="G206" t="s">
+        <v>177</v>
+      </c>
+      <c r="H206" t="s">
+        <v>32</v>
+      </c>
+      <c r="I206" t="s">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>39</v>
+      </c>
+      <c r="K206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>267</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>268</v>
+      </c>
+      <c r="E207">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" t="s">
+        <v>16</v>
+      </c>
+      <c r="H207" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" t="s">
+        <v>45</v>
+      </c>
+      <c r="J207" t="s">
+        <v>269</v>
+      </c>
+      <c r="K207" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>271</v>
+      </c>
+      <c r="E208">
+        <v>404</v>
+      </c>
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
+        <v>16</v>
+      </c>
+      <c r="H208" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" t="s">
+        <v>16</v>
+      </c>
+      <c r="J208" t="s">
+        <v>272</v>
+      </c>
+      <c r="K208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>273</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209">
+        <v>200</v>
+      </c>
+      <c r="F209" t="s">
+        <v>30</v>
+      </c>
+      <c r="G209" t="s">
+        <v>274</v>
+      </c>
+      <c r="H209" t="s">
+        <v>275</v>
+      </c>
+      <c r="I209" t="s">
+        <v>45</v>
+      </c>
+      <c r="J209" t="s">
+        <v>34</v>
+      </c>
+      <c r="K209" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>276</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>268</v>
+      </c>
+      <c r="E210">
+        <v>200</v>
+      </c>
+      <c r="F210" t="s">
+        <v>30</v>
+      </c>
+      <c r="G210" t="s">
+        <v>274</v>
+      </c>
+      <c r="H210" t="s">
+        <v>275</v>
+      </c>
+      <c r="I210" t="s">
+        <v>45</v>
+      </c>
+      <c r="J210" t="s">
+        <v>37</v>
+      </c>
+      <c r="K210" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>277</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" t="s">
+        <v>271</v>
+      </c>
+      <c r="E211">
+        <v>200</v>
+      </c>
+      <c r="F211" t="s">
+        <v>30</v>
+      </c>
+      <c r="G211" t="s">
+        <v>274</v>
+      </c>
+      <c r="H211" t="s">
+        <v>275</v>
+      </c>
+      <c r="I211" t="s">
+        <v>16</v>
+      </c>
+      <c r="J211" t="s">
+        <v>39</v>
+      </c>
+      <c r="K211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>278</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>255</v>
+      </c>
+      <c r="E212">
+        <v>200</v>
+      </c>
+      <c r="F212" t="s">
+        <v>30</v>
+      </c>
+      <c r="G212" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" t="s">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>16</v>
+      </c>
+      <c r="K212" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>279</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>268</v>
+      </c>
+      <c r="E213">
+        <v>200</v>
+      </c>
+      <c r="F213" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" t="s">
+        <v>274</v>
+      </c>
+      <c r="H213" t="s">
+        <v>275</v>
+      </c>
+      <c r="I213" t="s">
+        <v>45</v>
+      </c>
+      <c r="J213" t="s">
+        <v>37</v>
+      </c>
+      <c r="K213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>280</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>271</v>
+      </c>
+      <c r="E214">
+        <v>200</v>
+      </c>
+      <c r="F214" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" t="s">
+        <v>274</v>
+      </c>
+      <c r="H214" t="s">
+        <v>275</v>
+      </c>
+      <c r="I214" t="s">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>39</v>
+      </c>
+      <c r="K214" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>281</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s">
+        <v>268</v>
+      </c>
+      <c r="E215">
+        <v>200</v>
+      </c>
+      <c r="F215" t="s">
+        <v>30</v>
+      </c>
+      <c r="G215" t="s">
+        <v>274</v>
+      </c>
+      <c r="H215" t="s">
+        <v>275</v>
+      </c>
+      <c r="I215" t="s">
+        <v>45</v>
+      </c>
+      <c r="J215" t="s">
+        <v>37</v>
+      </c>
+      <c r="K215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>282</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>271</v>
+      </c>
+      <c r="E216">
+        <v>200</v>
+      </c>
+      <c r="F216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s">
+        <v>274</v>
+      </c>
+      <c r="H216" t="s">
+        <v>275</v>
+      </c>
+      <c r="I216" t="s">
+        <v>16</v>
+      </c>
+      <c r="J216" t="s">
+        <v>39</v>
+      </c>
+      <c r="K216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>283</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" t="s">
+        <v>268</v>
+      </c>
+      <c r="E217">
+        <v>200</v>
+      </c>
+      <c r="F217" t="s">
+        <v>30</v>
+      </c>
+      <c r="G217" t="s">
+        <v>274</v>
+      </c>
+      <c r="H217" t="s">
+        <v>275</v>
+      </c>
+      <c r="I217" t="s">
+        <v>45</v>
+      </c>
+      <c r="J217" t="s">
+        <v>37</v>
+      </c>
+      <c r="K217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>284</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" t="s">
+        <v>271</v>
+      </c>
+      <c r="E218">
+        <v>200</v>
+      </c>
+      <c r="F218" t="s">
+        <v>30</v>
+      </c>
+      <c r="G218" t="s">
+        <v>274</v>
+      </c>
+      <c r="H218" t="s">
+        <v>275</v>
+      </c>
+      <c r="I218" t="s">
+        <v>16</v>
+      </c>
+      <c r="J218" t="s">
+        <v>39</v>
+      </c>
+      <c r="K218" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>285</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>268</v>
+      </c>
+      <c r="E219">
+        <v>200</v>
+      </c>
+      <c r="F219" t="s">
+        <v>30</v>
+      </c>
+      <c r="G219" t="s">
+        <v>274</v>
+      </c>
+      <c r="H219" t="s">
+        <v>275</v>
+      </c>
+      <c r="I219" t="s">
+        <v>45</v>
+      </c>
+      <c r="J219" t="s">
+        <v>37</v>
+      </c>
+      <c r="K219" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>286</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="s">
+        <v>271</v>
+      </c>
+      <c r="E220">
+        <v>200</v>
+      </c>
+      <c r="F220" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" t="s">
+        <v>274</v>
+      </c>
+      <c r="H220" t="s">
+        <v>275</v>
+      </c>
+      <c r="I220" t="s">
+        <v>16</v>
+      </c>
+      <c r="J220" t="s">
+        <v>39</v>
+      </c>
+      <c r="K220" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>287</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>70</v>
+      </c>
+      <c r="D221" t="s">
+        <v>288</v>
+      </c>
+      <c r="E221">
+        <v>200</v>
+      </c>
+      <c r="F221" t="s">
+        <v>30</v>
+      </c>
+      <c r="G221" t="s">
+        <v>274</v>
+      </c>
+      <c r="H221" t="s">
+        <v>275</v>
+      </c>
+      <c r="I221" t="s">
+        <v>45</v>
+      </c>
+      <c r="J221" t="s">
+        <v>289</v>
+      </c>
+      <c r="K221" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>290</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>255</v>
+      </c>
+      <c r="E222">
+        <v>200</v>
+      </c>
+      <c r="F222" t="s">
+        <v>30</v>
+      </c>
+      <c r="G222" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
+      </c>
+      <c r="I222" t="s">
+        <v>16</v>
+      </c>
+      <c r="J222" t="s">
+        <v>16</v>
+      </c>
+      <c r="K222" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>291</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>255</v>
+      </c>
+      <c r="E223">
+        <v>200</v>
+      </c>
+      <c r="F223" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s">
+        <v>16</v>
+      </c>
+      <c r="H223" t="s">
+        <v>16</v>
+      </c>
+      <c r="I223" t="s">
+        <v>16</v>
+      </c>
+      <c r="J223" t="s">
+        <v>16</v>
+      </c>
+      <c r="K223" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>292</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>255</v>
+      </c>
+      <c r="E224">
+        <v>200</v>
+      </c>
+      <c r="F224" t="s">
+        <v>30</v>
+      </c>
+      <c r="G224" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" t="s">
+        <v>16</v>
+      </c>
+      <c r="K224" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>293</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>268</v>
+      </c>
+      <c r="E225">
+        <v>404</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" t="s">
+        <v>16</v>
+      </c>
+      <c r="H225" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" t="s">
+        <v>45</v>
+      </c>
+      <c r="J225" t="s">
+        <v>269</v>
+      </c>
+      <c r="K225" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>294</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>271</v>
+      </c>
+      <c r="E226">
+        <v>404</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" t="s">
+        <v>16</v>
+      </c>
+      <c r="I226" t="s">
+        <v>16</v>
+      </c>
+      <c r="J226" t="s">
+        <v>272</v>
+      </c>
+      <c r="K226" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>295</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227">
+        <v>200</v>
+      </c>
+      <c r="F227" t="s">
+        <v>30</v>
+      </c>
+      <c r="G227" t="s">
+        <v>274</v>
+      </c>
+      <c r="H227" t="s">
+        <v>275</v>
+      </c>
+      <c r="I227" t="s">
+        <v>45</v>
+      </c>
+      <c r="J227" t="s">
+        <v>34</v>
+      </c>
+      <c r="K227" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>296</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>255</v>
+      </c>
+      <c r="E228">
+        <v>200</v>
+      </c>
+      <c r="F228" t="s">
+        <v>30</v>
+      </c>
+      <c r="G228" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" t="s">
+        <v>16</v>
+      </c>
+      <c r="J228" t="s">
+        <v>16</v>
+      </c>
+      <c r="K228" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>297</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>268</v>
+      </c>
+      <c r="E229">
+        <v>200</v>
+      </c>
+      <c r="F229" t="s">
+        <v>30</v>
+      </c>
+      <c r="G229" t="s">
+        <v>274</v>
+      </c>
+      <c r="H229" t="s">
+        <v>275</v>
+      </c>
+      <c r="I229" t="s">
+        <v>45</v>
+      </c>
+      <c r="J229" t="s">
+        <v>37</v>
+      </c>
+      <c r="K229" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>298</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>271</v>
+      </c>
+      <c r="E230">
+        <v>200</v>
+      </c>
+      <c r="F230" t="s">
+        <v>30</v>
+      </c>
+      <c r="G230" t="s">
+        <v>274</v>
+      </c>
+      <c r="H230" t="s">
+        <v>275</v>
+      </c>
+      <c r="I230" t="s">
+        <v>16</v>
+      </c>
+      <c r="J230" t="s">
+        <v>39</v>
+      </c>
+      <c r="K230" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>299</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>255</v>
+      </c>
+      <c r="E231">
+        <v>200</v>
+      </c>
+      <c r="F231" t="s">
+        <v>30</v>
+      </c>
+      <c r="G231" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" t="s">
+        <v>16</v>
+      </c>
+      <c r="I231" t="s">
+        <v>16</v>
+      </c>
+      <c r="J231" t="s">
+        <v>16</v>
+      </c>
+      <c r="K231" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>300</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>268</v>
+      </c>
+      <c r="E232">
+        <v>200</v>
+      </c>
+      <c r="F232" t="s">
+        <v>30</v>
+      </c>
+      <c r="G232" t="s">
+        <v>274</v>
+      </c>
+      <c r="H232" t="s">
+        <v>275</v>
+      </c>
+      <c r="I232" t="s">
+        <v>45</v>
+      </c>
+      <c r="J232" t="s">
+        <v>37</v>
+      </c>
+      <c r="K232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>301</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" t="s">
+        <v>271</v>
+      </c>
+      <c r="E233">
+        <v>200</v>
+      </c>
+      <c r="F233" t="s">
+        <v>30</v>
+      </c>
+      <c r="G233" t="s">
+        <v>274</v>
+      </c>
+      <c r="H233" t="s">
+        <v>275</v>
+      </c>
+      <c r="I233" t="s">
+        <v>16</v>
+      </c>
+      <c r="J233" t="s">
+        <v>39</v>
+      </c>
+      <c r="K233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>302</v>
+      </c>
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>268</v>
+      </c>
+      <c r="E234">
+        <v>200</v>
+      </c>
+      <c r="F234" t="s">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>274</v>
+      </c>
+      <c r="H234" t="s">
+        <v>275</v>
+      </c>
+      <c r="I234" t="s">
+        <v>45</v>
+      </c>
+      <c r="J234" t="s">
+        <v>37</v>
+      </c>
+      <c r="K234" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>303</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" t="s">
+        <v>271</v>
+      </c>
+      <c r="E235">
+        <v>200</v>
+      </c>
+      <c r="F235" t="s">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>274</v>
+      </c>
+      <c r="H235" t="s">
+        <v>275</v>
+      </c>
+      <c r="I235" t="s">
+        <v>16</v>
+      </c>
+      <c r="J235" t="s">
+        <v>39</v>
+      </c>
+      <c r="K235" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>304</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>268</v>
+      </c>
+      <c r="E236">
+        <v>200</v>
+      </c>
+      <c r="F236" t="s">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>274</v>
+      </c>
+      <c r="H236" t="s">
+        <v>275</v>
+      </c>
+      <c r="I236" t="s">
+        <v>45</v>
+      </c>
+      <c r="J236" t="s">
+        <v>37</v>
+      </c>
+      <c r="K236" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>305</v>
+      </c>
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" t="s">
+        <v>271</v>
+      </c>
+      <c r="E237">
+        <v>200</v>
+      </c>
+      <c r="F237" t="s">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>274</v>
+      </c>
+      <c r="H237" t="s">
+        <v>275</v>
+      </c>
+      <c r="I237" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237" t="s">
+        <v>39</v>
+      </c>
+      <c r="K237" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>306</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>268</v>
+      </c>
+      <c r="E238">
+        <v>200</v>
+      </c>
+      <c r="F238" t="s">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>274</v>
+      </c>
+      <c r="H238" t="s">
+        <v>275</v>
+      </c>
+      <c r="I238" t="s">
+        <v>45</v>
+      </c>
+      <c r="J238" t="s">
+        <v>37</v>
+      </c>
+      <c r="K238" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>307</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>271</v>
+      </c>
+      <c r="E239">
+        <v>200</v>
+      </c>
+      <c r="F239" t="s">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>274</v>
+      </c>
+      <c r="H239" t="s">
+        <v>275</v>
+      </c>
+      <c r="I239" t="s">
+        <v>16</v>
+      </c>
+      <c r="J239" t="s">
+        <v>39</v>
+      </c>
+      <c r="K239" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>308</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>268</v>
+      </c>
+      <c r="E240">
+        <v>200</v>
+      </c>
+      <c r="F240" t="s">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>274</v>
+      </c>
+      <c r="H240" t="s">
+        <v>275</v>
+      </c>
+      <c r="I240" t="s">
+        <v>45</v>
+      </c>
+      <c r="J240" t="s">
+        <v>37</v>
+      </c>
+      <c r="K240" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>309</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" t="s">
+        <v>271</v>
+      </c>
+      <c r="E241">
+        <v>200</v>
+      </c>
+      <c r="F241" t="s">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>274</v>
+      </c>
+      <c r="H241" t="s">
+        <v>275</v>
+      </c>
+      <c r="I241" t="s">
+        <v>16</v>
+      </c>
+      <c r="J241" t="s">
+        <v>39</v>
+      </c>
+      <c r="K241" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>310</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>268</v>
+      </c>
+      <c r="E242">
+        <v>200</v>
+      </c>
+      <c r="F242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>274</v>
+      </c>
+      <c r="H242" t="s">
+        <v>275</v>
+      </c>
+      <c r="I242" t="s">
+        <v>45</v>
+      </c>
+      <c r="J242" t="s">
+        <v>37</v>
+      </c>
+      <c r="K242" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>311</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" t="s">
+        <v>271</v>
+      </c>
+      <c r="E243">
+        <v>200</v>
+      </c>
+      <c r="F243" t="s">
+        <v>30</v>
+      </c>
+      <c r="G243" t="s">
+        <v>274</v>
+      </c>
+      <c r="H243" t="s">
+        <v>275</v>
+      </c>
+      <c r="I243" t="s">
+        <v>16</v>
+      </c>
+      <c r="J243" t="s">
+        <v>39</v>
+      </c>
+      <c r="K243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>312</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>255</v>
+      </c>
+      <c r="E244">
+        <v>200</v>
+      </c>
+      <c r="F244" t="s">
+        <v>30</v>
+      </c>
+      <c r="G244" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" t="s">
+        <v>16</v>
+      </c>
+      <c r="I244" t="s">
+        <v>16</v>
+      </c>
+      <c r="J244" t="s">
+        <v>16</v>
+      </c>
+      <c r="K244" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>313</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>268</v>
+      </c>
+      <c r="E245">
+        <v>200</v>
+      </c>
+      <c r="F245" t="s">
+        <v>30</v>
+      </c>
+      <c r="G245" t="s">
+        <v>274</v>
+      </c>
+      <c r="H245" t="s">
+        <v>275</v>
+      </c>
+      <c r="I245" t="s">
+        <v>45</v>
+      </c>
+      <c r="J245" t="s">
+        <v>37</v>
+      </c>
+      <c r="K245" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>314</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>271</v>
+      </c>
+      <c r="E246">
+        <v>200</v>
+      </c>
+      <c r="F246" t="s">
+        <v>30</v>
+      </c>
+      <c r="G246" t="s">
+        <v>274</v>
+      </c>
+      <c r="H246" t="s">
+        <v>275</v>
+      </c>
+      <c r="I246" t="s">
+        <v>16</v>
+      </c>
+      <c r="J246" t="s">
+        <v>39</v>
+      </c>
+      <c r="K246" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>315</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" t="s">
+        <v>268</v>
+      </c>
+      <c r="E247">
+        <v>200</v>
+      </c>
+      <c r="F247" t="s">
+        <v>30</v>
+      </c>
+      <c r="G247" t="s">
+        <v>274</v>
+      </c>
+      <c r="H247" t="s">
+        <v>275</v>
+      </c>
+      <c r="I247" t="s">
+        <v>45</v>
+      </c>
+      <c r="J247" t="s">
+        <v>37</v>
+      </c>
+      <c r="K247" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>316</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>271</v>
+      </c>
+      <c r="E248">
+        <v>200</v>
+      </c>
+      <c r="F248" t="s">
+        <v>30</v>
+      </c>
+      <c r="G248" t="s">
+        <v>274</v>
+      </c>
+      <c r="H248" t="s">
+        <v>275</v>
+      </c>
+      <c r="I248" t="s">
+        <v>16</v>
+      </c>
+      <c r="J248" t="s">
+        <v>39</v>
+      </c>
+      <c r="K248" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>317</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>268</v>
+      </c>
+      <c r="E249">
+        <v>200</v>
+      </c>
+      <c r="F249" t="s">
+        <v>30</v>
+      </c>
+      <c r="G249" t="s">
+        <v>274</v>
+      </c>
+      <c r="H249" t="s">
+        <v>275</v>
+      </c>
+      <c r="I249" t="s">
+        <v>45</v>
+      </c>
+      <c r="J249" t="s">
+        <v>37</v>
+      </c>
+      <c r="K249" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>318</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="s">
+        <v>271</v>
+      </c>
+      <c r="E250">
+        <v>200</v>
+      </c>
+      <c r="F250" t="s">
+        <v>30</v>
+      </c>
+      <c r="G250" t="s">
+        <v>274</v>
+      </c>
+      <c r="H250" t="s">
+        <v>275</v>
+      </c>
+      <c r="I250" t="s">
+        <v>16</v>
+      </c>
+      <c r="J250" t="s">
+        <v>39</v>
+      </c>
+      <c r="K250" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>319</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" t="s">
+        <v>268</v>
+      </c>
+      <c r="E251">
+        <v>200</v>
+      </c>
+      <c r="F251" t="s">
+        <v>30</v>
+      </c>
+      <c r="G251" t="s">
+        <v>274</v>
+      </c>
+      <c r="H251" t="s">
+        <v>275</v>
+      </c>
+      <c r="I251" t="s">
+        <v>45</v>
+      </c>
+      <c r="J251" t="s">
+        <v>37</v>
+      </c>
+      <c r="K251" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>320</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" t="s">
+        <v>271</v>
+      </c>
+      <c r="E252">
+        <v>200</v>
+      </c>
+      <c r="F252" t="s">
+        <v>30</v>
+      </c>
+      <c r="G252" t="s">
+        <v>274</v>
+      </c>
+      <c r="H252" t="s">
+        <v>275</v>
+      </c>
+      <c r="I252" t="s">
+        <v>16</v>
+      </c>
+      <c r="J252" t="s">
+        <v>39</v>
+      </c>
+      <c r="K252" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>321</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>255</v>
+      </c>
+      <c r="E253">
+        <v>200</v>
+      </c>
+      <c r="F253" t="s">
+        <v>30</v>
+      </c>
+      <c r="G253" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" t="s">
+        <v>16</v>
+      </c>
+      <c r="I253" t="s">
+        <v>16</v>
+      </c>
+      <c r="J253" t="s">
+        <v>16</v>
+      </c>
+      <c r="K253" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>322</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" t="s">
+        <v>261</v>
+      </c>
+      <c r="E254">
+        <v>200</v>
+      </c>
+      <c r="F254" t="s">
+        <v>30</v>
+      </c>
+      <c r="G254" t="s">
+        <v>177</v>
+      </c>
+      <c r="H254" t="s">
+        <v>32</v>
+      </c>
+      <c r="I254" t="s">
+        <v>45</v>
+      </c>
+      <c r="J254" t="s">
+        <v>37</v>
+      </c>
+      <c r="K254" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>323</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" t="s">
+        <v>21</v>
+      </c>
+      <c r="E255">
+        <v>200</v>
+      </c>
+      <c r="F255" t="s">
+        <v>30</v>
+      </c>
+      <c r="G255" t="s">
+        <v>177</v>
+      </c>
+      <c r="H255" t="s">
+        <v>32</v>
+      </c>
+      <c r="I255" t="s">
+        <v>16</v>
+      </c>
+      <c r="J255" t="s">
+        <v>39</v>
+      </c>
+      <c r="K255" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>324</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>261</v>
+      </c>
+      <c r="E256">
+        <v>200</v>
+      </c>
+      <c r="F256" t="s">
+        <v>30</v>
+      </c>
+      <c r="G256" t="s">
+        <v>177</v>
+      </c>
+      <c r="H256" t="s">
+        <v>32</v>
+      </c>
+      <c r="I256" t="s">
+        <v>45</v>
+      </c>
+      <c r="J256" t="s">
+        <v>37</v>
+      </c>
+      <c r="K256" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>325</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257">
+        <v>200</v>
+      </c>
+      <c r="F257" t="s">
+        <v>30</v>
+      </c>
+      <c r="G257" t="s">
+        <v>177</v>
+      </c>
+      <c r="H257" t="s">
+        <v>32</v>
+      </c>
+      <c r="I257" t="s">
+        <v>16</v>
+      </c>
+      <c r="J257" t="s">
+        <v>39</v>
+      </c>
+      <c r="K257" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>326</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>327</v>
+      </c>
+      <c r="E258">
+        <v>403</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s">
+        <v>177</v>
+      </c>
+      <c r="H258" t="s">
+        <v>32</v>
+      </c>
+      <c r="I258" t="s">
+        <v>79</v>
+      </c>
+      <c r="J258" t="s">
+        <v>328</v>
+      </c>
+      <c r="K258" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>329</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259">
+        <v>200</v>
+      </c>
+      <c r="F259" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" t="s">
+        <v>177</v>
+      </c>
+      <c r="H259" t="s">
+        <v>32</v>
+      </c>
+      <c r="I259" t="s">
+        <v>16</v>
+      </c>
+      <c r="J259" t="s">
+        <v>39</v>
+      </c>
+      <c r="K259" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>330</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>29</v>
+      </c>
+      <c r="E260">
+        <v>200</v>
+      </c>
+      <c r="F260" t="s">
+        <v>30</v>
+      </c>
+      <c r="G260" t="s">
+        <v>177</v>
+      </c>
+      <c r="H260" t="s">
+        <v>32</v>
+      </c>
+      <c r="I260" t="s">
+        <v>79</v>
+      </c>
+      <c r="J260" t="s">
+        <v>41</v>
+      </c>
+      <c r="K260" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>331</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" t="s">
+        <v>327</v>
+      </c>
+      <c r="E261">
+        <v>200</v>
+      </c>
+      <c r="F261" t="s">
+        <v>30</v>
+      </c>
+      <c r="G261" t="s">
+        <v>177</v>
+      </c>
+      <c r="H261" t="s">
+        <v>32</v>
+      </c>
+      <c r="I261" t="s">
+        <v>79</v>
+      </c>
+      <c r="J261" t="s">
+        <v>37</v>
+      </c>
+      <c r="K261" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>332</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262">
+        <v>200</v>
+      </c>
+      <c r="F262" t="s">
+        <v>30</v>
+      </c>
+      <c r="G262" t="s">
+        <v>177</v>
+      </c>
+      <c r="H262" t="s">
+        <v>32</v>
+      </c>
+      <c r="I262" t="s">
+        <v>16</v>
+      </c>
+      <c r="J262" t="s">
+        <v>39</v>
+      </c>
+      <c r="K262" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>333</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" t="s">
+        <v>327</v>
+      </c>
+      <c r="E263">
+        <v>200</v>
+      </c>
+      <c r="F263" t="s">
+        <v>30</v>
+      </c>
+      <c r="G263" t="s">
+        <v>177</v>
+      </c>
+      <c r="H263" t="s">
+        <v>32</v>
+      </c>
+      <c r="I263" t="s">
+        <v>79</v>
+      </c>
+      <c r="J263" t="s">
+        <v>37</v>
+      </c>
+      <c r="K263" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>334</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" t="s">
+        <v>21</v>
+      </c>
+      <c r="E264">
+        <v>200</v>
+      </c>
+      <c r="F264" t="s">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>177</v>
+      </c>
+      <c r="H264" t="s">
+        <v>32</v>
+      </c>
+      <c r="I264" t="s">
+        <v>16</v>
+      </c>
+      <c r="J264" t="s">
+        <v>39</v>
+      </c>
+      <c r="K264" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>335</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="s">
+        <v>336</v>
+      </c>
+      <c r="E265">
+        <v>403</v>
+      </c>
+      <c r="F265" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" t="s">
+        <v>177</v>
+      </c>
+      <c r="H265" t="s">
+        <v>32</v>
+      </c>
+      <c r="I265" t="s">
+        <v>337</v>
+      </c>
+      <c r="J265" t="s">
+        <v>338</v>
+      </c>
+      <c r="K265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>339</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>21</v>
+      </c>
+      <c r="E266">
+        <v>200</v>
+      </c>
+      <c r="F266" t="s">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>177</v>
+      </c>
+      <c r="H266" t="s">
+        <v>32</v>
+      </c>
+      <c r="I266" t="s">
+        <v>16</v>
+      </c>
+      <c r="J266" t="s">
+        <v>39</v>
+      </c>
+      <c r="K266" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>340</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>29</v>
+      </c>
+      <c r="E267">
+        <v>200</v>
+      </c>
+      <c r="F267" t="s">
+        <v>30</v>
+      </c>
+      <c r="G267" t="s">
+        <v>177</v>
+      </c>
+      <c r="H267" t="s">
+        <v>32</v>
+      </c>
+      <c r="I267" t="s">
+        <v>337</v>
+      </c>
+      <c r="J267" t="s">
+        <v>41</v>
+      </c>
+      <c r="K267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>341</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>336</v>
+      </c>
+      <c r="E268">
+        <v>200</v>
+      </c>
+      <c r="F268" t="s">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>177</v>
+      </c>
+      <c r="H268" t="s">
+        <v>32</v>
+      </c>
+      <c r="I268" t="s">
+        <v>337</v>
+      </c>
+      <c r="J268" t="s">
+        <v>37</v>
+      </c>
+      <c r="K268" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>342</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+      <c r="E269">
+        <v>200</v>
+      </c>
+      <c r="F269" t="s">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>177</v>
+      </c>
+      <c r="H269" t="s">
+        <v>32</v>
+      </c>
+      <c r="I269" t="s">
+        <v>16</v>
+      </c>
+      <c r="J269" t="s">
+        <v>39</v>
+      </c>
+      <c r="K269" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>343</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>336</v>
+      </c>
+      <c r="E270">
+        <v>200</v>
+      </c>
+      <c r="F270" t="s">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>177</v>
+      </c>
+      <c r="H270" t="s">
+        <v>32</v>
+      </c>
+      <c r="I270" t="s">
+        <v>337</v>
+      </c>
+      <c r="J270" t="s">
+        <v>37</v>
+      </c>
+      <c r="K270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>344</v>
+      </c>
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>21</v>
+      </c>
+      <c r="E271">
+        <v>200</v>
+      </c>
+      <c r="F271" t="s">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>177</v>
+      </c>
+      <c r="H271" t="s">
+        <v>32</v>
+      </c>
+      <c r="I271" t="s">
+        <v>16</v>
+      </c>
+      <c r="J271" t="s">
+        <v>39</v>
+      </c>
+      <c r="K271" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>345</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>255</v>
+      </c>
+      <c r="E272">
+        <v>200</v>
+      </c>
+      <c r="F272" t="s">
+        <v>30</v>
+      </c>
+      <c r="G272" t="s">
+        <v>16</v>
+      </c>
+      <c r="H272" t="s">
+        <v>16</v>
+      </c>
+      <c r="I272" t="s">
+        <v>16</v>
+      </c>
+      <c r="J272" t="s">
+        <v>16</v>
+      </c>
+      <c r="K272" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>346</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>336</v>
+      </c>
+      <c r="E273">
+        <v>200</v>
+      </c>
+      <c r="F273" t="s">
+        <v>30</v>
+      </c>
+      <c r="G273" t="s">
+        <v>177</v>
+      </c>
+      <c r="H273" t="s">
+        <v>32</v>
+      </c>
+      <c r="I273" t="s">
+        <v>337</v>
+      </c>
+      <c r="J273" t="s">
+        <v>37</v>
+      </c>
+      <c r="K273" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>347</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274">
+        <v>200</v>
+      </c>
+      <c r="F274" t="s">
+        <v>30</v>
+      </c>
+      <c r="G274" t="s">
+        <v>177</v>
+      </c>
+      <c r="H274" t="s">
+        <v>32</v>
+      </c>
+      <c r="I274" t="s">
+        <v>16</v>
+      </c>
+      <c r="J274" t="s">
+        <v>39</v>
+      </c>
+      <c r="K274" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>348</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>29</v>
+      </c>
+      <c r="E275">
+        <v>200</v>
+      </c>
+      <c r="F275" t="s">
+        <v>30</v>
+      </c>
+      <c r="G275" t="s">
+        <v>274</v>
+      </c>
+      <c r="H275" t="s">
+        <v>275</v>
+      </c>
+      <c r="I275" t="s">
+        <v>337</v>
+      </c>
+      <c r="J275" t="s">
+        <v>41</v>
+      </c>
+      <c r="K275" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>349</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>255</v>
+      </c>
+      <c r="E276">
+        <v>200</v>
+      </c>
+      <c r="F276" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" t="s">
+        <v>16</v>
+      </c>
+      <c r="H276" t="s">
+        <v>16</v>
+      </c>
+      <c r="I276" t="s">
+        <v>16</v>
+      </c>
+      <c r="J276" t="s">
+        <v>16</v>
+      </c>
+      <c r="K276" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>350</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>351</v>
+      </c>
+      <c r="E277">
+        <v>200</v>
+      </c>
+      <c r="F277" t="s">
+        <v>30</v>
+      </c>
+      <c r="G277" t="s">
+        <v>274</v>
+      </c>
+      <c r="H277" t="s">
+        <v>275</v>
+      </c>
+      <c r="I277" t="s">
+        <v>337</v>
+      </c>
+      <c r="J277" t="s">
+        <v>37</v>
+      </c>
+      <c r="K277" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>352</v>
+      </c>
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>271</v>
+      </c>
+      <c r="E278">
+        <v>200</v>
+      </c>
+      <c r="F278" t="s">
+        <v>30</v>
+      </c>
+      <c r="G278" t="s">
+        <v>274</v>
+      </c>
+      <c r="H278" t="s">
+        <v>275</v>
+      </c>
+      <c r="I278" t="s">
+        <v>16</v>
+      </c>
+      <c r="J278" t="s">
+        <v>39</v>
+      </c>
+      <c r="K278" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>353</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>255</v>
+      </c>
+      <c r="E279">
+        <v>200</v>
+      </c>
+      <c r="F279" t="s">
+        <v>30</v>
+      </c>
+      <c r="G279" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" t="s">
+        <v>16</v>
+      </c>
+      <c r="I279" t="s">
+        <v>16</v>
+      </c>
+      <c r="J279" t="s">
+        <v>16</v>
+      </c>
+      <c r="K279" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>354</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>351</v>
+      </c>
+      <c r="E280">
+        <v>200</v>
+      </c>
+      <c r="F280" t="s">
+        <v>30</v>
+      </c>
+      <c r="G280" t="s">
+        <v>274</v>
+      </c>
+      <c r="H280" t="s">
+        <v>275</v>
+      </c>
+      <c r="I280" t="s">
+        <v>337</v>
+      </c>
+      <c r="J280" t="s">
+        <v>37</v>
+      </c>
+      <c r="K280" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>355</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" t="s">
+        <v>271</v>
+      </c>
+      <c r="E281">
+        <v>200</v>
+      </c>
+      <c r="F281" t="s">
+        <v>30</v>
+      </c>
+      <c r="G281" t="s">
+        <v>274</v>
+      </c>
+      <c r="H281" t="s">
+        <v>275</v>
+      </c>
+      <c r="I281" t="s">
+        <v>16</v>
+      </c>
+      <c r="J281" t="s">
+        <v>39</v>
+      </c>
+      <c r="K281" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>356</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" t="s">
+        <v>351</v>
+      </c>
+      <c r="E282">
+        <v>200</v>
+      </c>
+      <c r="F282" t="s">
+        <v>30</v>
+      </c>
+      <c r="G282" t="s">
+        <v>274</v>
+      </c>
+      <c r="H282" t="s">
+        <v>275</v>
+      </c>
+      <c r="I282" t="s">
+        <v>337</v>
+      </c>
+      <c r="J282" t="s">
+        <v>37</v>
+      </c>
+      <c r="K282" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>357</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" t="s">
+        <v>271</v>
+      </c>
+      <c r="E283">
+        <v>200</v>
+      </c>
+      <c r="F283" t="s">
+        <v>30</v>
+      </c>
+      <c r="G283" t="s">
+        <v>274</v>
+      </c>
+      <c r="H283" t="s">
+        <v>275</v>
+      </c>
+      <c r="I283" t="s">
+        <v>16</v>
+      </c>
+      <c r="J283" t="s">
+        <v>39</v>
+      </c>
+      <c r="K283" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>358</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" t="s">
+        <v>351</v>
+      </c>
+      <c r="E284">
+        <v>200</v>
+      </c>
+      <c r="F284" t="s">
+        <v>30</v>
+      </c>
+      <c r="G284" t="s">
+        <v>274</v>
+      </c>
+      <c r="H284" t="s">
+        <v>275</v>
+      </c>
+      <c r="I284" t="s">
+        <v>337</v>
+      </c>
+      <c r="J284" t="s">
+        <v>37</v>
+      </c>
+      <c r="K284" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>359</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285" t="s">
+        <v>271</v>
+      </c>
+      <c r="E285">
+        <v>200</v>
+      </c>
+      <c r="F285" t="s">
+        <v>30</v>
+      </c>
+      <c r="G285" t="s">
+        <v>274</v>
+      </c>
+      <c r="H285" t="s">
+        <v>275</v>
+      </c>
+      <c r="I285" t="s">
+        <v>16</v>
+      </c>
+      <c r="J285" t="s">
+        <v>39</v>
+      </c>
+      <c r="K285" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>360</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" t="s">
+        <v>351</v>
+      </c>
+      <c r="E286">
+        <v>200</v>
+      </c>
+      <c r="F286" t="s">
+        <v>30</v>
+      </c>
+      <c r="G286" t="s">
+        <v>274</v>
+      </c>
+      <c r="H286" t="s">
+        <v>275</v>
+      </c>
+      <c r="I286" t="s">
+        <v>337</v>
+      </c>
+      <c r="J286" t="s">
+        <v>37</v>
+      </c>
+      <c r="K286" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>361</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287" t="s">
+        <v>271</v>
+      </c>
+      <c r="E287">
+        <v>200</v>
+      </c>
+      <c r="F287" t="s">
+        <v>30</v>
+      </c>
+      <c r="G287" t="s">
+        <v>274</v>
+      </c>
+      <c r="H287" t="s">
+        <v>275</v>
+      </c>
+      <c r="I287" t="s">
+        <v>16</v>
+      </c>
+      <c r="J287" t="s">
+        <v>39</v>
+      </c>
+      <c r="K287" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" t="s">
+        <v>351</v>
+      </c>
+      <c r="E288">
+        <v>200</v>
+      </c>
+      <c r="F288" t="s">
+        <v>30</v>
+      </c>
+      <c r="G288" t="s">
+        <v>274</v>
+      </c>
+      <c r="H288" t="s">
+        <v>275</v>
+      </c>
+      <c r="I288" t="s">
+        <v>337</v>
+      </c>
+      <c r="J288" t="s">
+        <v>37</v>
+      </c>
+      <c r="K288" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>363</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" t="s">
+        <v>271</v>
+      </c>
+      <c r="E289">
+        <v>200</v>
+      </c>
+      <c r="F289" t="s">
+        <v>30</v>
+      </c>
+      <c r="G289" t="s">
+        <v>274</v>
+      </c>
+      <c r="H289" t="s">
+        <v>275</v>
+      </c>
+      <c r="I289" t="s">
+        <v>16</v>
+      </c>
+      <c r="J289" t="s">
+        <v>39</v>
+      </c>
+      <c r="K289" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>364</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" t="s">
+        <v>351</v>
+      </c>
+      <c r="E290">
+        <v>200</v>
+      </c>
+      <c r="F290" t="s">
+        <v>30</v>
+      </c>
+      <c r="G290" t="s">
+        <v>274</v>
+      </c>
+      <c r="H290" t="s">
+        <v>275</v>
+      </c>
+      <c r="I290" t="s">
+        <v>337</v>
+      </c>
+      <c r="J290" t="s">
+        <v>37</v>
+      </c>
+      <c r="K290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>365</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" t="s">
+        <v>271</v>
+      </c>
+      <c r="E291">
+        <v>200</v>
+      </c>
+      <c r="F291" t="s">
+        <v>30</v>
+      </c>
+      <c r="G291" t="s">
+        <v>274</v>
+      </c>
+      <c r="H291" t="s">
+        <v>275</v>
+      </c>
+      <c r="I291" t="s">
+        <v>16</v>
+      </c>
+      <c r="J291" t="s">
+        <v>39</v>
+      </c>
+      <c r="K291" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>366</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>255</v>
+      </c>
+      <c r="E292">
+        <v>200</v>
+      </c>
+      <c r="F292" t="s">
+        <v>30</v>
+      </c>
+      <c r="G292" t="s">
+        <v>16</v>
+      </c>
+      <c r="H292" t="s">
+        <v>16</v>
+      </c>
+      <c r="I292" t="s">
+        <v>16</v>
+      </c>
+      <c r="J292" t="s">
+        <v>16</v>
+      </c>
+      <c r="K292" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="373">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1112,6 +1112,24 @@
   </si>
   <si>
     <t>2025-11-24T21:49:34.960Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:52:47.234Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:52:47.272Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:52:52.655Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:52:52.682Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:54:22.333Z</t>
+  </si>
+  <si>
+    <t>2025-11-24T21:54:22.372Z</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:K298"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11711,6 +11729,216 @@
         <v>250</v>
       </c>
     </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>367</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" t="s">
+        <v>336</v>
+      </c>
+      <c r="E293">
+        <v>200</v>
+      </c>
+      <c r="F293" t="s">
+        <v>30</v>
+      </c>
+      <c r="G293" t="s">
+        <v>177</v>
+      </c>
+      <c r="H293" t="s">
+        <v>32</v>
+      </c>
+      <c r="I293" t="s">
+        <v>337</v>
+      </c>
+      <c r="J293" t="s">
+        <v>37</v>
+      </c>
+      <c r="K293" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>368</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" t="s">
+        <v>21</v>
+      </c>
+      <c r="E294">
+        <v>200</v>
+      </c>
+      <c r="F294" t="s">
+        <v>30</v>
+      </c>
+      <c r="G294" t="s">
+        <v>177</v>
+      </c>
+      <c r="H294" t="s">
+        <v>32</v>
+      </c>
+      <c r="I294" t="s">
+        <v>16</v>
+      </c>
+      <c r="J294" t="s">
+        <v>39</v>
+      </c>
+      <c r="K294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>369</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" t="s">
+        <v>351</v>
+      </c>
+      <c r="E295">
+        <v>200</v>
+      </c>
+      <c r="F295" t="s">
+        <v>30</v>
+      </c>
+      <c r="G295" t="s">
+        <v>274</v>
+      </c>
+      <c r="H295" t="s">
+        <v>275</v>
+      </c>
+      <c r="I295" t="s">
+        <v>337</v>
+      </c>
+      <c r="J295" t="s">
+        <v>37</v>
+      </c>
+      <c r="K295" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>370</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" t="s">
+        <v>271</v>
+      </c>
+      <c r="E296">
+        <v>200</v>
+      </c>
+      <c r="F296" t="s">
+        <v>30</v>
+      </c>
+      <c r="G296" t="s">
+        <v>274</v>
+      </c>
+      <c r="H296" t="s">
+        <v>275</v>
+      </c>
+      <c r="I296" t="s">
+        <v>16</v>
+      </c>
+      <c r="J296" t="s">
+        <v>39</v>
+      </c>
+      <c r="K296" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>371</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>13</v>
+      </c>
+      <c r="D297" t="s">
+        <v>351</v>
+      </c>
+      <c r="E297">
+        <v>200</v>
+      </c>
+      <c r="F297" t="s">
+        <v>30</v>
+      </c>
+      <c r="G297" t="s">
+        <v>274</v>
+      </c>
+      <c r="H297" t="s">
+        <v>275</v>
+      </c>
+      <c r="I297" t="s">
+        <v>337</v>
+      </c>
+      <c r="J297" t="s">
+        <v>37</v>
+      </c>
+      <c r="K297" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>372</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>271</v>
+      </c>
+      <c r="E298">
+        <v>200</v>
+      </c>
+      <c r="F298" t="s">
+        <v>30</v>
+      </c>
+      <c r="G298" t="s">
+        <v>274</v>
+      </c>
+      <c r="H298" t="s">
+        <v>275</v>
+      </c>
+      <c r="I298" t="s">
+        <v>16</v>
+      </c>
+      <c r="J298" t="s">
+        <v>39</v>
+      </c>
+      <c r="K298" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="479">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1130,6 +1130,324 @@
   </si>
   <si>
     <t>2025-11-24T21:54:22.372Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:23:57.207Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:23:57.276Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:12.819Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=103</t>
+  </si>
+  <si>
+    <t>UID EA4C7814 not found in /user</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:12.859Z</t>
+  </si>
+  <si>
+    <t>/uid-name/EA4C7814</t>
+  </si>
+  <si>
+    <t>UID EA4C7814 not found in /uid-name</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:32.661Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:32.923Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:38.571Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:38.627Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:43.152Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:25:43.197Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:29:42.434Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=105</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:29:42.498Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:29:46.213Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:29:46.655Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:29:57.793Z</t>
+  </si>
+  <si>
+    <t>/user/E9956AF6?roomID=105</t>
+  </si>
+  <si>
+    <t>UID E9956AF6 not found in /user</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:29:57.912Z</t>
+  </si>
+  <si>
+    <t>/uid-name/E9956AF6</t>
+  </si>
+  <si>
+    <t>UID E9956AF6 not found in /uid-name</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:12.498Z</t>
+  </si>
+  <si>
+    <t>gggggg</t>
+  </si>
+  <si>
+    <t>E9956AF6</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:16.343Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:16.383Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:20.695Z</t>
+  </si>
+  <si>
+    <t>/room/E9956AF6/105</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:23.338Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:23.396Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:27.645Z</t>
+  </si>
+  <si>
+    <t>/user/E9956AF6</t>
+  </si>
+  <si>
+    <t>UID E9956AF6 not found in DELETE /user</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:31.914Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:32.128Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:32.963Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:33.024Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:37.111Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:37.167Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:37.891Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:37.977Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:41.384Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:41.433Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:53.002Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:55.918Z</t>
+  </si>
+  <si>
+    <t>/user/835DF613?roomID=106</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:30:56.042Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:11.550Z</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:24.525Z</t>
+  </si>
+  <si>
+    <t>/user/835DF613?roomID=108</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:24.566Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:28.208Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:28.509Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:30.376Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:30.419Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:32.069Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:32.094Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:35.037Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:35.133Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:40.765Z</t>
+  </si>
+  <si>
+    <t>/room/835DF613/108</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:40.894Z</t>
+  </si>
+  <si>
+    <t>Access denied for room 108</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:40.930Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:42.381Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:42.421Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:42.514Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:42.594Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:43.318Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:43.370Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:49.425Z</t>
+  </si>
+  <si>
+    <t>/user/835DF613</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:49.826Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:31:50.076Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:32:50.909Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:32:51.076Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:32:58.434Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:34:09.830Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:34:13.153Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:35:28.509Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:35:29.788Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:35:31.664Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:35:34.704Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:41:31.941Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:41:32.016Z</t>
+  </si>
+  <si>
+    <t>/admin.css</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:41:33.692Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:41:33.749Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:41:37.221Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:41:37.265Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:42:07.109Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:42:08.712Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:42:11.276Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:43:29.120Z</t>
+  </si>
+  <si>
+    <t>/dashboard</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:45:59.921Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:46:01.808Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:47:47.702Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:47:54.059Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:47:57.689Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T04:48:07.957Z</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:K382"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11939,6 +12257,2946 @@
         <v>19</v>
       </c>
     </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>373</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" t="s">
+        <v>327</v>
+      </c>
+      <c r="E299">
+        <v>200</v>
+      </c>
+      <c r="F299" t="s">
+        <v>30</v>
+      </c>
+      <c r="G299" t="s">
+        <v>177</v>
+      </c>
+      <c r="H299" t="s">
+        <v>32</v>
+      </c>
+      <c r="I299" t="s">
+        <v>79</v>
+      </c>
+      <c r="J299" t="s">
+        <v>37</v>
+      </c>
+      <c r="K299" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>374</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" t="s">
+        <v>21</v>
+      </c>
+      <c r="E300">
+        <v>200</v>
+      </c>
+      <c r="F300" t="s">
+        <v>30</v>
+      </c>
+      <c r="G300" t="s">
+        <v>177</v>
+      </c>
+      <c r="H300" t="s">
+        <v>32</v>
+      </c>
+      <c r="I300" t="s">
+        <v>16</v>
+      </c>
+      <c r="J300" t="s">
+        <v>39</v>
+      </c>
+      <c r="K300" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>375</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>13</v>
+      </c>
+      <c r="D301" t="s">
+        <v>376</v>
+      </c>
+      <c r="E301">
+        <v>404</v>
+      </c>
+      <c r="F301" t="s">
+        <v>15</v>
+      </c>
+      <c r="G301" t="s">
+        <v>16</v>
+      </c>
+      <c r="H301" t="s">
+        <v>16</v>
+      </c>
+      <c r="I301" t="s">
+        <v>79</v>
+      </c>
+      <c r="J301" t="s">
+        <v>377</v>
+      </c>
+      <c r="K301" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>378</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>13</v>
+      </c>
+      <c r="D302" t="s">
+        <v>379</v>
+      </c>
+      <c r="E302">
+        <v>404</v>
+      </c>
+      <c r="F302" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" t="s">
+        <v>16</v>
+      </c>
+      <c r="H302" t="s">
+        <v>16</v>
+      </c>
+      <c r="I302" t="s">
+        <v>16</v>
+      </c>
+      <c r="J302" t="s">
+        <v>380</v>
+      </c>
+      <c r="K302" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>381</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" t="s">
+        <v>327</v>
+      </c>
+      <c r="E303">
+        <v>200</v>
+      </c>
+      <c r="F303" t="s">
+        <v>30</v>
+      </c>
+      <c r="G303" t="s">
+        <v>177</v>
+      </c>
+      <c r="H303" t="s">
+        <v>32</v>
+      </c>
+      <c r="I303" t="s">
+        <v>79</v>
+      </c>
+      <c r="J303" t="s">
+        <v>37</v>
+      </c>
+      <c r="K303" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>382</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" t="s">
+        <v>21</v>
+      </c>
+      <c r="E304">
+        <v>200</v>
+      </c>
+      <c r="F304" t="s">
+        <v>30</v>
+      </c>
+      <c r="G304" t="s">
+        <v>177</v>
+      </c>
+      <c r="H304" t="s">
+        <v>32</v>
+      </c>
+      <c r="I304" t="s">
+        <v>16</v>
+      </c>
+      <c r="J304" t="s">
+        <v>39</v>
+      </c>
+      <c r="K304" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>383</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D305" t="s">
+        <v>376</v>
+      </c>
+      <c r="E305">
+        <v>404</v>
+      </c>
+      <c r="F305" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" t="s">
+        <v>16</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>79</v>
+      </c>
+      <c r="J305" t="s">
+        <v>377</v>
+      </c>
+      <c r="K305" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>384</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" t="s">
+        <v>379</v>
+      </c>
+      <c r="E306">
+        <v>404</v>
+      </c>
+      <c r="F306" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" t="s">
+        <v>16</v>
+      </c>
+      <c r="I306" t="s">
+        <v>16</v>
+      </c>
+      <c r="J306" t="s">
+        <v>380</v>
+      </c>
+      <c r="K306" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>385</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" t="s">
+        <v>327</v>
+      </c>
+      <c r="E307">
+        <v>200</v>
+      </c>
+      <c r="F307" t="s">
+        <v>30</v>
+      </c>
+      <c r="G307" t="s">
+        <v>177</v>
+      </c>
+      <c r="H307" t="s">
+        <v>32</v>
+      </c>
+      <c r="I307" t="s">
+        <v>79</v>
+      </c>
+      <c r="J307" t="s">
+        <v>37</v>
+      </c>
+      <c r="K307" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>386</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" t="s">
+        <v>21</v>
+      </c>
+      <c r="E308">
+        <v>200</v>
+      </c>
+      <c r="F308" t="s">
+        <v>30</v>
+      </c>
+      <c r="G308" t="s">
+        <v>177</v>
+      </c>
+      <c r="H308" t="s">
+        <v>32</v>
+      </c>
+      <c r="I308" t="s">
+        <v>16</v>
+      </c>
+      <c r="J308" t="s">
+        <v>39</v>
+      </c>
+      <c r="K308" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>387</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" t="s">
+        <v>388</v>
+      </c>
+      <c r="E309">
+        <v>404</v>
+      </c>
+      <c r="F309" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" t="s">
+        <v>16</v>
+      </c>
+      <c r="I309" t="s">
+        <v>43</v>
+      </c>
+      <c r="J309" t="s">
+        <v>377</v>
+      </c>
+      <c r="K309" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>389</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" t="s">
+        <v>379</v>
+      </c>
+      <c r="E310">
+        <v>404</v>
+      </c>
+      <c r="F310" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" t="s">
+        <v>16</v>
+      </c>
+      <c r="H310" t="s">
+        <v>16</v>
+      </c>
+      <c r="I310" t="s">
+        <v>16</v>
+      </c>
+      <c r="J310" t="s">
+        <v>380</v>
+      </c>
+      <c r="K310" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>390</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311" t="s">
+        <v>93</v>
+      </c>
+      <c r="E311">
+        <v>200</v>
+      </c>
+      <c r="F311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311" t="s">
+        <v>177</v>
+      </c>
+      <c r="H311" t="s">
+        <v>32</v>
+      </c>
+      <c r="I311" t="s">
+        <v>43</v>
+      </c>
+      <c r="J311" t="s">
+        <v>37</v>
+      </c>
+      <c r="K311" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>391</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" t="s">
+        <v>21</v>
+      </c>
+      <c r="E312">
+        <v>200</v>
+      </c>
+      <c r="F312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312" t="s">
+        <v>177</v>
+      </c>
+      <c r="H312" t="s">
+        <v>32</v>
+      </c>
+      <c r="I312" t="s">
+        <v>16</v>
+      </c>
+      <c r="J312" t="s">
+        <v>39</v>
+      </c>
+      <c r="K312" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>392</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" t="s">
+        <v>393</v>
+      </c>
+      <c r="E313">
+        <v>404</v>
+      </c>
+      <c r="F313" t="s">
+        <v>15</v>
+      </c>
+      <c r="G313" t="s">
+        <v>16</v>
+      </c>
+      <c r="H313" t="s">
+        <v>16</v>
+      </c>
+      <c r="I313" t="s">
+        <v>43</v>
+      </c>
+      <c r="J313" t="s">
+        <v>394</v>
+      </c>
+      <c r="K313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>395</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>13</v>
+      </c>
+      <c r="D314" t="s">
+        <v>396</v>
+      </c>
+      <c r="E314">
+        <v>404</v>
+      </c>
+      <c r="F314" t="s">
+        <v>15</v>
+      </c>
+      <c r="G314" t="s">
+        <v>16</v>
+      </c>
+      <c r="H314" t="s">
+        <v>16</v>
+      </c>
+      <c r="I314" t="s">
+        <v>16</v>
+      </c>
+      <c r="J314" t="s">
+        <v>397</v>
+      </c>
+      <c r="K314" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>398</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>29</v>
+      </c>
+      <c r="E315">
+        <v>200</v>
+      </c>
+      <c r="F315" t="s">
+        <v>30</v>
+      </c>
+      <c r="G315" t="s">
+        <v>399</v>
+      </c>
+      <c r="H315" t="s">
+        <v>400</v>
+      </c>
+      <c r="I315" t="s">
+        <v>43</v>
+      </c>
+      <c r="J315" t="s">
+        <v>34</v>
+      </c>
+      <c r="K315" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>401</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" t="s">
+        <v>393</v>
+      </c>
+      <c r="E316">
+        <v>200</v>
+      </c>
+      <c r="F316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G316" t="s">
+        <v>399</v>
+      </c>
+      <c r="H316" t="s">
+        <v>400</v>
+      </c>
+      <c r="I316" t="s">
+        <v>43</v>
+      </c>
+      <c r="J316" t="s">
+        <v>37</v>
+      </c>
+      <c r="K316" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>402</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s">
+        <v>13</v>
+      </c>
+      <c r="D317" t="s">
+        <v>396</v>
+      </c>
+      <c r="E317">
+        <v>200</v>
+      </c>
+      <c r="F317" t="s">
+        <v>30</v>
+      </c>
+      <c r="G317" t="s">
+        <v>399</v>
+      </c>
+      <c r="H317" t="s">
+        <v>400</v>
+      </c>
+      <c r="I317" t="s">
+        <v>16</v>
+      </c>
+      <c r="J317" t="s">
+        <v>39</v>
+      </c>
+      <c r="K317" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>403</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>70</v>
+      </c>
+      <c r="D318" t="s">
+        <v>404</v>
+      </c>
+      <c r="E318">
+        <v>200</v>
+      </c>
+      <c r="F318" t="s">
+        <v>30</v>
+      </c>
+      <c r="G318" t="s">
+        <v>399</v>
+      </c>
+      <c r="H318" t="s">
+        <v>400</v>
+      </c>
+      <c r="I318" t="s">
+        <v>43</v>
+      </c>
+      <c r="J318" t="s">
+        <v>289</v>
+      </c>
+      <c r="K318" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>405</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319" t="s">
+        <v>393</v>
+      </c>
+      <c r="E319">
+        <v>404</v>
+      </c>
+      <c r="F319" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" t="s">
+        <v>16</v>
+      </c>
+      <c r="H319" t="s">
+        <v>16</v>
+      </c>
+      <c r="I319" t="s">
+        <v>43</v>
+      </c>
+      <c r="J319" t="s">
+        <v>394</v>
+      </c>
+      <c r="K319" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>406</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" t="s">
+        <v>396</v>
+      </c>
+      <c r="E320">
+        <v>404</v>
+      </c>
+      <c r="F320" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" t="s">
+        <v>16</v>
+      </c>
+      <c r="H320" t="s">
+        <v>16</v>
+      </c>
+      <c r="I320" t="s">
+        <v>16</v>
+      </c>
+      <c r="J320" t="s">
+        <v>397</v>
+      </c>
+      <c r="K320" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>407</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" t="s">
+        <v>70</v>
+      </c>
+      <c r="D321" t="s">
+        <v>408</v>
+      </c>
+      <c r="E321">
+        <v>404</v>
+      </c>
+      <c r="F321" t="s">
+        <v>15</v>
+      </c>
+      <c r="G321" t="s">
+        <v>16</v>
+      </c>
+      <c r="H321" t="s">
+        <v>16</v>
+      </c>
+      <c r="I321" t="s">
+        <v>16</v>
+      </c>
+      <c r="J321" t="s">
+        <v>409</v>
+      </c>
+      <c r="K321" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>410</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" t="s">
+        <v>393</v>
+      </c>
+      <c r="E322">
+        <v>404</v>
+      </c>
+      <c r="F322" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" t="s">
+        <v>16</v>
+      </c>
+      <c r="H322" t="s">
+        <v>16</v>
+      </c>
+      <c r="I322" t="s">
+        <v>43</v>
+      </c>
+      <c r="J322" t="s">
+        <v>394</v>
+      </c>
+      <c r="K322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>411</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" t="s">
+        <v>396</v>
+      </c>
+      <c r="E323">
+        <v>404</v>
+      </c>
+      <c r="F323" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" t="s">
+        <v>16</v>
+      </c>
+      <c r="H323" t="s">
+        <v>16</v>
+      </c>
+      <c r="I323" t="s">
+        <v>16</v>
+      </c>
+      <c r="J323" t="s">
+        <v>397</v>
+      </c>
+      <c r="K323" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>412</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" t="s">
+        <v>393</v>
+      </c>
+      <c r="E324">
+        <v>404</v>
+      </c>
+      <c r="F324" t="s">
+        <v>15</v>
+      </c>
+      <c r="G324" t="s">
+        <v>16</v>
+      </c>
+      <c r="H324" t="s">
+        <v>16</v>
+      </c>
+      <c r="I324" t="s">
+        <v>43</v>
+      </c>
+      <c r="J324" t="s">
+        <v>394</v>
+      </c>
+      <c r="K324" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>413</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>396</v>
+      </c>
+      <c r="E325">
+        <v>404</v>
+      </c>
+      <c r="F325" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" t="s">
+        <v>16</v>
+      </c>
+      <c r="H325" t="s">
+        <v>16</v>
+      </c>
+      <c r="I325" t="s">
+        <v>16</v>
+      </c>
+      <c r="J325" t="s">
+        <v>397</v>
+      </c>
+      <c r="K325" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>414</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" t="s">
+        <v>393</v>
+      </c>
+      <c r="E326">
+        <v>404</v>
+      </c>
+      <c r="F326" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" t="s">
+        <v>16</v>
+      </c>
+      <c r="H326" t="s">
+        <v>16</v>
+      </c>
+      <c r="I326" t="s">
+        <v>43</v>
+      </c>
+      <c r="J326" t="s">
+        <v>394</v>
+      </c>
+      <c r="K326" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>415</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" t="s">
+        <v>396</v>
+      </c>
+      <c r="E327">
+        <v>404</v>
+      </c>
+      <c r="F327" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" t="s">
+        <v>16</v>
+      </c>
+      <c r="H327" t="s">
+        <v>16</v>
+      </c>
+      <c r="I327" t="s">
+        <v>16</v>
+      </c>
+      <c r="J327" t="s">
+        <v>397</v>
+      </c>
+      <c r="K327" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>416</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" t="s">
+        <v>393</v>
+      </c>
+      <c r="E328">
+        <v>404</v>
+      </c>
+      <c r="F328" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" t="s">
+        <v>16</v>
+      </c>
+      <c r="H328" t="s">
+        <v>16</v>
+      </c>
+      <c r="I328" t="s">
+        <v>43</v>
+      </c>
+      <c r="J328" t="s">
+        <v>394</v>
+      </c>
+      <c r="K328" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>417</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" t="s">
+        <v>396</v>
+      </c>
+      <c r="E329">
+        <v>404</v>
+      </c>
+      <c r="F329" t="s">
+        <v>15</v>
+      </c>
+      <c r="G329" t="s">
+        <v>16</v>
+      </c>
+      <c r="H329" t="s">
+        <v>16</v>
+      </c>
+      <c r="I329" t="s">
+        <v>16</v>
+      </c>
+      <c r="J329" t="s">
+        <v>397</v>
+      </c>
+      <c r="K329" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>418</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" t="s">
+        <v>393</v>
+      </c>
+      <c r="E330">
+        <v>404</v>
+      </c>
+      <c r="F330" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" t="s">
+        <v>16</v>
+      </c>
+      <c r="H330" t="s">
+        <v>16</v>
+      </c>
+      <c r="I330" t="s">
+        <v>43</v>
+      </c>
+      <c r="J330" t="s">
+        <v>394</v>
+      </c>
+      <c r="K330" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>419</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" t="s">
+        <v>396</v>
+      </c>
+      <c r="E331">
+        <v>404</v>
+      </c>
+      <c r="F331" t="s">
+        <v>15</v>
+      </c>
+      <c r="G331" t="s">
+        <v>16</v>
+      </c>
+      <c r="H331" t="s">
+        <v>16</v>
+      </c>
+      <c r="I331" t="s">
+        <v>16</v>
+      </c>
+      <c r="J331" t="s">
+        <v>397</v>
+      </c>
+      <c r="K331" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>420</v>
+      </c>
+      <c r="B332" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>29</v>
+      </c>
+      <c r="E332">
+        <v>200</v>
+      </c>
+      <c r="F332" t="s">
+        <v>30</v>
+      </c>
+      <c r="G332" t="s">
+        <v>274</v>
+      </c>
+      <c r="H332" t="s">
+        <v>275</v>
+      </c>
+      <c r="I332" t="s">
+        <v>33</v>
+      </c>
+      <c r="J332" t="s">
+        <v>41</v>
+      </c>
+      <c r="K332" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>421</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" t="s">
+        <v>422</v>
+      </c>
+      <c r="E333">
+        <v>200</v>
+      </c>
+      <c r="F333" t="s">
+        <v>30</v>
+      </c>
+      <c r="G333" t="s">
+        <v>274</v>
+      </c>
+      <c r="H333" t="s">
+        <v>275</v>
+      </c>
+      <c r="I333" t="s">
+        <v>33</v>
+      </c>
+      <c r="J333" t="s">
+        <v>37</v>
+      </c>
+      <c r="K333" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>423</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" t="s">
+        <v>271</v>
+      </c>
+      <c r="E334">
+        <v>200</v>
+      </c>
+      <c r="F334" t="s">
+        <v>30</v>
+      </c>
+      <c r="G334" t="s">
+        <v>274</v>
+      </c>
+      <c r="H334" t="s">
+        <v>275</v>
+      </c>
+      <c r="I334" t="s">
+        <v>16</v>
+      </c>
+      <c r="J334" t="s">
+        <v>39</v>
+      </c>
+      <c r="K334" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>424</v>
+      </c>
+      <c r="B335" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>29</v>
+      </c>
+      <c r="E335">
+        <v>200</v>
+      </c>
+      <c r="F335" t="s">
+        <v>30</v>
+      </c>
+      <c r="G335" t="s">
+        <v>274</v>
+      </c>
+      <c r="H335" t="s">
+        <v>275</v>
+      </c>
+      <c r="I335" t="s">
+        <v>425</v>
+      </c>
+      <c r="J335" t="s">
+        <v>41</v>
+      </c>
+      <c r="K335" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>426</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" t="s">
+        <v>427</v>
+      </c>
+      <c r="E336">
+        <v>200</v>
+      </c>
+      <c r="F336" t="s">
+        <v>30</v>
+      </c>
+      <c r="G336" t="s">
+        <v>274</v>
+      </c>
+      <c r="H336" t="s">
+        <v>275</v>
+      </c>
+      <c r="I336" t="s">
+        <v>425</v>
+      </c>
+      <c r="J336" t="s">
+        <v>37</v>
+      </c>
+      <c r="K336" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>428</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" t="s">
+        <v>271</v>
+      </c>
+      <c r="E337">
+        <v>200</v>
+      </c>
+      <c r="F337" t="s">
+        <v>30</v>
+      </c>
+      <c r="G337" t="s">
+        <v>274</v>
+      </c>
+      <c r="H337" t="s">
+        <v>275</v>
+      </c>
+      <c r="I337" t="s">
+        <v>16</v>
+      </c>
+      <c r="J337" t="s">
+        <v>39</v>
+      </c>
+      <c r="K337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>429</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" t="s">
+        <v>427</v>
+      </c>
+      <c r="E338">
+        <v>200</v>
+      </c>
+      <c r="F338" t="s">
+        <v>30</v>
+      </c>
+      <c r="G338" t="s">
+        <v>274</v>
+      </c>
+      <c r="H338" t="s">
+        <v>275</v>
+      </c>
+      <c r="I338" t="s">
+        <v>425</v>
+      </c>
+      <c r="J338" t="s">
+        <v>37</v>
+      </c>
+      <c r="K338" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>430</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" t="s">
+        <v>271</v>
+      </c>
+      <c r="E339">
+        <v>200</v>
+      </c>
+      <c r="F339" t="s">
+        <v>30</v>
+      </c>
+      <c r="G339" t="s">
+        <v>274</v>
+      </c>
+      <c r="H339" t="s">
+        <v>275</v>
+      </c>
+      <c r="I339" t="s">
+        <v>16</v>
+      </c>
+      <c r="J339" t="s">
+        <v>39</v>
+      </c>
+      <c r="K339" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>431</v>
+      </c>
+      <c r="B340" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" t="s">
+        <v>427</v>
+      </c>
+      <c r="E340">
+        <v>200</v>
+      </c>
+      <c r="F340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G340" t="s">
+        <v>274</v>
+      </c>
+      <c r="H340" t="s">
+        <v>275</v>
+      </c>
+      <c r="I340" t="s">
+        <v>425</v>
+      </c>
+      <c r="J340" t="s">
+        <v>37</v>
+      </c>
+      <c r="K340" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>432</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" t="s">
+        <v>271</v>
+      </c>
+      <c r="E341">
+        <v>200</v>
+      </c>
+      <c r="F341" t="s">
+        <v>30</v>
+      </c>
+      <c r="G341" t="s">
+        <v>274</v>
+      </c>
+      <c r="H341" t="s">
+        <v>275</v>
+      </c>
+      <c r="I341" t="s">
+        <v>16</v>
+      </c>
+      <c r="J341" t="s">
+        <v>39</v>
+      </c>
+      <c r="K341" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>433</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" t="s">
+        <v>427</v>
+      </c>
+      <c r="E342">
+        <v>200</v>
+      </c>
+      <c r="F342" t="s">
+        <v>30</v>
+      </c>
+      <c r="G342" t="s">
+        <v>274</v>
+      </c>
+      <c r="H342" t="s">
+        <v>275</v>
+      </c>
+      <c r="I342" t="s">
+        <v>425</v>
+      </c>
+      <c r="J342" t="s">
+        <v>37</v>
+      </c>
+      <c r="K342" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>434</v>
+      </c>
+      <c r="B343" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" t="s">
+        <v>271</v>
+      </c>
+      <c r="E343">
+        <v>200</v>
+      </c>
+      <c r="F343" t="s">
+        <v>30</v>
+      </c>
+      <c r="G343" t="s">
+        <v>274</v>
+      </c>
+      <c r="H343" t="s">
+        <v>275</v>
+      </c>
+      <c r="I343" t="s">
+        <v>16</v>
+      </c>
+      <c r="J343" t="s">
+        <v>39</v>
+      </c>
+      <c r="K343" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>435</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" t="s">
+        <v>13</v>
+      </c>
+      <c r="D344" t="s">
+        <v>427</v>
+      </c>
+      <c r="E344">
+        <v>200</v>
+      </c>
+      <c r="F344" t="s">
+        <v>30</v>
+      </c>
+      <c r="G344" t="s">
+        <v>274</v>
+      </c>
+      <c r="H344" t="s">
+        <v>275</v>
+      </c>
+      <c r="I344" t="s">
+        <v>425</v>
+      </c>
+      <c r="J344" t="s">
+        <v>37</v>
+      </c>
+      <c r="K344" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>436</v>
+      </c>
+      <c r="B345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" t="s">
+        <v>271</v>
+      </c>
+      <c r="E345">
+        <v>200</v>
+      </c>
+      <c r="F345" t="s">
+        <v>30</v>
+      </c>
+      <c r="G345" t="s">
+        <v>274</v>
+      </c>
+      <c r="H345" t="s">
+        <v>275</v>
+      </c>
+      <c r="I345" t="s">
+        <v>16</v>
+      </c>
+      <c r="J345" t="s">
+        <v>39</v>
+      </c>
+      <c r="K345" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>437</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" t="s">
+        <v>70</v>
+      </c>
+      <c r="D346" t="s">
+        <v>438</v>
+      </c>
+      <c r="E346">
+        <v>200</v>
+      </c>
+      <c r="F346" t="s">
+        <v>30</v>
+      </c>
+      <c r="G346" t="s">
+        <v>274</v>
+      </c>
+      <c r="H346" t="s">
+        <v>275</v>
+      </c>
+      <c r="I346" t="s">
+        <v>425</v>
+      </c>
+      <c r="J346" t="s">
+        <v>72</v>
+      </c>
+      <c r="K346" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>439</v>
+      </c>
+      <c r="B347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" t="s">
+        <v>427</v>
+      </c>
+      <c r="E347">
+        <v>403</v>
+      </c>
+      <c r="F347" t="s">
+        <v>15</v>
+      </c>
+      <c r="G347" t="s">
+        <v>274</v>
+      </c>
+      <c r="H347" t="s">
+        <v>275</v>
+      </c>
+      <c r="I347" t="s">
+        <v>425</v>
+      </c>
+      <c r="J347" t="s">
+        <v>440</v>
+      </c>
+      <c r="K347" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>441</v>
+      </c>
+      <c r="B348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" t="s">
+        <v>271</v>
+      </c>
+      <c r="E348">
+        <v>200</v>
+      </c>
+      <c r="F348" t="s">
+        <v>30</v>
+      </c>
+      <c r="G348" t="s">
+        <v>274</v>
+      </c>
+      <c r="H348" t="s">
+        <v>275</v>
+      </c>
+      <c r="I348" t="s">
+        <v>16</v>
+      </c>
+      <c r="J348" t="s">
+        <v>39</v>
+      </c>
+      <c r="K348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>442</v>
+      </c>
+      <c r="B349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s">
+        <v>427</v>
+      </c>
+      <c r="E349">
+        <v>403</v>
+      </c>
+      <c r="F349" t="s">
+        <v>15</v>
+      </c>
+      <c r="G349" t="s">
+        <v>274</v>
+      </c>
+      <c r="H349" t="s">
+        <v>275</v>
+      </c>
+      <c r="I349" t="s">
+        <v>425</v>
+      </c>
+      <c r="J349" t="s">
+        <v>440</v>
+      </c>
+      <c r="K349" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>443</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" t="s">
+        <v>271</v>
+      </c>
+      <c r="E350">
+        <v>200</v>
+      </c>
+      <c r="F350" t="s">
+        <v>30</v>
+      </c>
+      <c r="G350" t="s">
+        <v>274</v>
+      </c>
+      <c r="H350" t="s">
+        <v>275</v>
+      </c>
+      <c r="I350" t="s">
+        <v>16</v>
+      </c>
+      <c r="J350" t="s">
+        <v>39</v>
+      </c>
+      <c r="K350" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>444</v>
+      </c>
+      <c r="B351" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" t="s">
+        <v>427</v>
+      </c>
+      <c r="E351">
+        <v>403</v>
+      </c>
+      <c r="F351" t="s">
+        <v>15</v>
+      </c>
+      <c r="G351" t="s">
+        <v>274</v>
+      </c>
+      <c r="H351" t="s">
+        <v>275</v>
+      </c>
+      <c r="I351" t="s">
+        <v>425</v>
+      </c>
+      <c r="J351" t="s">
+        <v>440</v>
+      </c>
+      <c r="K351" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>445</v>
+      </c>
+      <c r="B352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" t="s">
+        <v>271</v>
+      </c>
+      <c r="E352">
+        <v>200</v>
+      </c>
+      <c r="F352" t="s">
+        <v>30</v>
+      </c>
+      <c r="G352" t="s">
+        <v>274</v>
+      </c>
+      <c r="H352" t="s">
+        <v>275</v>
+      </c>
+      <c r="I352" t="s">
+        <v>16</v>
+      </c>
+      <c r="J352" t="s">
+        <v>39</v>
+      </c>
+      <c r="K352" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>446</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" t="s">
+        <v>427</v>
+      </c>
+      <c r="E353">
+        <v>403</v>
+      </c>
+      <c r="F353" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" t="s">
+        <v>274</v>
+      </c>
+      <c r="H353" t="s">
+        <v>275</v>
+      </c>
+      <c r="I353" t="s">
+        <v>425</v>
+      </c>
+      <c r="J353" t="s">
+        <v>440</v>
+      </c>
+      <c r="K353" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>447</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" t="s">
+        <v>271</v>
+      </c>
+      <c r="E354">
+        <v>200</v>
+      </c>
+      <c r="F354" t="s">
+        <v>30</v>
+      </c>
+      <c r="G354" t="s">
+        <v>274</v>
+      </c>
+      <c r="H354" t="s">
+        <v>275</v>
+      </c>
+      <c r="I354" t="s">
+        <v>16</v>
+      </c>
+      <c r="J354" t="s">
+        <v>39</v>
+      </c>
+      <c r="K354" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>448</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" t="s">
+        <v>70</v>
+      </c>
+      <c r="D355" t="s">
+        <v>449</v>
+      </c>
+      <c r="E355">
+        <v>200</v>
+      </c>
+      <c r="F355" t="s">
+        <v>30</v>
+      </c>
+      <c r="G355" t="s">
+        <v>274</v>
+      </c>
+      <c r="H355" t="s">
+        <v>275</v>
+      </c>
+      <c r="I355" t="s">
+        <v>16</v>
+      </c>
+      <c r="J355" t="s">
+        <v>77</v>
+      </c>
+      <c r="K355" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>450</v>
+      </c>
+      <c r="B356" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" t="s">
+        <v>427</v>
+      </c>
+      <c r="E356">
+        <v>404</v>
+      </c>
+      <c r="F356" t="s">
+        <v>15</v>
+      </c>
+      <c r="G356" t="s">
+        <v>16</v>
+      </c>
+      <c r="H356" t="s">
+        <v>16</v>
+      </c>
+      <c r="I356" t="s">
+        <v>425</v>
+      </c>
+      <c r="J356" t="s">
+        <v>269</v>
+      </c>
+      <c r="K356" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>451</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" t="s">
+        <v>271</v>
+      </c>
+      <c r="E357">
+        <v>404</v>
+      </c>
+      <c r="F357" t="s">
+        <v>15</v>
+      </c>
+      <c r="G357" t="s">
+        <v>16</v>
+      </c>
+      <c r="H357" t="s">
+        <v>16</v>
+      </c>
+      <c r="I357" t="s">
+        <v>16</v>
+      </c>
+      <c r="J357" t="s">
+        <v>272</v>
+      </c>
+      <c r="K357" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>452</v>
+      </c>
+      <c r="B358" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" t="s">
+        <v>248</v>
+      </c>
+      <c r="E358">
+        <v>200</v>
+      </c>
+      <c r="F358" t="s">
+        <v>30</v>
+      </c>
+      <c r="G358" t="s">
+        <v>16</v>
+      </c>
+      <c r="H358" t="s">
+        <v>16</v>
+      </c>
+      <c r="I358" t="s">
+        <v>16</v>
+      </c>
+      <c r="J358" t="s">
+        <v>249</v>
+      </c>
+      <c r="K358" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>453</v>
+      </c>
+      <c r="B359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" t="s">
+        <v>252</v>
+      </c>
+      <c r="E359">
+        <v>404</v>
+      </c>
+      <c r="F359" t="s">
+        <v>15</v>
+      </c>
+      <c r="G359" t="s">
+        <v>16</v>
+      </c>
+      <c r="H359" t="s">
+        <v>16</v>
+      </c>
+      <c r="I359" t="s">
+        <v>16</v>
+      </c>
+      <c r="J359" t="s">
+        <v>16</v>
+      </c>
+      <c r="K359" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>454</v>
+      </c>
+      <c r="B360" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" t="s">
+        <v>255</v>
+      </c>
+      <c r="E360">
+        <v>200</v>
+      </c>
+      <c r="F360" t="s">
+        <v>30</v>
+      </c>
+      <c r="G360" t="s">
+        <v>16</v>
+      </c>
+      <c r="H360" t="s">
+        <v>16</v>
+      </c>
+      <c r="I360" t="s">
+        <v>16</v>
+      </c>
+      <c r="J360" t="s">
+        <v>16</v>
+      </c>
+      <c r="K360" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>455</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" t="s">
+        <v>255</v>
+      </c>
+      <c r="E361">
+        <v>200</v>
+      </c>
+      <c r="F361" t="s">
+        <v>30</v>
+      </c>
+      <c r="G361" t="s">
+        <v>16</v>
+      </c>
+      <c r="H361" t="s">
+        <v>16</v>
+      </c>
+      <c r="I361" t="s">
+        <v>16</v>
+      </c>
+      <c r="J361" t="s">
+        <v>16</v>
+      </c>
+      <c r="K361" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>456</v>
+      </c>
+      <c r="B362" t="s">
+        <v>12</v>
+      </c>
+      <c r="C362" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" t="s">
+        <v>255</v>
+      </c>
+      <c r="E362">
+        <v>200</v>
+      </c>
+      <c r="F362" t="s">
+        <v>30</v>
+      </c>
+      <c r="G362" t="s">
+        <v>16</v>
+      </c>
+      <c r="H362" t="s">
+        <v>16</v>
+      </c>
+      <c r="I362" t="s">
+        <v>16</v>
+      </c>
+      <c r="J362" t="s">
+        <v>16</v>
+      </c>
+      <c r="K362" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>457</v>
+      </c>
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D363" t="s">
+        <v>255</v>
+      </c>
+      <c r="E363">
+        <v>200</v>
+      </c>
+      <c r="F363" t="s">
+        <v>30</v>
+      </c>
+      <c r="G363" t="s">
+        <v>16</v>
+      </c>
+      <c r="H363" t="s">
+        <v>16</v>
+      </c>
+      <c r="I363" t="s">
+        <v>16</v>
+      </c>
+      <c r="J363" t="s">
+        <v>16</v>
+      </c>
+      <c r="K363" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>458</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" t="s">
+        <v>13</v>
+      </c>
+      <c r="D364" t="s">
+        <v>255</v>
+      </c>
+      <c r="E364">
+        <v>200</v>
+      </c>
+      <c r="F364" t="s">
+        <v>30</v>
+      </c>
+      <c r="G364" t="s">
+        <v>16</v>
+      </c>
+      <c r="H364" t="s">
+        <v>16</v>
+      </c>
+      <c r="I364" t="s">
+        <v>16</v>
+      </c>
+      <c r="J364" t="s">
+        <v>16</v>
+      </c>
+      <c r="K364" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>459</v>
+      </c>
+      <c r="B365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" t="s">
+        <v>255</v>
+      </c>
+      <c r="E365">
+        <v>304</v>
+      </c>
+      <c r="F365" t="s">
+        <v>30</v>
+      </c>
+      <c r="G365" t="s">
+        <v>16</v>
+      </c>
+      <c r="H365" t="s">
+        <v>16</v>
+      </c>
+      <c r="I365" t="s">
+        <v>16</v>
+      </c>
+      <c r="J365" t="s">
+        <v>16</v>
+      </c>
+      <c r="K365" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>460</v>
+      </c>
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>255</v>
+      </c>
+      <c r="E366">
+        <v>200</v>
+      </c>
+      <c r="F366" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" t="s">
+        <v>16</v>
+      </c>
+      <c r="H366" t="s">
+        <v>16</v>
+      </c>
+      <c r="I366" t="s">
+        <v>16</v>
+      </c>
+      <c r="J366" t="s">
+        <v>16</v>
+      </c>
+      <c r="K366" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>461</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" t="s">
+        <v>13</v>
+      </c>
+      <c r="D367" t="s">
+        <v>255</v>
+      </c>
+      <c r="E367">
+        <v>200</v>
+      </c>
+      <c r="F367" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" t="s">
+        <v>16</v>
+      </c>
+      <c r="H367" t="s">
+        <v>16</v>
+      </c>
+      <c r="I367" t="s">
+        <v>16</v>
+      </c>
+      <c r="J367" t="s">
+        <v>16</v>
+      </c>
+      <c r="K367" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>462</v>
+      </c>
+      <c r="B368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" t="s">
+        <v>463</v>
+      </c>
+      <c r="E368">
+        <v>404</v>
+      </c>
+      <c r="F368" t="s">
+        <v>15</v>
+      </c>
+      <c r="G368" t="s">
+        <v>16</v>
+      </c>
+      <c r="H368" t="s">
+        <v>16</v>
+      </c>
+      <c r="I368" t="s">
+        <v>16</v>
+      </c>
+      <c r="J368" t="s">
+        <v>16</v>
+      </c>
+      <c r="K368" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>464</v>
+      </c>
+      <c r="B369" t="s">
+        <v>12</v>
+      </c>
+      <c r="C369" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" t="s">
+        <v>255</v>
+      </c>
+      <c r="E369">
+        <v>304</v>
+      </c>
+      <c r="F369" t="s">
+        <v>30</v>
+      </c>
+      <c r="G369" t="s">
+        <v>16</v>
+      </c>
+      <c r="H369" t="s">
+        <v>16</v>
+      </c>
+      <c r="I369" t="s">
+        <v>16</v>
+      </c>
+      <c r="J369" t="s">
+        <v>16</v>
+      </c>
+      <c r="K369" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>465</v>
+      </c>
+      <c r="B370" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" t="s">
+        <v>463</v>
+      </c>
+      <c r="E370">
+        <v>404</v>
+      </c>
+      <c r="F370" t="s">
+        <v>15</v>
+      </c>
+      <c r="G370" t="s">
+        <v>16</v>
+      </c>
+      <c r="H370" t="s">
+        <v>16</v>
+      </c>
+      <c r="I370" t="s">
+        <v>16</v>
+      </c>
+      <c r="J370" t="s">
+        <v>16</v>
+      </c>
+      <c r="K370" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>466</v>
+      </c>
+      <c r="B371" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" t="s">
+        <v>255</v>
+      </c>
+      <c r="E371">
+        <v>200</v>
+      </c>
+      <c r="F371" t="s">
+        <v>30</v>
+      </c>
+      <c r="G371" t="s">
+        <v>16</v>
+      </c>
+      <c r="H371" t="s">
+        <v>16</v>
+      </c>
+      <c r="I371" t="s">
+        <v>16</v>
+      </c>
+      <c r="J371" t="s">
+        <v>16</v>
+      </c>
+      <c r="K371" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>467</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372" t="s">
+        <v>463</v>
+      </c>
+      <c r="E372">
+        <v>404</v>
+      </c>
+      <c r="F372" t="s">
+        <v>15</v>
+      </c>
+      <c r="G372" t="s">
+        <v>16</v>
+      </c>
+      <c r="H372" t="s">
+        <v>16</v>
+      </c>
+      <c r="I372" t="s">
+        <v>16</v>
+      </c>
+      <c r="J372" t="s">
+        <v>16</v>
+      </c>
+      <c r="K372" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>468</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" t="s">
+        <v>255</v>
+      </c>
+      <c r="E373">
+        <v>200</v>
+      </c>
+      <c r="F373" t="s">
+        <v>30</v>
+      </c>
+      <c r="G373" t="s">
+        <v>16</v>
+      </c>
+      <c r="H373" t="s">
+        <v>16</v>
+      </c>
+      <c r="I373" t="s">
+        <v>16</v>
+      </c>
+      <c r="J373" t="s">
+        <v>16</v>
+      </c>
+      <c r="K373" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>469</v>
+      </c>
+      <c r="B374" t="s">
+        <v>12</v>
+      </c>
+      <c r="C374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374" t="s">
+        <v>255</v>
+      </c>
+      <c r="E374">
+        <v>304</v>
+      </c>
+      <c r="F374" t="s">
+        <v>30</v>
+      </c>
+      <c r="G374" t="s">
+        <v>16</v>
+      </c>
+      <c r="H374" t="s">
+        <v>16</v>
+      </c>
+      <c r="I374" t="s">
+        <v>16</v>
+      </c>
+      <c r="J374" t="s">
+        <v>16</v>
+      </c>
+      <c r="K374" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>470</v>
+      </c>
+      <c r="B375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>255</v>
+      </c>
+      <c r="E375">
+        <v>200</v>
+      </c>
+      <c r="F375" t="s">
+        <v>30</v>
+      </c>
+      <c r="G375" t="s">
+        <v>16</v>
+      </c>
+      <c r="H375" t="s">
+        <v>16</v>
+      </c>
+      <c r="I375" t="s">
+        <v>16</v>
+      </c>
+      <c r="J375" t="s">
+        <v>16</v>
+      </c>
+      <c r="K375" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>471</v>
+      </c>
+      <c r="B376" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" t="s">
+        <v>13</v>
+      </c>
+      <c r="D376" t="s">
+        <v>472</v>
+      </c>
+      <c r="E376">
+        <v>404</v>
+      </c>
+      <c r="F376" t="s">
+        <v>15</v>
+      </c>
+      <c r="G376" t="s">
+        <v>16</v>
+      </c>
+      <c r="H376" t="s">
+        <v>16</v>
+      </c>
+      <c r="I376" t="s">
+        <v>16</v>
+      </c>
+      <c r="J376" t="s">
+        <v>16</v>
+      </c>
+      <c r="K376" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>473</v>
+      </c>
+      <c r="B377" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" t="s">
+        <v>13</v>
+      </c>
+      <c r="D377" t="s">
+        <v>472</v>
+      </c>
+      <c r="E377">
+        <v>404</v>
+      </c>
+      <c r="F377" t="s">
+        <v>15</v>
+      </c>
+      <c r="G377" t="s">
+        <v>16</v>
+      </c>
+      <c r="H377" t="s">
+        <v>16</v>
+      </c>
+      <c r="I377" t="s">
+        <v>16</v>
+      </c>
+      <c r="J377" t="s">
+        <v>16</v>
+      </c>
+      <c r="K377" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>474</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378" t="s">
+        <v>255</v>
+      </c>
+      <c r="E378">
+        <v>200</v>
+      </c>
+      <c r="F378" t="s">
+        <v>30</v>
+      </c>
+      <c r="G378" t="s">
+        <v>16</v>
+      </c>
+      <c r="H378" t="s">
+        <v>16</v>
+      </c>
+      <c r="I378" t="s">
+        <v>16</v>
+      </c>
+      <c r="J378" t="s">
+        <v>16</v>
+      </c>
+      <c r="K378" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>475</v>
+      </c>
+      <c r="B379" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379" t="s">
+        <v>13</v>
+      </c>
+      <c r="D379" t="s">
+        <v>248</v>
+      </c>
+      <c r="E379">
+        <v>304</v>
+      </c>
+      <c r="F379" t="s">
+        <v>30</v>
+      </c>
+      <c r="G379" t="s">
+        <v>16</v>
+      </c>
+      <c r="H379" t="s">
+        <v>16</v>
+      </c>
+      <c r="I379" t="s">
+        <v>16</v>
+      </c>
+      <c r="J379" t="s">
+        <v>249</v>
+      </c>
+      <c r="K379" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>476</v>
+      </c>
+      <c r="B380" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" t="s">
+        <v>255</v>
+      </c>
+      <c r="E380">
+        <v>304</v>
+      </c>
+      <c r="F380" t="s">
+        <v>30</v>
+      </c>
+      <c r="G380" t="s">
+        <v>16</v>
+      </c>
+      <c r="H380" t="s">
+        <v>16</v>
+      </c>
+      <c r="I380" t="s">
+        <v>16</v>
+      </c>
+      <c r="J380" t="s">
+        <v>16</v>
+      </c>
+      <c r="K380" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>477</v>
+      </c>
+      <c r="B381" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>255</v>
+      </c>
+      <c r="E381">
+        <v>401</v>
+      </c>
+      <c r="F381" t="s">
+        <v>15</v>
+      </c>
+      <c r="G381" t="s">
+        <v>16</v>
+      </c>
+      <c r="H381" t="s">
+        <v>16</v>
+      </c>
+      <c r="I381" t="s">
+        <v>16</v>
+      </c>
+      <c r="J381" t="s">
+        <v>16</v>
+      </c>
+      <c r="K381" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>478</v>
+      </c>
+      <c r="B382" t="s">
+        <v>12</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>255</v>
+      </c>
+      <c r="E382">
+        <v>200</v>
+      </c>
+      <c r="F382" t="s">
+        <v>30</v>
+      </c>
+      <c r="G382" t="s">
+        <v>16</v>
+      </c>
+      <c r="H382" t="s">
+        <v>16</v>
+      </c>
+      <c r="I382" t="s">
+        <v>16</v>
+      </c>
+      <c r="J382" t="s">
+        <v>16</v>
+      </c>
+      <c r="K382" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="501">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1448,6 +1448,72 @@
   </si>
   <si>
     <t>2025-11-28T04:48:07.957Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:40.546Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=109</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:40.877Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:42.653Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=110</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:42.729Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:47.872Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=107</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:48.183Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:48.696Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:49.137Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:51.265Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=106</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:51.338Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:53.820Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:53.951Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:54.042Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:54.092Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:55.777Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:22:55.829Z</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K382"/>
+  <dimension ref="A1:K398"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15197,6 +15263,566 @@
         <v>250</v>
       </c>
     </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>479</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" t="s">
+        <v>480</v>
+      </c>
+      <c r="E383">
+        <v>404</v>
+      </c>
+      <c r="F383" t="s">
+        <v>15</v>
+      </c>
+      <c r="G383" t="s">
+        <v>16</v>
+      </c>
+      <c r="H383" t="s">
+        <v>16</v>
+      </c>
+      <c r="I383" t="s">
+        <v>17</v>
+      </c>
+      <c r="J383" t="s">
+        <v>377</v>
+      </c>
+      <c r="K383" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>481</v>
+      </c>
+      <c r="B384" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" t="s">
+        <v>379</v>
+      </c>
+      <c r="E384">
+        <v>404</v>
+      </c>
+      <c r="F384" t="s">
+        <v>15</v>
+      </c>
+      <c r="G384" t="s">
+        <v>16</v>
+      </c>
+      <c r="H384" t="s">
+        <v>16</v>
+      </c>
+      <c r="I384" t="s">
+        <v>16</v>
+      </c>
+      <c r="J384" t="s">
+        <v>380</v>
+      </c>
+      <c r="K384" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>482</v>
+      </c>
+      <c r="B385" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" t="s">
+        <v>483</v>
+      </c>
+      <c r="E385">
+        <v>404</v>
+      </c>
+      <c r="F385" t="s">
+        <v>15</v>
+      </c>
+      <c r="G385" t="s">
+        <v>16</v>
+      </c>
+      <c r="H385" t="s">
+        <v>16</v>
+      </c>
+      <c r="I385" t="s">
+        <v>484</v>
+      </c>
+      <c r="J385" t="s">
+        <v>377</v>
+      </c>
+      <c r="K385" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>485</v>
+      </c>
+      <c r="B386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" t="s">
+        <v>379</v>
+      </c>
+      <c r="E386">
+        <v>404</v>
+      </c>
+      <c r="F386" t="s">
+        <v>15</v>
+      </c>
+      <c r="G386" t="s">
+        <v>16</v>
+      </c>
+      <c r="H386" t="s">
+        <v>16</v>
+      </c>
+      <c r="I386" t="s">
+        <v>16</v>
+      </c>
+      <c r="J386" t="s">
+        <v>380</v>
+      </c>
+      <c r="K386" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>486</v>
+      </c>
+      <c r="B387" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" t="s">
+        <v>487</v>
+      </c>
+      <c r="E387">
+        <v>404</v>
+      </c>
+      <c r="F387" t="s">
+        <v>15</v>
+      </c>
+      <c r="G387" t="s">
+        <v>16</v>
+      </c>
+      <c r="H387" t="s">
+        <v>16</v>
+      </c>
+      <c r="I387" t="s">
+        <v>488</v>
+      </c>
+      <c r="J387" t="s">
+        <v>377</v>
+      </c>
+      <c r="K387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>489</v>
+      </c>
+      <c r="B388" t="s">
+        <v>12</v>
+      </c>
+      <c r="C388" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388" t="s">
+        <v>379</v>
+      </c>
+      <c r="E388">
+        <v>404</v>
+      </c>
+      <c r="F388" t="s">
+        <v>15</v>
+      </c>
+      <c r="G388" t="s">
+        <v>16</v>
+      </c>
+      <c r="H388" t="s">
+        <v>16</v>
+      </c>
+      <c r="I388" t="s">
+        <v>16</v>
+      </c>
+      <c r="J388" t="s">
+        <v>380</v>
+      </c>
+      <c r="K388" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>490</v>
+      </c>
+      <c r="B389" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" t="s">
+        <v>487</v>
+      </c>
+      <c r="E389">
+        <v>404</v>
+      </c>
+      <c r="F389" t="s">
+        <v>15</v>
+      </c>
+      <c r="G389" t="s">
+        <v>16</v>
+      </c>
+      <c r="H389" t="s">
+        <v>16</v>
+      </c>
+      <c r="I389" t="s">
+        <v>488</v>
+      </c>
+      <c r="J389" t="s">
+        <v>377</v>
+      </c>
+      <c r="K389" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>491</v>
+      </c>
+      <c r="B390" t="s">
+        <v>12</v>
+      </c>
+      <c r="C390" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" t="s">
+        <v>379</v>
+      </c>
+      <c r="E390">
+        <v>404</v>
+      </c>
+      <c r="F390" t="s">
+        <v>15</v>
+      </c>
+      <c r="G390" t="s">
+        <v>16</v>
+      </c>
+      <c r="H390" t="s">
+        <v>16</v>
+      </c>
+      <c r="I390" t="s">
+        <v>16</v>
+      </c>
+      <c r="J390" t="s">
+        <v>380</v>
+      </c>
+      <c r="K390" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>492</v>
+      </c>
+      <c r="B391" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" t="s">
+        <v>493</v>
+      </c>
+      <c r="E391">
+        <v>404</v>
+      </c>
+      <c r="F391" t="s">
+        <v>15</v>
+      </c>
+      <c r="G391" t="s">
+        <v>16</v>
+      </c>
+      <c r="H391" t="s">
+        <v>16</v>
+      </c>
+      <c r="I391" t="s">
+        <v>33</v>
+      </c>
+      <c r="J391" t="s">
+        <v>377</v>
+      </c>
+      <c r="K391" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>494</v>
+      </c>
+      <c r="B392" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" t="s">
+        <v>13</v>
+      </c>
+      <c r="D392" t="s">
+        <v>379</v>
+      </c>
+      <c r="E392">
+        <v>404</v>
+      </c>
+      <c r="F392" t="s">
+        <v>15</v>
+      </c>
+      <c r="G392" t="s">
+        <v>16</v>
+      </c>
+      <c r="H392" t="s">
+        <v>16</v>
+      </c>
+      <c r="I392" t="s">
+        <v>16</v>
+      </c>
+      <c r="J392" t="s">
+        <v>380</v>
+      </c>
+      <c r="K392" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>495</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" t="s">
+        <v>388</v>
+      </c>
+      <c r="E393">
+        <v>404</v>
+      </c>
+      <c r="F393" t="s">
+        <v>15</v>
+      </c>
+      <c r="G393" t="s">
+        <v>16</v>
+      </c>
+      <c r="H393" t="s">
+        <v>16</v>
+      </c>
+      <c r="I393" t="s">
+        <v>43</v>
+      </c>
+      <c r="J393" t="s">
+        <v>377</v>
+      </c>
+      <c r="K393" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>496</v>
+      </c>
+      <c r="B394" t="s">
+        <v>12</v>
+      </c>
+      <c r="C394" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" t="s">
+        <v>379</v>
+      </c>
+      <c r="E394">
+        <v>404</v>
+      </c>
+      <c r="F394" t="s">
+        <v>15</v>
+      </c>
+      <c r="G394" t="s">
+        <v>16</v>
+      </c>
+      <c r="H394" t="s">
+        <v>16</v>
+      </c>
+      <c r="I394" t="s">
+        <v>16</v>
+      </c>
+      <c r="J394" t="s">
+        <v>380</v>
+      </c>
+      <c r="K394" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>497</v>
+      </c>
+      <c r="B395" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" t="s">
+        <v>493</v>
+      </c>
+      <c r="E395">
+        <v>404</v>
+      </c>
+      <c r="F395" t="s">
+        <v>15</v>
+      </c>
+      <c r="G395" t="s">
+        <v>16</v>
+      </c>
+      <c r="H395" t="s">
+        <v>16</v>
+      </c>
+      <c r="I395" t="s">
+        <v>33</v>
+      </c>
+      <c r="J395" t="s">
+        <v>377</v>
+      </c>
+      <c r="K395" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>498</v>
+      </c>
+      <c r="B396" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396" t="s">
+        <v>379</v>
+      </c>
+      <c r="E396">
+        <v>404</v>
+      </c>
+      <c r="F396" t="s">
+        <v>15</v>
+      </c>
+      <c r="G396" t="s">
+        <v>16</v>
+      </c>
+      <c r="H396" t="s">
+        <v>16</v>
+      </c>
+      <c r="I396" t="s">
+        <v>16</v>
+      </c>
+      <c r="J396" t="s">
+        <v>380</v>
+      </c>
+      <c r="K396" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>499</v>
+      </c>
+      <c r="B397" t="s">
+        <v>12</v>
+      </c>
+      <c r="C397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397" t="s">
+        <v>388</v>
+      </c>
+      <c r="E397">
+        <v>404</v>
+      </c>
+      <c r="F397" t="s">
+        <v>15</v>
+      </c>
+      <c r="G397" t="s">
+        <v>16</v>
+      </c>
+      <c r="H397" t="s">
+        <v>16</v>
+      </c>
+      <c r="I397" t="s">
+        <v>43</v>
+      </c>
+      <c r="J397" t="s">
+        <v>377</v>
+      </c>
+      <c r="K397" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>500</v>
+      </c>
+      <c r="B398" t="s">
+        <v>12</v>
+      </c>
+      <c r="C398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" t="s">
+        <v>379</v>
+      </c>
+      <c r="E398">
+        <v>404</v>
+      </c>
+      <c r="F398" t="s">
+        <v>15</v>
+      </c>
+      <c r="G398" t="s">
+        <v>16</v>
+      </c>
+      <c r="H398" t="s">
+        <v>16</v>
+      </c>
+      <c r="I398" t="s">
+        <v>16</v>
+      </c>
+      <c r="J398" t="s">
+        <v>380</v>
+      </c>
+      <c r="K398" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="505">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1514,6 +1514,18 @@
   </si>
   <si>
     <t>2025-11-28T20:22:55.829Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:27:22.059Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:27:22.506Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:55:58.652Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:55:58.746Z</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K398"/>
+  <dimension ref="A1:K402"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15823,6 +15835,146 @@
         <v>19</v>
       </c>
     </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>501</v>
+      </c>
+      <c r="B399" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399" t="s">
+        <v>388</v>
+      </c>
+      <c r="E399">
+        <v>404</v>
+      </c>
+      <c r="F399" t="s">
+        <v>15</v>
+      </c>
+      <c r="G399" t="s">
+        <v>16</v>
+      </c>
+      <c r="H399" t="s">
+        <v>16</v>
+      </c>
+      <c r="I399" t="s">
+        <v>43</v>
+      </c>
+      <c r="J399" t="s">
+        <v>377</v>
+      </c>
+      <c r="K399" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>502</v>
+      </c>
+      <c r="B400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" t="s">
+        <v>379</v>
+      </c>
+      <c r="E400">
+        <v>404</v>
+      </c>
+      <c r="F400" t="s">
+        <v>15</v>
+      </c>
+      <c r="G400" t="s">
+        <v>16</v>
+      </c>
+      <c r="H400" t="s">
+        <v>16</v>
+      </c>
+      <c r="I400" t="s">
+        <v>16</v>
+      </c>
+      <c r="J400" t="s">
+        <v>380</v>
+      </c>
+      <c r="K400" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>503</v>
+      </c>
+      <c r="B401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" t="s">
+        <v>13</v>
+      </c>
+      <c r="D401" t="s">
+        <v>388</v>
+      </c>
+      <c r="E401">
+        <v>404</v>
+      </c>
+      <c r="F401" t="s">
+        <v>15</v>
+      </c>
+      <c r="G401" t="s">
+        <v>16</v>
+      </c>
+      <c r="H401" t="s">
+        <v>16</v>
+      </c>
+      <c r="I401" t="s">
+        <v>43</v>
+      </c>
+      <c r="J401" t="s">
+        <v>377</v>
+      </c>
+      <c r="K401" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>504</v>
+      </c>
+      <c r="B402" t="s">
+        <v>12</v>
+      </c>
+      <c r="C402" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402" t="s">
+        <v>379</v>
+      </c>
+      <c r="E402">
+        <v>404</v>
+      </c>
+      <c r="F402" t="s">
+        <v>15</v>
+      </c>
+      <c r="G402" t="s">
+        <v>16</v>
+      </c>
+      <c r="H402" t="s">
+        <v>16</v>
+      </c>
+      <c r="I402" t="s">
+        <v>16</v>
+      </c>
+      <c r="J402" t="s">
+        <v>380</v>
+      </c>
+      <c r="K402" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="518">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1526,6 +1526,45 @@
   </si>
   <si>
     <t>2025-11-28T20:55:58.746Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:00:37.882Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:00:38.339Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:00:42.719Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:00:43.001Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:00:56.442Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:17.110Z</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:19.295Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:19.436Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:24.691Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:24.744Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:31.476Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:01:31.524Z</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K402"/>
+  <dimension ref="A1:K414"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15975,6 +16014,426 @@
         <v>19</v>
       </c>
     </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>505</v>
+      </c>
+      <c r="B403" t="s">
+        <v>12</v>
+      </c>
+      <c r="C403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" t="s">
+        <v>388</v>
+      </c>
+      <c r="E403">
+        <v>404</v>
+      </c>
+      <c r="F403" t="s">
+        <v>15</v>
+      </c>
+      <c r="G403" t="s">
+        <v>16</v>
+      </c>
+      <c r="H403" t="s">
+        <v>16</v>
+      </c>
+      <c r="I403" t="s">
+        <v>43</v>
+      </c>
+      <c r="J403" t="s">
+        <v>377</v>
+      </c>
+      <c r="K403" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>506</v>
+      </c>
+      <c r="B404" t="s">
+        <v>12</v>
+      </c>
+      <c r="C404" t="s">
+        <v>13</v>
+      </c>
+      <c r="D404" t="s">
+        <v>379</v>
+      </c>
+      <c r="E404">
+        <v>404</v>
+      </c>
+      <c r="F404" t="s">
+        <v>15</v>
+      </c>
+      <c r="G404" t="s">
+        <v>16</v>
+      </c>
+      <c r="H404" t="s">
+        <v>16</v>
+      </c>
+      <c r="I404" t="s">
+        <v>16</v>
+      </c>
+      <c r="J404" t="s">
+        <v>380</v>
+      </c>
+      <c r="K404" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>507</v>
+      </c>
+      <c r="B405" t="s">
+        <v>12</v>
+      </c>
+      <c r="C405" t="s">
+        <v>13</v>
+      </c>
+      <c r="D405" t="s">
+        <v>388</v>
+      </c>
+      <c r="E405">
+        <v>404</v>
+      </c>
+      <c r="F405" t="s">
+        <v>15</v>
+      </c>
+      <c r="G405" t="s">
+        <v>16</v>
+      </c>
+      <c r="H405" t="s">
+        <v>16</v>
+      </c>
+      <c r="I405" t="s">
+        <v>43</v>
+      </c>
+      <c r="J405" t="s">
+        <v>377</v>
+      </c>
+      <c r="K405" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>508</v>
+      </c>
+      <c r="B406" t="s">
+        <v>12</v>
+      </c>
+      <c r="C406" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" t="s">
+        <v>379</v>
+      </c>
+      <c r="E406">
+        <v>404</v>
+      </c>
+      <c r="F406" t="s">
+        <v>15</v>
+      </c>
+      <c r="G406" t="s">
+        <v>16</v>
+      </c>
+      <c r="H406" t="s">
+        <v>16</v>
+      </c>
+      <c r="I406" t="s">
+        <v>16</v>
+      </c>
+      <c r="J406" t="s">
+        <v>380</v>
+      </c>
+      <c r="K406" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>509</v>
+      </c>
+      <c r="B407" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" t="s">
+        <v>50</v>
+      </c>
+      <c r="E407">
+        <v>200</v>
+      </c>
+      <c r="F407" t="s">
+        <v>30</v>
+      </c>
+      <c r="G407" t="s">
+        <v>31</v>
+      </c>
+      <c r="H407" t="s">
+        <v>51</v>
+      </c>
+      <c r="I407" t="s">
+        <v>16</v>
+      </c>
+      <c r="J407" t="s">
+        <v>52</v>
+      </c>
+      <c r="K407" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>510</v>
+      </c>
+      <c r="B408" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" t="s">
+        <v>28</v>
+      </c>
+      <c r="D408" t="s">
+        <v>29</v>
+      </c>
+      <c r="E408">
+        <v>200</v>
+      </c>
+      <c r="F408" t="s">
+        <v>30</v>
+      </c>
+      <c r="G408" t="s">
+        <v>511</v>
+      </c>
+      <c r="H408" t="s">
+        <v>400</v>
+      </c>
+      <c r="I408" t="s">
+        <v>43</v>
+      </c>
+      <c r="J408" t="s">
+        <v>34</v>
+      </c>
+      <c r="K408" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>512</v>
+      </c>
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" t="s">
+        <v>13</v>
+      </c>
+      <c r="D409" t="s">
+        <v>393</v>
+      </c>
+      <c r="E409">
+        <v>200</v>
+      </c>
+      <c r="F409" t="s">
+        <v>30</v>
+      </c>
+      <c r="G409" t="s">
+        <v>511</v>
+      </c>
+      <c r="H409" t="s">
+        <v>400</v>
+      </c>
+      <c r="I409" t="s">
+        <v>43</v>
+      </c>
+      <c r="J409" t="s">
+        <v>37</v>
+      </c>
+      <c r="K409" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>513</v>
+      </c>
+      <c r="B410" t="s">
+        <v>12</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410" t="s">
+        <v>396</v>
+      </c>
+      <c r="E410">
+        <v>200</v>
+      </c>
+      <c r="F410" t="s">
+        <v>30</v>
+      </c>
+      <c r="G410" t="s">
+        <v>511</v>
+      </c>
+      <c r="H410" t="s">
+        <v>400</v>
+      </c>
+      <c r="I410" t="s">
+        <v>16</v>
+      </c>
+      <c r="J410" t="s">
+        <v>39</v>
+      </c>
+      <c r="K410" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>514</v>
+      </c>
+      <c r="B411" t="s">
+        <v>12</v>
+      </c>
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411" t="s">
+        <v>393</v>
+      </c>
+      <c r="E411">
+        <v>200</v>
+      </c>
+      <c r="F411" t="s">
+        <v>30</v>
+      </c>
+      <c r="G411" t="s">
+        <v>511</v>
+      </c>
+      <c r="H411" t="s">
+        <v>400</v>
+      </c>
+      <c r="I411" t="s">
+        <v>43</v>
+      </c>
+      <c r="J411" t="s">
+        <v>37</v>
+      </c>
+      <c r="K411" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>515</v>
+      </c>
+      <c r="B412" t="s">
+        <v>12</v>
+      </c>
+      <c r="C412" t="s">
+        <v>13</v>
+      </c>
+      <c r="D412" t="s">
+        <v>396</v>
+      </c>
+      <c r="E412">
+        <v>200</v>
+      </c>
+      <c r="F412" t="s">
+        <v>30</v>
+      </c>
+      <c r="G412" t="s">
+        <v>511</v>
+      </c>
+      <c r="H412" t="s">
+        <v>400</v>
+      </c>
+      <c r="I412" t="s">
+        <v>16</v>
+      </c>
+      <c r="J412" t="s">
+        <v>39</v>
+      </c>
+      <c r="K412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>516</v>
+      </c>
+      <c r="B413" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413" t="s">
+        <v>13</v>
+      </c>
+      <c r="D413" t="s">
+        <v>393</v>
+      </c>
+      <c r="E413">
+        <v>200</v>
+      </c>
+      <c r="F413" t="s">
+        <v>30</v>
+      </c>
+      <c r="G413" t="s">
+        <v>511</v>
+      </c>
+      <c r="H413" t="s">
+        <v>400</v>
+      </c>
+      <c r="I413" t="s">
+        <v>43</v>
+      </c>
+      <c r="J413" t="s">
+        <v>37</v>
+      </c>
+      <c r="K413" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>517</v>
+      </c>
+      <c r="B414" t="s">
+        <v>12</v>
+      </c>
+      <c r="C414" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" t="s">
+        <v>396</v>
+      </c>
+      <c r="E414">
+        <v>200</v>
+      </c>
+      <c r="F414" t="s">
+        <v>30</v>
+      </c>
+      <c r="G414" t="s">
+        <v>511</v>
+      </c>
+      <c r="H414" t="s">
+        <v>400</v>
+      </c>
+      <c r="I414" t="s">
+        <v>16</v>
+      </c>
+      <c r="J414" t="s">
+        <v>39</v>
+      </c>
+      <c r="K414" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="554">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1565,6 +1565,114 @@
   </si>
   <si>
     <t>2025-11-28T21:01:31.524Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:11:45.314Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:11:45.846Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:11:50.643Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:03.198Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:03.300Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:14.866Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:20.639Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:20.699Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:53.157Z</t>
+  </si>
+  <si>
+    <t>rgggg</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:14:58.817Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:02.108Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:02.387Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:02.934Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:03.032Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:04.563Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:21.526Z</t>
+  </si>
+  <si>
+    <t>/room/EA4C7814/105</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:23.737Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:23.779Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:26.776Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:34.807Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:34.904Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:43.646Z</t>
+  </si>
+  <si>
+    <t>frrr</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:53.486Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:15:57.423Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:16:02.563Z</t>
+  </si>
+  <si>
+    <t>/room/EA4C7814/103</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:16:07.367Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:16:13.522Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:16:21.013Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:16:24.234Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:16:27.105Z</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K414"/>
+  <dimension ref="A1:K444"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16434,6 +16542,1056 @@
         <v>19</v>
       </c>
     </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>518</v>
+      </c>
+      <c r="B415" t="s">
+        <v>12</v>
+      </c>
+      <c r="C415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D415" t="s">
+        <v>255</v>
+      </c>
+      <c r="E415">
+        <v>200</v>
+      </c>
+      <c r="F415" t="s">
+        <v>30</v>
+      </c>
+      <c r="G415" t="s">
+        <v>16</v>
+      </c>
+      <c r="H415" t="s">
+        <v>16</v>
+      </c>
+      <c r="I415" t="s">
+        <v>16</v>
+      </c>
+      <c r="J415" t="s">
+        <v>16</v>
+      </c>
+      <c r="K415" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>519</v>
+      </c>
+      <c r="B416" t="s">
+        <v>12</v>
+      </c>
+      <c r="C416" t="s">
+        <v>13</v>
+      </c>
+      <c r="D416" t="s">
+        <v>252</v>
+      </c>
+      <c r="E416">
+        <v>404</v>
+      </c>
+      <c r="F416" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" t="s">
+        <v>16</v>
+      </c>
+      <c r="H416" t="s">
+        <v>16</v>
+      </c>
+      <c r="I416" t="s">
+        <v>16</v>
+      </c>
+      <c r="J416" t="s">
+        <v>16</v>
+      </c>
+      <c r="K416" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>520</v>
+      </c>
+      <c r="B417" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" t="s">
+        <v>255</v>
+      </c>
+      <c r="E417">
+        <v>200</v>
+      </c>
+      <c r="F417" t="s">
+        <v>30</v>
+      </c>
+      <c r="G417" t="s">
+        <v>16</v>
+      </c>
+      <c r="H417" t="s">
+        <v>16</v>
+      </c>
+      <c r="I417" t="s">
+        <v>16</v>
+      </c>
+      <c r="J417" t="s">
+        <v>16</v>
+      </c>
+      <c r="K417" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>521</v>
+      </c>
+      <c r="B418" t="s">
+        <v>12</v>
+      </c>
+      <c r="C418" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" t="s">
+        <v>388</v>
+      </c>
+      <c r="E418">
+        <v>404</v>
+      </c>
+      <c r="F418" t="s">
+        <v>15</v>
+      </c>
+      <c r="G418" t="s">
+        <v>16</v>
+      </c>
+      <c r="H418" t="s">
+        <v>16</v>
+      </c>
+      <c r="I418" t="s">
+        <v>43</v>
+      </c>
+      <c r="J418" t="s">
+        <v>377</v>
+      </c>
+      <c r="K418" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>522</v>
+      </c>
+      <c r="B419" t="s">
+        <v>12</v>
+      </c>
+      <c r="C419" t="s">
+        <v>13</v>
+      </c>
+      <c r="D419" t="s">
+        <v>379</v>
+      </c>
+      <c r="E419">
+        <v>404</v>
+      </c>
+      <c r="F419" t="s">
+        <v>15</v>
+      </c>
+      <c r="G419" t="s">
+        <v>16</v>
+      </c>
+      <c r="H419" t="s">
+        <v>16</v>
+      </c>
+      <c r="I419" t="s">
+        <v>16</v>
+      </c>
+      <c r="J419" t="s">
+        <v>380</v>
+      </c>
+      <c r="K419" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>523</v>
+      </c>
+      <c r="B420" t="s">
+        <v>12</v>
+      </c>
+      <c r="C420" t="s">
+        <v>28</v>
+      </c>
+      <c r="D420" t="s">
+        <v>255</v>
+      </c>
+      <c r="E420">
+        <v>200</v>
+      </c>
+      <c r="F420" t="s">
+        <v>30</v>
+      </c>
+      <c r="G420" t="s">
+        <v>16</v>
+      </c>
+      <c r="H420" t="s">
+        <v>16</v>
+      </c>
+      <c r="I420" t="s">
+        <v>16</v>
+      </c>
+      <c r="J420" t="s">
+        <v>16</v>
+      </c>
+      <c r="K420" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>524</v>
+      </c>
+      <c r="B421" t="s">
+        <v>12</v>
+      </c>
+      <c r="C421" t="s">
+        <v>13</v>
+      </c>
+      <c r="D421" t="s">
+        <v>388</v>
+      </c>
+      <c r="E421">
+        <v>404</v>
+      </c>
+      <c r="F421" t="s">
+        <v>15</v>
+      </c>
+      <c r="G421" t="s">
+        <v>16</v>
+      </c>
+      <c r="H421" t="s">
+        <v>16</v>
+      </c>
+      <c r="I421" t="s">
+        <v>43</v>
+      </c>
+      <c r="J421" t="s">
+        <v>377</v>
+      </c>
+      <c r="K421" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>525</v>
+      </c>
+      <c r="B422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D422" t="s">
+        <v>379</v>
+      </c>
+      <c r="E422">
+        <v>404</v>
+      </c>
+      <c r="F422" t="s">
+        <v>15</v>
+      </c>
+      <c r="G422" t="s">
+        <v>16</v>
+      </c>
+      <c r="H422" t="s">
+        <v>16</v>
+      </c>
+      <c r="I422" t="s">
+        <v>16</v>
+      </c>
+      <c r="J422" t="s">
+        <v>380</v>
+      </c>
+      <c r="K422" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>526</v>
+      </c>
+      <c r="B423" t="s">
+        <v>12</v>
+      </c>
+      <c r="C423" t="s">
+        <v>28</v>
+      </c>
+      <c r="D423" t="s">
+        <v>29</v>
+      </c>
+      <c r="E423">
+        <v>200</v>
+      </c>
+      <c r="F423" t="s">
+        <v>30</v>
+      </c>
+      <c r="G423" t="s">
+        <v>527</v>
+      </c>
+      <c r="H423" t="s">
+        <v>528</v>
+      </c>
+      <c r="I423" t="s">
+        <v>43</v>
+      </c>
+      <c r="J423" t="s">
+        <v>34</v>
+      </c>
+      <c r="K423" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>529</v>
+      </c>
+      <c r="B424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424" t="s">
+        <v>28</v>
+      </c>
+      <c r="D424" t="s">
+        <v>255</v>
+      </c>
+      <c r="E424">
+        <v>200</v>
+      </c>
+      <c r="F424" t="s">
+        <v>30</v>
+      </c>
+      <c r="G424" t="s">
+        <v>16</v>
+      </c>
+      <c r="H424" t="s">
+        <v>16</v>
+      </c>
+      <c r="I424" t="s">
+        <v>16</v>
+      </c>
+      <c r="J424" t="s">
+        <v>16</v>
+      </c>
+      <c r="K424" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>530</v>
+      </c>
+      <c r="B425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C425" t="s">
+        <v>13</v>
+      </c>
+      <c r="D425" t="s">
+        <v>388</v>
+      </c>
+      <c r="E425">
+        <v>200</v>
+      </c>
+      <c r="F425" t="s">
+        <v>30</v>
+      </c>
+      <c r="G425" t="s">
+        <v>527</v>
+      </c>
+      <c r="H425" t="s">
+        <v>528</v>
+      </c>
+      <c r="I425" t="s">
+        <v>43</v>
+      </c>
+      <c r="J425" t="s">
+        <v>37</v>
+      </c>
+      <c r="K425" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>531</v>
+      </c>
+      <c r="B426" t="s">
+        <v>12</v>
+      </c>
+      <c r="C426" t="s">
+        <v>13</v>
+      </c>
+      <c r="D426" t="s">
+        <v>379</v>
+      </c>
+      <c r="E426">
+        <v>200</v>
+      </c>
+      <c r="F426" t="s">
+        <v>30</v>
+      </c>
+      <c r="G426" t="s">
+        <v>527</v>
+      </c>
+      <c r="H426" t="s">
+        <v>528</v>
+      </c>
+      <c r="I426" t="s">
+        <v>16</v>
+      </c>
+      <c r="J426" t="s">
+        <v>39</v>
+      </c>
+      <c r="K426" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>532</v>
+      </c>
+      <c r="B427" t="s">
+        <v>12</v>
+      </c>
+      <c r="C427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D427" t="s">
+        <v>388</v>
+      </c>
+      <c r="E427">
+        <v>200</v>
+      </c>
+      <c r="F427" t="s">
+        <v>30</v>
+      </c>
+      <c r="G427" t="s">
+        <v>527</v>
+      </c>
+      <c r="H427" t="s">
+        <v>528</v>
+      </c>
+      <c r="I427" t="s">
+        <v>43</v>
+      </c>
+      <c r="J427" t="s">
+        <v>37</v>
+      </c>
+      <c r="K427" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>533</v>
+      </c>
+      <c r="B428" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" t="s">
+        <v>13</v>
+      </c>
+      <c r="D428" t="s">
+        <v>379</v>
+      </c>
+      <c r="E428">
+        <v>200</v>
+      </c>
+      <c r="F428" t="s">
+        <v>30</v>
+      </c>
+      <c r="G428" t="s">
+        <v>527</v>
+      </c>
+      <c r="H428" t="s">
+        <v>528</v>
+      </c>
+      <c r="I428" t="s">
+        <v>16</v>
+      </c>
+      <c r="J428" t="s">
+        <v>39</v>
+      </c>
+      <c r="K428" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>534</v>
+      </c>
+      <c r="B429" t="s">
+        <v>12</v>
+      </c>
+      <c r="C429" t="s">
+        <v>28</v>
+      </c>
+      <c r="D429" t="s">
+        <v>255</v>
+      </c>
+      <c r="E429">
+        <v>200</v>
+      </c>
+      <c r="F429" t="s">
+        <v>30</v>
+      </c>
+      <c r="G429" t="s">
+        <v>16</v>
+      </c>
+      <c r="H429" t="s">
+        <v>16</v>
+      </c>
+      <c r="I429" t="s">
+        <v>16</v>
+      </c>
+      <c r="J429" t="s">
+        <v>16</v>
+      </c>
+      <c r="K429" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>535</v>
+      </c>
+      <c r="B430" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" t="s">
+        <v>70</v>
+      </c>
+      <c r="D430" t="s">
+        <v>536</v>
+      </c>
+      <c r="E430">
+        <v>200</v>
+      </c>
+      <c r="F430" t="s">
+        <v>30</v>
+      </c>
+      <c r="G430" t="s">
+        <v>527</v>
+      </c>
+      <c r="H430" t="s">
+        <v>528</v>
+      </c>
+      <c r="I430" t="s">
+        <v>43</v>
+      </c>
+      <c r="J430" t="s">
+        <v>289</v>
+      </c>
+      <c r="K430" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>537</v>
+      </c>
+      <c r="B431" t="s">
+        <v>12</v>
+      </c>
+      <c r="C431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431" t="s">
+        <v>388</v>
+      </c>
+      <c r="E431">
+        <v>404</v>
+      </c>
+      <c r="F431" t="s">
+        <v>15</v>
+      </c>
+      <c r="G431" t="s">
+        <v>16</v>
+      </c>
+      <c r="H431" t="s">
+        <v>16</v>
+      </c>
+      <c r="I431" t="s">
+        <v>43</v>
+      </c>
+      <c r="J431" t="s">
+        <v>377</v>
+      </c>
+      <c r="K431" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>538</v>
+      </c>
+      <c r="B432" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" t="s">
+        <v>13</v>
+      </c>
+      <c r="D432" t="s">
+        <v>379</v>
+      </c>
+      <c r="E432">
+        <v>404</v>
+      </c>
+      <c r="F432" t="s">
+        <v>15</v>
+      </c>
+      <c r="G432" t="s">
+        <v>16</v>
+      </c>
+      <c r="H432" t="s">
+        <v>16</v>
+      </c>
+      <c r="I432" t="s">
+        <v>16</v>
+      </c>
+      <c r="J432" t="s">
+        <v>380</v>
+      </c>
+      <c r="K432" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>539</v>
+      </c>
+      <c r="B433" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" t="s">
+        <v>28</v>
+      </c>
+      <c r="D433" t="s">
+        <v>255</v>
+      </c>
+      <c r="E433">
+        <v>200</v>
+      </c>
+      <c r="F433" t="s">
+        <v>30</v>
+      </c>
+      <c r="G433" t="s">
+        <v>16</v>
+      </c>
+      <c r="H433" t="s">
+        <v>16</v>
+      </c>
+      <c r="I433" t="s">
+        <v>16</v>
+      </c>
+      <c r="J433" t="s">
+        <v>16</v>
+      </c>
+      <c r="K433" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>540</v>
+      </c>
+      <c r="B434" t="s">
+        <v>12</v>
+      </c>
+      <c r="C434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434" t="s">
+        <v>388</v>
+      </c>
+      <c r="E434">
+        <v>404</v>
+      </c>
+      <c r="F434" t="s">
+        <v>15</v>
+      </c>
+      <c r="G434" t="s">
+        <v>16</v>
+      </c>
+      <c r="H434" t="s">
+        <v>16</v>
+      </c>
+      <c r="I434" t="s">
+        <v>43</v>
+      </c>
+      <c r="J434" t="s">
+        <v>377</v>
+      </c>
+      <c r="K434" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>541</v>
+      </c>
+      <c r="B435" t="s">
+        <v>12</v>
+      </c>
+      <c r="C435" t="s">
+        <v>13</v>
+      </c>
+      <c r="D435" t="s">
+        <v>379</v>
+      </c>
+      <c r="E435">
+        <v>404</v>
+      </c>
+      <c r="F435" t="s">
+        <v>15</v>
+      </c>
+      <c r="G435" t="s">
+        <v>16</v>
+      </c>
+      <c r="H435" t="s">
+        <v>16</v>
+      </c>
+      <c r="I435" t="s">
+        <v>16</v>
+      </c>
+      <c r="J435" t="s">
+        <v>380</v>
+      </c>
+      <c r="K435" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>542</v>
+      </c>
+      <c r="B436" t="s">
+        <v>12</v>
+      </c>
+      <c r="C436" t="s">
+        <v>28</v>
+      </c>
+      <c r="D436" t="s">
+        <v>29</v>
+      </c>
+      <c r="E436">
+        <v>200</v>
+      </c>
+      <c r="F436" t="s">
+        <v>30</v>
+      </c>
+      <c r="G436" t="s">
+        <v>543</v>
+      </c>
+      <c r="H436" t="s">
+        <v>528</v>
+      </c>
+      <c r="I436" t="s">
+        <v>43</v>
+      </c>
+      <c r="J436" t="s">
+        <v>34</v>
+      </c>
+      <c r="K436" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>544</v>
+      </c>
+      <c r="B437" t="s">
+        <v>12</v>
+      </c>
+      <c r="C437" t="s">
+        <v>28</v>
+      </c>
+      <c r="D437" t="s">
+        <v>29</v>
+      </c>
+      <c r="E437">
+        <v>200</v>
+      </c>
+      <c r="F437" t="s">
+        <v>30</v>
+      </c>
+      <c r="G437" t="s">
+        <v>543</v>
+      </c>
+      <c r="H437" t="s">
+        <v>528</v>
+      </c>
+      <c r="I437" t="s">
+        <v>79</v>
+      </c>
+      <c r="J437" t="s">
+        <v>41</v>
+      </c>
+      <c r="K437" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>545</v>
+      </c>
+      <c r="B438" t="s">
+        <v>12</v>
+      </c>
+      <c r="C438" t="s">
+        <v>28</v>
+      </c>
+      <c r="D438" t="s">
+        <v>255</v>
+      </c>
+      <c r="E438">
+        <v>200</v>
+      </c>
+      <c r="F438" t="s">
+        <v>30</v>
+      </c>
+      <c r="G438" t="s">
+        <v>16</v>
+      </c>
+      <c r="H438" t="s">
+        <v>16</v>
+      </c>
+      <c r="I438" t="s">
+        <v>16</v>
+      </c>
+      <c r="J438" t="s">
+        <v>16</v>
+      </c>
+      <c r="K438" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>546</v>
+      </c>
+      <c r="B439" t="s">
+        <v>12</v>
+      </c>
+      <c r="C439" t="s">
+        <v>70</v>
+      </c>
+      <c r="D439" t="s">
+        <v>547</v>
+      </c>
+      <c r="E439">
+        <v>200</v>
+      </c>
+      <c r="F439" t="s">
+        <v>30</v>
+      </c>
+      <c r="G439" t="s">
+        <v>543</v>
+      </c>
+      <c r="H439" t="s">
+        <v>528</v>
+      </c>
+      <c r="I439" t="s">
+        <v>79</v>
+      </c>
+      <c r="J439" t="s">
+        <v>72</v>
+      </c>
+      <c r="K439" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>548</v>
+      </c>
+      <c r="B440" t="s">
+        <v>12</v>
+      </c>
+      <c r="C440" t="s">
+        <v>28</v>
+      </c>
+      <c r="D440" t="s">
+        <v>255</v>
+      </c>
+      <c r="E440">
+        <v>200</v>
+      </c>
+      <c r="F440" t="s">
+        <v>30</v>
+      </c>
+      <c r="G440" t="s">
+        <v>16</v>
+      </c>
+      <c r="H440" t="s">
+        <v>16</v>
+      </c>
+      <c r="I440" t="s">
+        <v>16</v>
+      </c>
+      <c r="J440" t="s">
+        <v>16</v>
+      </c>
+      <c r="K440" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>549</v>
+      </c>
+      <c r="B441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" t="s">
+        <v>70</v>
+      </c>
+      <c r="D441" t="s">
+        <v>550</v>
+      </c>
+      <c r="E441">
+        <v>200</v>
+      </c>
+      <c r="F441" t="s">
+        <v>30</v>
+      </c>
+      <c r="G441" t="s">
+        <v>543</v>
+      </c>
+      <c r="H441" t="s">
+        <v>528</v>
+      </c>
+      <c r="I441" t="s">
+        <v>16</v>
+      </c>
+      <c r="J441" t="s">
+        <v>77</v>
+      </c>
+      <c r="K441" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>551</v>
+      </c>
+      <c r="B442" t="s">
+        <v>12</v>
+      </c>
+      <c r="C442" t="s">
+        <v>28</v>
+      </c>
+      <c r="D442" t="s">
+        <v>255</v>
+      </c>
+      <c r="E442">
+        <v>200</v>
+      </c>
+      <c r="F442" t="s">
+        <v>30</v>
+      </c>
+      <c r="G442" t="s">
+        <v>16</v>
+      </c>
+      <c r="H442" t="s">
+        <v>16</v>
+      </c>
+      <c r="I442" t="s">
+        <v>16</v>
+      </c>
+      <c r="J442" t="s">
+        <v>16</v>
+      </c>
+      <c r="K442" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>552</v>
+      </c>
+      <c r="B443" t="s">
+        <v>12</v>
+      </c>
+      <c r="C443" t="s">
+        <v>70</v>
+      </c>
+      <c r="D443" t="s">
+        <v>408</v>
+      </c>
+      <c r="E443">
+        <v>200</v>
+      </c>
+      <c r="F443" t="s">
+        <v>30</v>
+      </c>
+      <c r="G443" t="s">
+        <v>511</v>
+      </c>
+      <c r="H443" t="s">
+        <v>400</v>
+      </c>
+      <c r="I443" t="s">
+        <v>16</v>
+      </c>
+      <c r="J443" t="s">
+        <v>77</v>
+      </c>
+      <c r="K443" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>553</v>
+      </c>
+      <c r="B444" t="s">
+        <v>12</v>
+      </c>
+      <c r="C444" t="s">
+        <v>28</v>
+      </c>
+      <c r="D444" t="s">
+        <v>255</v>
+      </c>
+      <c r="E444">
+        <v>200</v>
+      </c>
+      <c r="F444" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" t="s">
+        <v>16</v>
+      </c>
+      <c r="H444" t="s">
+        <v>16</v>
+      </c>
+      <c r="I444" t="s">
+        <v>16</v>
+      </c>
+      <c r="J444" t="s">
+        <v>16</v>
+      </c>
+      <c r="K444" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6901" uniqueCount="808">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1673,6 +1673,768 @@
   </si>
   <si>
     <t>2025-11-28T21:16:27.105Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:17:57.255Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:17:57.567Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:01.285Z</t>
+  </si>
+  <si>
+    <t>/user/E9956AF6?roomID=103</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:01.332Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:12.715Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:13.256Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:20.187Z</t>
+  </si>
+  <si>
+    <t>ahuih</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:27.062Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:27.146Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:18:30.347Z</t>
+  </si>
+  <si>
+    <t>/stats?user=ahuih&amp;password=ahuih</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:36:53.498Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:36:53.594Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:36:59.641Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:36:59.691Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:09.809Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:09.867Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:13.739Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:14.042Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:18.350Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:18.383Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:20.255Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:20.301Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:21.485Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:21.552Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:24.457Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:24.494Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:37.406Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:37.458Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:39.350Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:39.395Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:43.947Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:44.019Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:45.572Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:45.640Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:46.635Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=104</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:46.688Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:47.717Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:47.768Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:48.441Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:48.506Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:49.750Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:37:49.808Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:01.057Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:02.811Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:03.101Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:04.469Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:04.675Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:08.402Z</t>
+  </si>
+  <si>
+    <t>UID EA4C7814 not found in DELETE /room</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:14.672Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:15.094Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:16.425Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:16.477Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:17.598Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:17.798Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:19.434Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:19.495Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:20.518Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:20.599Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:21.360Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:21.395Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:22.851Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:22.896Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:25.484Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:25.550Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:26.443Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:26.811Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:32.628Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:41.905Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:41.948Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:45.201Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:47.440Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:47.511Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:38:51.995Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:06.451Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:06.539Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:08.948Z</t>
+  </si>
+  <si>
+    <t>/user/E9956AF6?roomID=104</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:09.143Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:11.178Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:11.226Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:38.072Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:39:38.151Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:26.675Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:26.732Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:28.285Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:28.323Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:29.189Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:29.244Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:29.980Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:30.102Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:33.280Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:33.318Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:36.019Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:36.237Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:40.991Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:41.053Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:41.754Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:41.798Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:42.760Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:44:42.815Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:08.830Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:08.877Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:10.266Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:10.470Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:12.183Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:12.248Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:13.084Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:13.125Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:15.477Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:15.565Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:20.464Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:20.517Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:22.529Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:22.606Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:24.462Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:24.505Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:27.351Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:27.419Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:28.102Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:28.147Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:29.077Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:29.290Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:35.488Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:35.520Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:50.984Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:51.131Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:55.234Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:55.487Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:58.998Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:48:59.034Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:05.009Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:05.090Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:07.835Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:07.892Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:14.238Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:14.400Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:15.845Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:16.211Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:33.392Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:33.432Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:36.468Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:36.698Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:37.845Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:37.890Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:40.149Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:40.340Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:42.034Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:42.094Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:43.872Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:43.936Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:45.140Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:45.179Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:46.032Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:46.113Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:46.937Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:49:47.015Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:35.278Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:35.473Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:45.025Z</t>
+  </si>
+  <si>
+    <t>uiiii</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:49.394Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:49.458Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:55.093Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:55.143Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:57.655Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:57.744Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:58.543Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:51:58.604Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:52:00.601Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:52:00.859Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:52:15.781Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:52:15.839Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:48.451Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:48.523Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:51.325Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:51.371Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:53.265Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:53.327Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:57.141Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:53:57.214Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:03.462Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:04.980Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:05.046Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:06.534Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:06.629Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:10.339Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:12.108Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:12.174Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:19.950Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:21.682Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:21.733Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:27.901Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:54:34.531Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:12.461Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:12.644Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:24.911Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:25.075Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:25.861Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:26.288Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:28.266Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:28.327Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:31.443Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:31.537Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:48.224Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:54.277Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T21:59:54.534Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:18.757Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:27.838Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:27.927Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:36.277Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:36.328Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:38.040Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:38.098Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:39.468Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:39.541Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:43.790Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:43.835Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:55.417Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:55.469Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:06:58.296Z</t>
+  </si>
+  <si>
+    <t>/stats?user=frrr&amp;password=frrr</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:10:40.279Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:10:49.110Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:10:55.438Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:11:29.870Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:11:29.933Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:16:48.715Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:16:48.769Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:16:51.372Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:16:51.421Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:16:56.920Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:16:56.964Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:17:18.820Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:19:19.568Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:19:24.219Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:19:24.263Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:19:27.826Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:19:27.881Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:19:34.001Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:22:55.646Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:34.467Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:34.515Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:39.657Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:39.730Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:42.947Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:43.047Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:48.076Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:48.148Z</t>
+  </si>
+  <si>
+    <t>2025-11-28T22:24:51.852Z</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K444"/>
+  <dimension ref="A1:K690"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17592,6 +18354,8616 @@
         <v>250</v>
       </c>
     </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>554</v>
+      </c>
+      <c r="B445" t="s">
+        <v>12</v>
+      </c>
+      <c r="C445" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" t="s">
+        <v>376</v>
+      </c>
+      <c r="E445">
+        <v>404</v>
+      </c>
+      <c r="F445" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445" t="s">
+        <v>16</v>
+      </c>
+      <c r="H445" t="s">
+        <v>16</v>
+      </c>
+      <c r="I445" t="s">
+        <v>79</v>
+      </c>
+      <c r="J445" t="s">
+        <v>377</v>
+      </c>
+      <c r="K445" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>555</v>
+      </c>
+      <c r="B446" t="s">
+        <v>12</v>
+      </c>
+      <c r="C446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446" t="s">
+        <v>379</v>
+      </c>
+      <c r="E446">
+        <v>404</v>
+      </c>
+      <c r="F446" t="s">
+        <v>15</v>
+      </c>
+      <c r="G446" t="s">
+        <v>16</v>
+      </c>
+      <c r="H446" t="s">
+        <v>16</v>
+      </c>
+      <c r="I446" t="s">
+        <v>16</v>
+      </c>
+      <c r="J446" t="s">
+        <v>380</v>
+      </c>
+      <c r="K446" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>556</v>
+      </c>
+      <c r="B447" t="s">
+        <v>12</v>
+      </c>
+      <c r="C447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447" t="s">
+        <v>557</v>
+      </c>
+      <c r="E447">
+        <v>404</v>
+      </c>
+      <c r="F447" t="s">
+        <v>15</v>
+      </c>
+      <c r="G447" t="s">
+        <v>16</v>
+      </c>
+      <c r="H447" t="s">
+        <v>16</v>
+      </c>
+      <c r="I447" t="s">
+        <v>79</v>
+      </c>
+      <c r="J447" t="s">
+        <v>394</v>
+      </c>
+      <c r="K447" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>558</v>
+      </c>
+      <c r="B448" t="s">
+        <v>12</v>
+      </c>
+      <c r="C448" t="s">
+        <v>13</v>
+      </c>
+      <c r="D448" t="s">
+        <v>396</v>
+      </c>
+      <c r="E448">
+        <v>404</v>
+      </c>
+      <c r="F448" t="s">
+        <v>15</v>
+      </c>
+      <c r="G448" t="s">
+        <v>16</v>
+      </c>
+      <c r="H448" t="s">
+        <v>16</v>
+      </c>
+      <c r="I448" t="s">
+        <v>16</v>
+      </c>
+      <c r="J448" t="s">
+        <v>397</v>
+      </c>
+      <c r="K448" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>559</v>
+      </c>
+      <c r="B449" t="s">
+        <v>12</v>
+      </c>
+      <c r="C449" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" t="s">
+        <v>376</v>
+      </c>
+      <c r="E449">
+        <v>404</v>
+      </c>
+      <c r="F449" t="s">
+        <v>15</v>
+      </c>
+      <c r="G449" t="s">
+        <v>16</v>
+      </c>
+      <c r="H449" t="s">
+        <v>16</v>
+      </c>
+      <c r="I449" t="s">
+        <v>79</v>
+      </c>
+      <c r="J449" t="s">
+        <v>377</v>
+      </c>
+      <c r="K449" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>560</v>
+      </c>
+      <c r="B450" t="s">
+        <v>12</v>
+      </c>
+      <c r="C450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450" t="s">
+        <v>379</v>
+      </c>
+      <c r="E450">
+        <v>404</v>
+      </c>
+      <c r="F450" t="s">
+        <v>15</v>
+      </c>
+      <c r="G450" t="s">
+        <v>16</v>
+      </c>
+      <c r="H450" t="s">
+        <v>16</v>
+      </c>
+      <c r="I450" t="s">
+        <v>16</v>
+      </c>
+      <c r="J450" t="s">
+        <v>380</v>
+      </c>
+      <c r="K450" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>561</v>
+      </c>
+      <c r="B451" t="s">
+        <v>12</v>
+      </c>
+      <c r="C451" t="s">
+        <v>28</v>
+      </c>
+      <c r="D451" t="s">
+        <v>29</v>
+      </c>
+      <c r="E451">
+        <v>200</v>
+      </c>
+      <c r="F451" t="s">
+        <v>30</v>
+      </c>
+      <c r="G451" t="s">
+        <v>562</v>
+      </c>
+      <c r="H451" t="s">
+        <v>528</v>
+      </c>
+      <c r="I451" t="s">
+        <v>79</v>
+      </c>
+      <c r="J451" t="s">
+        <v>34</v>
+      </c>
+      <c r="K451" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>563</v>
+      </c>
+      <c r="B452" t="s">
+        <v>12</v>
+      </c>
+      <c r="C452" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" t="s">
+        <v>376</v>
+      </c>
+      <c r="E452">
+        <v>200</v>
+      </c>
+      <c r="F452" t="s">
+        <v>30</v>
+      </c>
+      <c r="G452" t="s">
+        <v>562</v>
+      </c>
+      <c r="H452" t="s">
+        <v>528</v>
+      </c>
+      <c r="I452" t="s">
+        <v>79</v>
+      </c>
+      <c r="J452" t="s">
+        <v>37</v>
+      </c>
+      <c r="K452" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>564</v>
+      </c>
+      <c r="B453" t="s">
+        <v>12</v>
+      </c>
+      <c r="C453" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453" t="s">
+        <v>379</v>
+      </c>
+      <c r="E453">
+        <v>200</v>
+      </c>
+      <c r="F453" t="s">
+        <v>30</v>
+      </c>
+      <c r="G453" t="s">
+        <v>562</v>
+      </c>
+      <c r="H453" t="s">
+        <v>528</v>
+      </c>
+      <c r="I453" t="s">
+        <v>16</v>
+      </c>
+      <c r="J453" t="s">
+        <v>39</v>
+      </c>
+      <c r="K453" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>565</v>
+      </c>
+      <c r="B454" t="s">
+        <v>12</v>
+      </c>
+      <c r="C454" t="s">
+        <v>13</v>
+      </c>
+      <c r="D454" t="s">
+        <v>566</v>
+      </c>
+      <c r="E454">
+        <v>200</v>
+      </c>
+      <c r="F454" t="s">
+        <v>30</v>
+      </c>
+      <c r="G454" t="s">
+        <v>562</v>
+      </c>
+      <c r="H454" t="s">
+        <v>528</v>
+      </c>
+      <c r="I454" t="s">
+        <v>16</v>
+      </c>
+      <c r="J454" t="s">
+        <v>52</v>
+      </c>
+      <c r="K454" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>567</v>
+      </c>
+      <c r="B455" t="s">
+        <v>12</v>
+      </c>
+      <c r="C455" t="s">
+        <v>13</v>
+      </c>
+      <c r="D455" t="s">
+        <v>376</v>
+      </c>
+      <c r="E455">
+        <v>200</v>
+      </c>
+      <c r="F455" t="s">
+        <v>30</v>
+      </c>
+      <c r="G455" t="s">
+        <v>562</v>
+      </c>
+      <c r="H455" t="s">
+        <v>528</v>
+      </c>
+      <c r="I455" t="s">
+        <v>79</v>
+      </c>
+      <c r="J455" t="s">
+        <v>37</v>
+      </c>
+      <c r="K455" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>568</v>
+      </c>
+      <c r="B456" t="s">
+        <v>12</v>
+      </c>
+      <c r="C456" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" t="s">
+        <v>379</v>
+      </c>
+      <c r="E456">
+        <v>200</v>
+      </c>
+      <c r="F456" t="s">
+        <v>30</v>
+      </c>
+      <c r="G456" t="s">
+        <v>562</v>
+      </c>
+      <c r="H456" t="s">
+        <v>528</v>
+      </c>
+      <c r="I456" t="s">
+        <v>16</v>
+      </c>
+      <c r="J456" t="s">
+        <v>39</v>
+      </c>
+      <c r="K456" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>569</v>
+      </c>
+      <c r="B457" t="s">
+        <v>12</v>
+      </c>
+      <c r="C457" t="s">
+        <v>13</v>
+      </c>
+      <c r="D457" t="s">
+        <v>376</v>
+      </c>
+      <c r="E457">
+        <v>200</v>
+      </c>
+      <c r="F457" t="s">
+        <v>30</v>
+      </c>
+      <c r="G457" t="s">
+        <v>562</v>
+      </c>
+      <c r="H457" t="s">
+        <v>528</v>
+      </c>
+      <c r="I457" t="s">
+        <v>79</v>
+      </c>
+      <c r="J457" t="s">
+        <v>37</v>
+      </c>
+      <c r="K457" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>570</v>
+      </c>
+      <c r="B458" t="s">
+        <v>12</v>
+      </c>
+      <c r="C458" t="s">
+        <v>13</v>
+      </c>
+      <c r="D458" t="s">
+        <v>379</v>
+      </c>
+      <c r="E458">
+        <v>200</v>
+      </c>
+      <c r="F458" t="s">
+        <v>30</v>
+      </c>
+      <c r="G458" t="s">
+        <v>562</v>
+      </c>
+      <c r="H458" t="s">
+        <v>528</v>
+      </c>
+      <c r="I458" t="s">
+        <v>16</v>
+      </c>
+      <c r="J458" t="s">
+        <v>39</v>
+      </c>
+      <c r="K458" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>571</v>
+      </c>
+      <c r="B459" t="s">
+        <v>12</v>
+      </c>
+      <c r="C459" t="s">
+        <v>13</v>
+      </c>
+      <c r="D459" t="s">
+        <v>376</v>
+      </c>
+      <c r="E459">
+        <v>200</v>
+      </c>
+      <c r="F459" t="s">
+        <v>30</v>
+      </c>
+      <c r="G459" t="s">
+        <v>562</v>
+      </c>
+      <c r="H459" t="s">
+        <v>528</v>
+      </c>
+      <c r="I459" t="s">
+        <v>79</v>
+      </c>
+      <c r="J459" t="s">
+        <v>37</v>
+      </c>
+      <c r="K459" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>572</v>
+      </c>
+      <c r="B460" t="s">
+        <v>12</v>
+      </c>
+      <c r="C460" t="s">
+        <v>13</v>
+      </c>
+      <c r="D460" t="s">
+        <v>379</v>
+      </c>
+      <c r="E460">
+        <v>200</v>
+      </c>
+      <c r="F460" t="s">
+        <v>30</v>
+      </c>
+      <c r="G460" t="s">
+        <v>562</v>
+      </c>
+      <c r="H460" t="s">
+        <v>528</v>
+      </c>
+      <c r="I460" t="s">
+        <v>16</v>
+      </c>
+      <c r="J460" t="s">
+        <v>39</v>
+      </c>
+      <c r="K460" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>573</v>
+      </c>
+      <c r="B461" t="s">
+        <v>12</v>
+      </c>
+      <c r="C461" t="s">
+        <v>13</v>
+      </c>
+      <c r="D461" t="s">
+        <v>376</v>
+      </c>
+      <c r="E461">
+        <v>200</v>
+      </c>
+      <c r="F461" t="s">
+        <v>30</v>
+      </c>
+      <c r="G461" t="s">
+        <v>562</v>
+      </c>
+      <c r="H461" t="s">
+        <v>528</v>
+      </c>
+      <c r="I461" t="s">
+        <v>79</v>
+      </c>
+      <c r="J461" t="s">
+        <v>37</v>
+      </c>
+      <c r="K461" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>574</v>
+      </c>
+      <c r="B462" t="s">
+        <v>12</v>
+      </c>
+      <c r="C462" t="s">
+        <v>13</v>
+      </c>
+      <c r="D462" t="s">
+        <v>379</v>
+      </c>
+      <c r="E462">
+        <v>200</v>
+      </c>
+      <c r="F462" t="s">
+        <v>30</v>
+      </c>
+      <c r="G462" t="s">
+        <v>562</v>
+      </c>
+      <c r="H462" t="s">
+        <v>528</v>
+      </c>
+      <c r="I462" t="s">
+        <v>16</v>
+      </c>
+      <c r="J462" t="s">
+        <v>39</v>
+      </c>
+      <c r="K462" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>575</v>
+      </c>
+      <c r="B463" t="s">
+        <v>12</v>
+      </c>
+      <c r="C463" t="s">
+        <v>13</v>
+      </c>
+      <c r="D463" t="s">
+        <v>557</v>
+      </c>
+      <c r="E463">
+        <v>404</v>
+      </c>
+      <c r="F463" t="s">
+        <v>15</v>
+      </c>
+      <c r="G463" t="s">
+        <v>16</v>
+      </c>
+      <c r="H463" t="s">
+        <v>16</v>
+      </c>
+      <c r="I463" t="s">
+        <v>79</v>
+      </c>
+      <c r="J463" t="s">
+        <v>394</v>
+      </c>
+      <c r="K463" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>576</v>
+      </c>
+      <c r="B464" t="s">
+        <v>12</v>
+      </c>
+      <c r="C464" t="s">
+        <v>13</v>
+      </c>
+      <c r="D464" t="s">
+        <v>396</v>
+      </c>
+      <c r="E464">
+        <v>404</v>
+      </c>
+      <c r="F464" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" t="s">
+        <v>16</v>
+      </c>
+      <c r="H464" t="s">
+        <v>16</v>
+      </c>
+      <c r="I464" t="s">
+        <v>16</v>
+      </c>
+      <c r="J464" t="s">
+        <v>397</v>
+      </c>
+      <c r="K464" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>577</v>
+      </c>
+      <c r="B465" t="s">
+        <v>12</v>
+      </c>
+      <c r="C465" t="s">
+        <v>13</v>
+      </c>
+      <c r="D465" t="s">
+        <v>557</v>
+      </c>
+      <c r="E465">
+        <v>404</v>
+      </c>
+      <c r="F465" t="s">
+        <v>15</v>
+      </c>
+      <c r="G465" t="s">
+        <v>16</v>
+      </c>
+      <c r="H465" t="s">
+        <v>16</v>
+      </c>
+      <c r="I465" t="s">
+        <v>79</v>
+      </c>
+      <c r="J465" t="s">
+        <v>394</v>
+      </c>
+      <c r="K465" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>578</v>
+      </c>
+      <c r="B466" t="s">
+        <v>12</v>
+      </c>
+      <c r="C466" t="s">
+        <v>13</v>
+      </c>
+      <c r="D466" t="s">
+        <v>396</v>
+      </c>
+      <c r="E466">
+        <v>404</v>
+      </c>
+      <c r="F466" t="s">
+        <v>15</v>
+      </c>
+      <c r="G466" t="s">
+        <v>16</v>
+      </c>
+      <c r="H466" t="s">
+        <v>16</v>
+      </c>
+      <c r="I466" t="s">
+        <v>16</v>
+      </c>
+      <c r="J466" t="s">
+        <v>397</v>
+      </c>
+      <c r="K466" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>579</v>
+      </c>
+      <c r="B467" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" t="s">
+        <v>13</v>
+      </c>
+      <c r="D467" t="s">
+        <v>557</v>
+      </c>
+      <c r="E467">
+        <v>404</v>
+      </c>
+      <c r="F467" t="s">
+        <v>15</v>
+      </c>
+      <c r="G467" t="s">
+        <v>16</v>
+      </c>
+      <c r="H467" t="s">
+        <v>16</v>
+      </c>
+      <c r="I467" t="s">
+        <v>79</v>
+      </c>
+      <c r="J467" t="s">
+        <v>394</v>
+      </c>
+      <c r="K467" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>580</v>
+      </c>
+      <c r="B468" t="s">
+        <v>12</v>
+      </c>
+      <c r="C468" t="s">
+        <v>13</v>
+      </c>
+      <c r="D468" t="s">
+        <v>396</v>
+      </c>
+      <c r="E468">
+        <v>404</v>
+      </c>
+      <c r="F468" t="s">
+        <v>15</v>
+      </c>
+      <c r="G468" t="s">
+        <v>16</v>
+      </c>
+      <c r="H468" t="s">
+        <v>16</v>
+      </c>
+      <c r="I468" t="s">
+        <v>16</v>
+      </c>
+      <c r="J468" t="s">
+        <v>397</v>
+      </c>
+      <c r="K468" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>581</v>
+      </c>
+      <c r="B469" t="s">
+        <v>12</v>
+      </c>
+      <c r="C469" t="s">
+        <v>13</v>
+      </c>
+      <c r="D469" t="s">
+        <v>376</v>
+      </c>
+      <c r="E469">
+        <v>200</v>
+      </c>
+      <c r="F469" t="s">
+        <v>30</v>
+      </c>
+      <c r="G469" t="s">
+        <v>562</v>
+      </c>
+      <c r="H469" t="s">
+        <v>528</v>
+      </c>
+      <c r="I469" t="s">
+        <v>79</v>
+      </c>
+      <c r="J469" t="s">
+        <v>37</v>
+      </c>
+      <c r="K469" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>582</v>
+      </c>
+      <c r="B470" t="s">
+        <v>12</v>
+      </c>
+      <c r="C470" t="s">
+        <v>13</v>
+      </c>
+      <c r="D470" t="s">
+        <v>379</v>
+      </c>
+      <c r="E470">
+        <v>200</v>
+      </c>
+      <c r="F470" t="s">
+        <v>30</v>
+      </c>
+      <c r="G470" t="s">
+        <v>562</v>
+      </c>
+      <c r="H470" t="s">
+        <v>528</v>
+      </c>
+      <c r="I470" t="s">
+        <v>16</v>
+      </c>
+      <c r="J470" t="s">
+        <v>39</v>
+      </c>
+      <c r="K470" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>583</v>
+      </c>
+      <c r="B471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C471" t="s">
+        <v>13</v>
+      </c>
+      <c r="D471" t="s">
+        <v>388</v>
+      </c>
+      <c r="E471">
+        <v>403</v>
+      </c>
+      <c r="F471" t="s">
+        <v>15</v>
+      </c>
+      <c r="G471" t="s">
+        <v>562</v>
+      </c>
+      <c r="H471" t="s">
+        <v>528</v>
+      </c>
+      <c r="I471" t="s">
+        <v>43</v>
+      </c>
+      <c r="J471" t="s">
+        <v>94</v>
+      </c>
+      <c r="K471" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>584</v>
+      </c>
+      <c r="B472" t="s">
+        <v>12</v>
+      </c>
+      <c r="C472" t="s">
+        <v>13</v>
+      </c>
+      <c r="D472" t="s">
+        <v>379</v>
+      </c>
+      <c r="E472">
+        <v>200</v>
+      </c>
+      <c r="F472" t="s">
+        <v>30</v>
+      </c>
+      <c r="G472" t="s">
+        <v>562</v>
+      </c>
+      <c r="H472" t="s">
+        <v>528</v>
+      </c>
+      <c r="I472" t="s">
+        <v>16</v>
+      </c>
+      <c r="J472" t="s">
+        <v>39</v>
+      </c>
+      <c r="K472" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>585</v>
+      </c>
+      <c r="B473" t="s">
+        <v>12</v>
+      </c>
+      <c r="C473" t="s">
+        <v>13</v>
+      </c>
+      <c r="D473" t="s">
+        <v>376</v>
+      </c>
+      <c r="E473">
+        <v>200</v>
+      </c>
+      <c r="F473" t="s">
+        <v>30</v>
+      </c>
+      <c r="G473" t="s">
+        <v>562</v>
+      </c>
+      <c r="H473" t="s">
+        <v>528</v>
+      </c>
+      <c r="I473" t="s">
+        <v>79</v>
+      </c>
+      <c r="J473" t="s">
+        <v>37</v>
+      </c>
+      <c r="K473" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>586</v>
+      </c>
+      <c r="B474" t="s">
+        <v>12</v>
+      </c>
+      <c r="C474" t="s">
+        <v>13</v>
+      </c>
+      <c r="D474" t="s">
+        <v>379</v>
+      </c>
+      <c r="E474">
+        <v>200</v>
+      </c>
+      <c r="F474" t="s">
+        <v>30</v>
+      </c>
+      <c r="G474" t="s">
+        <v>562</v>
+      </c>
+      <c r="H474" t="s">
+        <v>528</v>
+      </c>
+      <c r="I474" t="s">
+        <v>16</v>
+      </c>
+      <c r="J474" t="s">
+        <v>39</v>
+      </c>
+      <c r="K474" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>587</v>
+      </c>
+      <c r="B475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" t="s">
+        <v>13</v>
+      </c>
+      <c r="D475" t="s">
+        <v>388</v>
+      </c>
+      <c r="E475">
+        <v>403</v>
+      </c>
+      <c r="F475" t="s">
+        <v>15</v>
+      </c>
+      <c r="G475" t="s">
+        <v>562</v>
+      </c>
+      <c r="H475" t="s">
+        <v>528</v>
+      </c>
+      <c r="I475" t="s">
+        <v>43</v>
+      </c>
+      <c r="J475" t="s">
+        <v>94</v>
+      </c>
+      <c r="K475" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>588</v>
+      </c>
+      <c r="B476" t="s">
+        <v>12</v>
+      </c>
+      <c r="C476" t="s">
+        <v>13</v>
+      </c>
+      <c r="D476" t="s">
+        <v>379</v>
+      </c>
+      <c r="E476">
+        <v>200</v>
+      </c>
+      <c r="F476" t="s">
+        <v>30</v>
+      </c>
+      <c r="G476" t="s">
+        <v>562</v>
+      </c>
+      <c r="H476" t="s">
+        <v>528</v>
+      </c>
+      <c r="I476" t="s">
+        <v>16</v>
+      </c>
+      <c r="J476" t="s">
+        <v>39</v>
+      </c>
+      <c r="K476" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>589</v>
+      </c>
+      <c r="B477" t="s">
+        <v>12</v>
+      </c>
+      <c r="C477" t="s">
+        <v>13</v>
+      </c>
+      <c r="D477" t="s">
+        <v>376</v>
+      </c>
+      <c r="E477">
+        <v>200</v>
+      </c>
+      <c r="F477" t="s">
+        <v>30</v>
+      </c>
+      <c r="G477" t="s">
+        <v>562</v>
+      </c>
+      <c r="H477" t="s">
+        <v>528</v>
+      </c>
+      <c r="I477" t="s">
+        <v>79</v>
+      </c>
+      <c r="J477" t="s">
+        <v>37</v>
+      </c>
+      <c r="K477" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>590</v>
+      </c>
+      <c r="B478" t="s">
+        <v>12</v>
+      </c>
+      <c r="C478" t="s">
+        <v>13</v>
+      </c>
+      <c r="D478" t="s">
+        <v>379</v>
+      </c>
+      <c r="E478">
+        <v>200</v>
+      </c>
+      <c r="F478" t="s">
+        <v>30</v>
+      </c>
+      <c r="G478" t="s">
+        <v>562</v>
+      </c>
+      <c r="H478" t="s">
+        <v>528</v>
+      </c>
+      <c r="I478" t="s">
+        <v>16</v>
+      </c>
+      <c r="J478" t="s">
+        <v>39</v>
+      </c>
+      <c r="K478" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>591</v>
+      </c>
+      <c r="B479" t="s">
+        <v>12</v>
+      </c>
+      <c r="C479" t="s">
+        <v>13</v>
+      </c>
+      <c r="D479" t="s">
+        <v>592</v>
+      </c>
+      <c r="E479">
+        <v>403</v>
+      </c>
+      <c r="F479" t="s">
+        <v>15</v>
+      </c>
+      <c r="G479" t="s">
+        <v>562</v>
+      </c>
+      <c r="H479" t="s">
+        <v>528</v>
+      </c>
+      <c r="I479" t="s">
+        <v>45</v>
+      </c>
+      <c r="J479" t="s">
+        <v>262</v>
+      </c>
+      <c r="K479" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>593</v>
+      </c>
+      <c r="B480" t="s">
+        <v>12</v>
+      </c>
+      <c r="C480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480" t="s">
+        <v>379</v>
+      </c>
+      <c r="E480">
+        <v>200</v>
+      </c>
+      <c r="F480" t="s">
+        <v>30</v>
+      </c>
+      <c r="G480" t="s">
+        <v>562</v>
+      </c>
+      <c r="H480" t="s">
+        <v>528</v>
+      </c>
+      <c r="I480" t="s">
+        <v>16</v>
+      </c>
+      <c r="J480" t="s">
+        <v>39</v>
+      </c>
+      <c r="K480" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>594</v>
+      </c>
+      <c r="B481" t="s">
+        <v>12</v>
+      </c>
+      <c r="C481" t="s">
+        <v>13</v>
+      </c>
+      <c r="D481" t="s">
+        <v>376</v>
+      </c>
+      <c r="E481">
+        <v>200</v>
+      </c>
+      <c r="F481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G481" t="s">
+        <v>562</v>
+      </c>
+      <c r="H481" t="s">
+        <v>528</v>
+      </c>
+      <c r="I481" t="s">
+        <v>79</v>
+      </c>
+      <c r="J481" t="s">
+        <v>37</v>
+      </c>
+      <c r="K481" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>595</v>
+      </c>
+      <c r="B482" t="s">
+        <v>12</v>
+      </c>
+      <c r="C482" t="s">
+        <v>13</v>
+      </c>
+      <c r="D482" t="s">
+        <v>379</v>
+      </c>
+      <c r="E482">
+        <v>200</v>
+      </c>
+      <c r="F482" t="s">
+        <v>30</v>
+      </c>
+      <c r="G482" t="s">
+        <v>562</v>
+      </c>
+      <c r="H482" t="s">
+        <v>528</v>
+      </c>
+      <c r="I482" t="s">
+        <v>16</v>
+      </c>
+      <c r="J482" t="s">
+        <v>39</v>
+      </c>
+      <c r="K482" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>596</v>
+      </c>
+      <c r="B483" t="s">
+        <v>12</v>
+      </c>
+      <c r="C483" t="s">
+        <v>13</v>
+      </c>
+      <c r="D483" t="s">
+        <v>376</v>
+      </c>
+      <c r="E483">
+        <v>200</v>
+      </c>
+      <c r="F483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G483" t="s">
+        <v>562</v>
+      </c>
+      <c r="H483" t="s">
+        <v>528</v>
+      </c>
+      <c r="I483" t="s">
+        <v>79</v>
+      </c>
+      <c r="J483" t="s">
+        <v>37</v>
+      </c>
+      <c r="K483" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>597</v>
+      </c>
+      <c r="B484" t="s">
+        <v>12</v>
+      </c>
+      <c r="C484" t="s">
+        <v>13</v>
+      </c>
+      <c r="D484" t="s">
+        <v>379</v>
+      </c>
+      <c r="E484">
+        <v>200</v>
+      </c>
+      <c r="F484" t="s">
+        <v>30</v>
+      </c>
+      <c r="G484" t="s">
+        <v>562</v>
+      </c>
+      <c r="H484" t="s">
+        <v>528</v>
+      </c>
+      <c r="I484" t="s">
+        <v>16</v>
+      </c>
+      <c r="J484" t="s">
+        <v>39</v>
+      </c>
+      <c r="K484" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>598</v>
+      </c>
+      <c r="B485" t="s">
+        <v>12</v>
+      </c>
+      <c r="C485" t="s">
+        <v>13</v>
+      </c>
+      <c r="D485" t="s">
+        <v>376</v>
+      </c>
+      <c r="E485">
+        <v>200</v>
+      </c>
+      <c r="F485" t="s">
+        <v>30</v>
+      </c>
+      <c r="G485" t="s">
+        <v>562</v>
+      </c>
+      <c r="H485" t="s">
+        <v>528</v>
+      </c>
+      <c r="I485" t="s">
+        <v>79</v>
+      </c>
+      <c r="J485" t="s">
+        <v>37</v>
+      </c>
+      <c r="K485" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>599</v>
+      </c>
+      <c r="B486" t="s">
+        <v>12</v>
+      </c>
+      <c r="C486" t="s">
+        <v>13</v>
+      </c>
+      <c r="D486" t="s">
+        <v>379</v>
+      </c>
+      <c r="E486">
+        <v>200</v>
+      </c>
+      <c r="F486" t="s">
+        <v>30</v>
+      </c>
+      <c r="G486" t="s">
+        <v>562</v>
+      </c>
+      <c r="H486" t="s">
+        <v>528</v>
+      </c>
+      <c r="I486" t="s">
+        <v>16</v>
+      </c>
+      <c r="J486" t="s">
+        <v>39</v>
+      </c>
+      <c r="K486" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>600</v>
+      </c>
+      <c r="B487" t="s">
+        <v>12</v>
+      </c>
+      <c r="C487" t="s">
+        <v>70</v>
+      </c>
+      <c r="D487" t="s">
+        <v>550</v>
+      </c>
+      <c r="E487">
+        <v>200</v>
+      </c>
+      <c r="F487" t="s">
+        <v>30</v>
+      </c>
+      <c r="G487" t="s">
+        <v>562</v>
+      </c>
+      <c r="H487" t="s">
+        <v>528</v>
+      </c>
+      <c r="I487" t="s">
+        <v>16</v>
+      </c>
+      <c r="J487" t="s">
+        <v>77</v>
+      </c>
+      <c r="K487" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>601</v>
+      </c>
+      <c r="B488" t="s">
+        <v>12</v>
+      </c>
+      <c r="C488" t="s">
+        <v>13</v>
+      </c>
+      <c r="D488" t="s">
+        <v>376</v>
+      </c>
+      <c r="E488">
+        <v>404</v>
+      </c>
+      <c r="F488" t="s">
+        <v>15</v>
+      </c>
+      <c r="G488" t="s">
+        <v>16</v>
+      </c>
+      <c r="H488" t="s">
+        <v>16</v>
+      </c>
+      <c r="I488" t="s">
+        <v>79</v>
+      </c>
+      <c r="J488" t="s">
+        <v>377</v>
+      </c>
+      <c r="K488" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>602</v>
+      </c>
+      <c r="B489" t="s">
+        <v>12</v>
+      </c>
+      <c r="C489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489" t="s">
+        <v>379</v>
+      </c>
+      <c r="E489">
+        <v>404</v>
+      </c>
+      <c r="F489" t="s">
+        <v>15</v>
+      </c>
+      <c r="G489" t="s">
+        <v>16</v>
+      </c>
+      <c r="H489" t="s">
+        <v>16</v>
+      </c>
+      <c r="I489" t="s">
+        <v>16</v>
+      </c>
+      <c r="J489" t="s">
+        <v>380</v>
+      </c>
+      <c r="K489" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>603</v>
+      </c>
+      <c r="B490" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" t="s">
+        <v>13</v>
+      </c>
+      <c r="D490" t="s">
+        <v>376</v>
+      </c>
+      <c r="E490">
+        <v>404</v>
+      </c>
+      <c r="F490" t="s">
+        <v>15</v>
+      </c>
+      <c r="G490" t="s">
+        <v>16</v>
+      </c>
+      <c r="H490" t="s">
+        <v>16</v>
+      </c>
+      <c r="I490" t="s">
+        <v>79</v>
+      </c>
+      <c r="J490" t="s">
+        <v>377</v>
+      </c>
+      <c r="K490" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>604</v>
+      </c>
+      <c r="B491" t="s">
+        <v>12</v>
+      </c>
+      <c r="C491" t="s">
+        <v>13</v>
+      </c>
+      <c r="D491" t="s">
+        <v>379</v>
+      </c>
+      <c r="E491">
+        <v>404</v>
+      </c>
+      <c r="F491" t="s">
+        <v>15</v>
+      </c>
+      <c r="G491" t="s">
+        <v>16</v>
+      </c>
+      <c r="H491" t="s">
+        <v>16</v>
+      </c>
+      <c r="I491" t="s">
+        <v>16</v>
+      </c>
+      <c r="J491" t="s">
+        <v>380</v>
+      </c>
+      <c r="K491" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>605</v>
+      </c>
+      <c r="B492" t="s">
+        <v>12</v>
+      </c>
+      <c r="C492" t="s">
+        <v>70</v>
+      </c>
+      <c r="D492" t="s">
+        <v>547</v>
+      </c>
+      <c r="E492">
+        <v>404</v>
+      </c>
+      <c r="F492" t="s">
+        <v>15</v>
+      </c>
+      <c r="G492" t="s">
+        <v>16</v>
+      </c>
+      <c r="H492" t="s">
+        <v>16</v>
+      </c>
+      <c r="I492" t="s">
+        <v>16</v>
+      </c>
+      <c r="J492" t="s">
+        <v>606</v>
+      </c>
+      <c r="K492" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>607</v>
+      </c>
+      <c r="B493" t="s">
+        <v>12</v>
+      </c>
+      <c r="C493" t="s">
+        <v>13</v>
+      </c>
+      <c r="D493" t="s">
+        <v>376</v>
+      </c>
+      <c r="E493">
+        <v>404</v>
+      </c>
+      <c r="F493" t="s">
+        <v>15</v>
+      </c>
+      <c r="G493" t="s">
+        <v>16</v>
+      </c>
+      <c r="H493" t="s">
+        <v>16</v>
+      </c>
+      <c r="I493" t="s">
+        <v>79</v>
+      </c>
+      <c r="J493" t="s">
+        <v>377</v>
+      </c>
+      <c r="K493" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>608</v>
+      </c>
+      <c r="B494" t="s">
+        <v>12</v>
+      </c>
+      <c r="C494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D494" t="s">
+        <v>379</v>
+      </c>
+      <c r="E494">
+        <v>404</v>
+      </c>
+      <c r="F494" t="s">
+        <v>15</v>
+      </c>
+      <c r="G494" t="s">
+        <v>16</v>
+      </c>
+      <c r="H494" t="s">
+        <v>16</v>
+      </c>
+      <c r="I494" t="s">
+        <v>16</v>
+      </c>
+      <c r="J494" t="s">
+        <v>380</v>
+      </c>
+      <c r="K494" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>609</v>
+      </c>
+      <c r="B495" t="s">
+        <v>12</v>
+      </c>
+      <c r="C495" t="s">
+        <v>13</v>
+      </c>
+      <c r="D495" t="s">
+        <v>376</v>
+      </c>
+      <c r="E495">
+        <v>404</v>
+      </c>
+      <c r="F495" t="s">
+        <v>15</v>
+      </c>
+      <c r="G495" t="s">
+        <v>16</v>
+      </c>
+      <c r="H495" t="s">
+        <v>16</v>
+      </c>
+      <c r="I495" t="s">
+        <v>79</v>
+      </c>
+      <c r="J495" t="s">
+        <v>377</v>
+      </c>
+      <c r="K495" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>610</v>
+      </c>
+      <c r="B496" t="s">
+        <v>12</v>
+      </c>
+      <c r="C496" t="s">
+        <v>13</v>
+      </c>
+      <c r="D496" t="s">
+        <v>379</v>
+      </c>
+      <c r="E496">
+        <v>404</v>
+      </c>
+      <c r="F496" t="s">
+        <v>15</v>
+      </c>
+      <c r="G496" t="s">
+        <v>16</v>
+      </c>
+      <c r="H496" t="s">
+        <v>16</v>
+      </c>
+      <c r="I496" t="s">
+        <v>16</v>
+      </c>
+      <c r="J496" t="s">
+        <v>380</v>
+      </c>
+      <c r="K496" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>611</v>
+      </c>
+      <c r="B497" t="s">
+        <v>12</v>
+      </c>
+      <c r="C497" t="s">
+        <v>13</v>
+      </c>
+      <c r="D497" t="s">
+        <v>376</v>
+      </c>
+      <c r="E497">
+        <v>404</v>
+      </c>
+      <c r="F497" t="s">
+        <v>15</v>
+      </c>
+      <c r="G497" t="s">
+        <v>16</v>
+      </c>
+      <c r="H497" t="s">
+        <v>16</v>
+      </c>
+      <c r="I497" t="s">
+        <v>79</v>
+      </c>
+      <c r="J497" t="s">
+        <v>377</v>
+      </c>
+      <c r="K497" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>612</v>
+      </c>
+      <c r="B498" t="s">
+        <v>12</v>
+      </c>
+      <c r="C498" t="s">
+        <v>13</v>
+      </c>
+      <c r="D498" t="s">
+        <v>379</v>
+      </c>
+      <c r="E498">
+        <v>404</v>
+      </c>
+      <c r="F498" t="s">
+        <v>15</v>
+      </c>
+      <c r="G498" t="s">
+        <v>16</v>
+      </c>
+      <c r="H498" t="s">
+        <v>16</v>
+      </c>
+      <c r="I498" t="s">
+        <v>16</v>
+      </c>
+      <c r="J498" t="s">
+        <v>380</v>
+      </c>
+      <c r="K498" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>613</v>
+      </c>
+      <c r="B499" t="s">
+        <v>12</v>
+      </c>
+      <c r="C499" t="s">
+        <v>13</v>
+      </c>
+      <c r="D499" t="s">
+        <v>376</v>
+      </c>
+      <c r="E499">
+        <v>404</v>
+      </c>
+      <c r="F499" t="s">
+        <v>15</v>
+      </c>
+      <c r="G499" t="s">
+        <v>16</v>
+      </c>
+      <c r="H499" t="s">
+        <v>16</v>
+      </c>
+      <c r="I499" t="s">
+        <v>79</v>
+      </c>
+      <c r="J499" t="s">
+        <v>377</v>
+      </c>
+      <c r="K499" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>614</v>
+      </c>
+      <c r="B500" t="s">
+        <v>12</v>
+      </c>
+      <c r="C500" t="s">
+        <v>13</v>
+      </c>
+      <c r="D500" t="s">
+        <v>379</v>
+      </c>
+      <c r="E500">
+        <v>404</v>
+      </c>
+      <c r="F500" t="s">
+        <v>15</v>
+      </c>
+      <c r="G500" t="s">
+        <v>16</v>
+      </c>
+      <c r="H500" t="s">
+        <v>16</v>
+      </c>
+      <c r="I500" t="s">
+        <v>16</v>
+      </c>
+      <c r="J500" t="s">
+        <v>380</v>
+      </c>
+      <c r="K500" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>615</v>
+      </c>
+      <c r="B501" t="s">
+        <v>12</v>
+      </c>
+      <c r="C501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D501" t="s">
+        <v>376</v>
+      </c>
+      <c r="E501">
+        <v>404</v>
+      </c>
+      <c r="F501" t="s">
+        <v>15</v>
+      </c>
+      <c r="G501" t="s">
+        <v>16</v>
+      </c>
+      <c r="H501" t="s">
+        <v>16</v>
+      </c>
+      <c r="I501" t="s">
+        <v>79</v>
+      </c>
+      <c r="J501" t="s">
+        <v>377</v>
+      </c>
+      <c r="K501" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>616</v>
+      </c>
+      <c r="B502" t="s">
+        <v>12</v>
+      </c>
+      <c r="C502" t="s">
+        <v>13</v>
+      </c>
+      <c r="D502" t="s">
+        <v>379</v>
+      </c>
+      <c r="E502">
+        <v>404</v>
+      </c>
+      <c r="F502" t="s">
+        <v>15</v>
+      </c>
+      <c r="G502" t="s">
+        <v>16</v>
+      </c>
+      <c r="H502" t="s">
+        <v>16</v>
+      </c>
+      <c r="I502" t="s">
+        <v>16</v>
+      </c>
+      <c r="J502" t="s">
+        <v>380</v>
+      </c>
+      <c r="K502" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>617</v>
+      </c>
+      <c r="B503" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503" t="s">
+        <v>13</v>
+      </c>
+      <c r="D503" t="s">
+        <v>376</v>
+      </c>
+      <c r="E503">
+        <v>404</v>
+      </c>
+      <c r="F503" t="s">
+        <v>15</v>
+      </c>
+      <c r="G503" t="s">
+        <v>16</v>
+      </c>
+      <c r="H503" t="s">
+        <v>16</v>
+      </c>
+      <c r="I503" t="s">
+        <v>79</v>
+      </c>
+      <c r="J503" t="s">
+        <v>377</v>
+      </c>
+      <c r="K503" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>618</v>
+      </c>
+      <c r="B504" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504" t="s">
+        <v>13</v>
+      </c>
+      <c r="D504" t="s">
+        <v>379</v>
+      </c>
+      <c r="E504">
+        <v>404</v>
+      </c>
+      <c r="F504" t="s">
+        <v>15</v>
+      </c>
+      <c r="G504" t="s">
+        <v>16</v>
+      </c>
+      <c r="H504" t="s">
+        <v>16</v>
+      </c>
+      <c r="I504" t="s">
+        <v>16</v>
+      </c>
+      <c r="J504" t="s">
+        <v>380</v>
+      </c>
+      <c r="K504" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>619</v>
+      </c>
+      <c r="B505" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505" t="s">
+        <v>13</v>
+      </c>
+      <c r="D505" t="s">
+        <v>376</v>
+      </c>
+      <c r="E505">
+        <v>404</v>
+      </c>
+      <c r="F505" t="s">
+        <v>15</v>
+      </c>
+      <c r="G505" t="s">
+        <v>16</v>
+      </c>
+      <c r="H505" t="s">
+        <v>16</v>
+      </c>
+      <c r="I505" t="s">
+        <v>79</v>
+      </c>
+      <c r="J505" t="s">
+        <v>377</v>
+      </c>
+      <c r="K505" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>620</v>
+      </c>
+      <c r="B506" t="s">
+        <v>12</v>
+      </c>
+      <c r="C506" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506" t="s">
+        <v>379</v>
+      </c>
+      <c r="E506">
+        <v>404</v>
+      </c>
+      <c r="F506" t="s">
+        <v>15</v>
+      </c>
+      <c r="G506" t="s">
+        <v>16</v>
+      </c>
+      <c r="H506" t="s">
+        <v>16</v>
+      </c>
+      <c r="I506" t="s">
+        <v>16</v>
+      </c>
+      <c r="J506" t="s">
+        <v>380</v>
+      </c>
+      <c r="K506" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>621</v>
+      </c>
+      <c r="B507" t="s">
+        <v>12</v>
+      </c>
+      <c r="C507" t="s">
+        <v>13</v>
+      </c>
+      <c r="D507" t="s">
+        <v>557</v>
+      </c>
+      <c r="E507">
+        <v>404</v>
+      </c>
+      <c r="F507" t="s">
+        <v>15</v>
+      </c>
+      <c r="G507" t="s">
+        <v>16</v>
+      </c>
+      <c r="H507" t="s">
+        <v>16</v>
+      </c>
+      <c r="I507" t="s">
+        <v>79</v>
+      </c>
+      <c r="J507" t="s">
+        <v>394</v>
+      </c>
+      <c r="K507" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>622</v>
+      </c>
+      <c r="B508" t="s">
+        <v>12</v>
+      </c>
+      <c r="C508" t="s">
+        <v>13</v>
+      </c>
+      <c r="D508" t="s">
+        <v>396</v>
+      </c>
+      <c r="E508">
+        <v>404</v>
+      </c>
+      <c r="F508" t="s">
+        <v>15</v>
+      </c>
+      <c r="G508" t="s">
+        <v>16</v>
+      </c>
+      <c r="H508" t="s">
+        <v>16</v>
+      </c>
+      <c r="I508" t="s">
+        <v>16</v>
+      </c>
+      <c r="J508" t="s">
+        <v>397</v>
+      </c>
+      <c r="K508" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>623</v>
+      </c>
+      <c r="B509" t="s">
+        <v>12</v>
+      </c>
+      <c r="C509" t="s">
+        <v>13</v>
+      </c>
+      <c r="D509" t="s">
+        <v>557</v>
+      </c>
+      <c r="E509">
+        <v>404</v>
+      </c>
+      <c r="F509" t="s">
+        <v>15</v>
+      </c>
+      <c r="G509" t="s">
+        <v>16</v>
+      </c>
+      <c r="H509" t="s">
+        <v>16</v>
+      </c>
+      <c r="I509" t="s">
+        <v>79</v>
+      </c>
+      <c r="J509" t="s">
+        <v>394</v>
+      </c>
+      <c r="K509" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>624</v>
+      </c>
+      <c r="B510" t="s">
+        <v>12</v>
+      </c>
+      <c r="C510" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" t="s">
+        <v>396</v>
+      </c>
+      <c r="E510">
+        <v>404</v>
+      </c>
+      <c r="F510" t="s">
+        <v>15</v>
+      </c>
+      <c r="G510" t="s">
+        <v>16</v>
+      </c>
+      <c r="H510" t="s">
+        <v>16</v>
+      </c>
+      <c r="I510" t="s">
+        <v>16</v>
+      </c>
+      <c r="J510" t="s">
+        <v>397</v>
+      </c>
+      <c r="K510" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>625</v>
+      </c>
+      <c r="B511" t="s">
+        <v>12</v>
+      </c>
+      <c r="C511" t="s">
+        <v>28</v>
+      </c>
+      <c r="D511" t="s">
+        <v>255</v>
+      </c>
+      <c r="E511">
+        <v>200</v>
+      </c>
+      <c r="F511" t="s">
+        <v>30</v>
+      </c>
+      <c r="G511" t="s">
+        <v>16</v>
+      </c>
+      <c r="H511" t="s">
+        <v>16</v>
+      </c>
+      <c r="I511" t="s">
+        <v>16</v>
+      </c>
+      <c r="J511" t="s">
+        <v>16</v>
+      </c>
+      <c r="K511" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>626</v>
+      </c>
+      <c r="B512" t="s">
+        <v>12</v>
+      </c>
+      <c r="C512" t="s">
+        <v>13</v>
+      </c>
+      <c r="D512" t="s">
+        <v>557</v>
+      </c>
+      <c r="E512">
+        <v>404</v>
+      </c>
+      <c r="F512" t="s">
+        <v>15</v>
+      </c>
+      <c r="G512" t="s">
+        <v>16</v>
+      </c>
+      <c r="H512" t="s">
+        <v>16</v>
+      </c>
+      <c r="I512" t="s">
+        <v>79</v>
+      </c>
+      <c r="J512" t="s">
+        <v>394</v>
+      </c>
+      <c r="K512" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>627</v>
+      </c>
+      <c r="B513" t="s">
+        <v>12</v>
+      </c>
+      <c r="C513" t="s">
+        <v>13</v>
+      </c>
+      <c r="D513" t="s">
+        <v>396</v>
+      </c>
+      <c r="E513">
+        <v>404</v>
+      </c>
+      <c r="F513" t="s">
+        <v>15</v>
+      </c>
+      <c r="G513" t="s">
+        <v>16</v>
+      </c>
+      <c r="H513" t="s">
+        <v>16</v>
+      </c>
+      <c r="I513" t="s">
+        <v>16</v>
+      </c>
+      <c r="J513" t="s">
+        <v>397</v>
+      </c>
+      <c r="K513" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>628</v>
+      </c>
+      <c r="B514" t="s">
+        <v>12</v>
+      </c>
+      <c r="C514" t="s">
+        <v>28</v>
+      </c>
+      <c r="D514" t="s">
+        <v>29</v>
+      </c>
+      <c r="E514">
+        <v>200</v>
+      </c>
+      <c r="F514" t="s">
+        <v>30</v>
+      </c>
+      <c r="G514" t="s">
+        <v>177</v>
+      </c>
+      <c r="H514" t="s">
+        <v>400</v>
+      </c>
+      <c r="I514" t="s">
+        <v>79</v>
+      </c>
+      <c r="J514" t="s">
+        <v>34</v>
+      </c>
+      <c r="K514" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>629</v>
+      </c>
+      <c r="B515" t="s">
+        <v>12</v>
+      </c>
+      <c r="C515" t="s">
+        <v>13</v>
+      </c>
+      <c r="D515" t="s">
+        <v>557</v>
+      </c>
+      <c r="E515">
+        <v>200</v>
+      </c>
+      <c r="F515" t="s">
+        <v>30</v>
+      </c>
+      <c r="G515" t="s">
+        <v>177</v>
+      </c>
+      <c r="H515" t="s">
+        <v>400</v>
+      </c>
+      <c r="I515" t="s">
+        <v>79</v>
+      </c>
+      <c r="J515" t="s">
+        <v>37</v>
+      </c>
+      <c r="K515" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>630</v>
+      </c>
+      <c r="B516" t="s">
+        <v>12</v>
+      </c>
+      <c r="C516" t="s">
+        <v>13</v>
+      </c>
+      <c r="D516" t="s">
+        <v>396</v>
+      </c>
+      <c r="E516">
+        <v>200</v>
+      </c>
+      <c r="F516" t="s">
+        <v>30</v>
+      </c>
+      <c r="G516" t="s">
+        <v>177</v>
+      </c>
+      <c r="H516" t="s">
+        <v>400</v>
+      </c>
+      <c r="I516" t="s">
+        <v>16</v>
+      </c>
+      <c r="J516" t="s">
+        <v>39</v>
+      </c>
+      <c r="K516" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>631</v>
+      </c>
+      <c r="B517" t="s">
+        <v>12</v>
+      </c>
+      <c r="C517" t="s">
+        <v>28</v>
+      </c>
+      <c r="D517" t="s">
+        <v>255</v>
+      </c>
+      <c r="E517">
+        <v>200</v>
+      </c>
+      <c r="F517" t="s">
+        <v>30</v>
+      </c>
+      <c r="G517" t="s">
+        <v>16</v>
+      </c>
+      <c r="H517" t="s">
+        <v>16</v>
+      </c>
+      <c r="I517" t="s">
+        <v>16</v>
+      </c>
+      <c r="J517" t="s">
+        <v>16</v>
+      </c>
+      <c r="K517" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>632</v>
+      </c>
+      <c r="B518" t="s">
+        <v>12</v>
+      </c>
+      <c r="C518" t="s">
+        <v>13</v>
+      </c>
+      <c r="D518" t="s">
+        <v>557</v>
+      </c>
+      <c r="E518">
+        <v>200</v>
+      </c>
+      <c r="F518" t="s">
+        <v>30</v>
+      </c>
+      <c r="G518" t="s">
+        <v>177</v>
+      </c>
+      <c r="H518" t="s">
+        <v>400</v>
+      </c>
+      <c r="I518" t="s">
+        <v>79</v>
+      </c>
+      <c r="J518" t="s">
+        <v>37</v>
+      </c>
+      <c r="K518" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>633</v>
+      </c>
+      <c r="B519" t="s">
+        <v>12</v>
+      </c>
+      <c r="C519" t="s">
+        <v>13</v>
+      </c>
+      <c r="D519" t="s">
+        <v>396</v>
+      </c>
+      <c r="E519">
+        <v>200</v>
+      </c>
+      <c r="F519" t="s">
+        <v>30</v>
+      </c>
+      <c r="G519" t="s">
+        <v>177</v>
+      </c>
+      <c r="H519" t="s">
+        <v>400</v>
+      </c>
+      <c r="I519" t="s">
+        <v>16</v>
+      </c>
+      <c r="J519" t="s">
+        <v>39</v>
+      </c>
+      <c r="K519" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>634</v>
+      </c>
+      <c r="B520" t="s">
+        <v>12</v>
+      </c>
+      <c r="C520" t="s">
+        <v>13</v>
+      </c>
+      <c r="D520" t="s">
+        <v>635</v>
+      </c>
+      <c r="E520">
+        <v>403</v>
+      </c>
+      <c r="F520" t="s">
+        <v>15</v>
+      </c>
+      <c r="G520" t="s">
+        <v>177</v>
+      </c>
+      <c r="H520" t="s">
+        <v>400</v>
+      </c>
+      <c r="I520" t="s">
+        <v>45</v>
+      </c>
+      <c r="J520" t="s">
+        <v>262</v>
+      </c>
+      <c r="K520" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>636</v>
+      </c>
+      <c r="B521" t="s">
+        <v>12</v>
+      </c>
+      <c r="C521" t="s">
+        <v>13</v>
+      </c>
+      <c r="D521" t="s">
+        <v>396</v>
+      </c>
+      <c r="E521">
+        <v>200</v>
+      </c>
+      <c r="F521" t="s">
+        <v>30</v>
+      </c>
+      <c r="G521" t="s">
+        <v>177</v>
+      </c>
+      <c r="H521" t="s">
+        <v>400</v>
+      </c>
+      <c r="I521" t="s">
+        <v>16</v>
+      </c>
+      <c r="J521" t="s">
+        <v>39</v>
+      </c>
+      <c r="K521" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>637</v>
+      </c>
+      <c r="B522" t="s">
+        <v>12</v>
+      </c>
+      <c r="C522" t="s">
+        <v>13</v>
+      </c>
+      <c r="D522" t="s">
+        <v>557</v>
+      </c>
+      <c r="E522">
+        <v>200</v>
+      </c>
+      <c r="F522" t="s">
+        <v>30</v>
+      </c>
+      <c r="G522" t="s">
+        <v>177</v>
+      </c>
+      <c r="H522" t="s">
+        <v>400</v>
+      </c>
+      <c r="I522" t="s">
+        <v>79</v>
+      </c>
+      <c r="J522" t="s">
+        <v>37</v>
+      </c>
+      <c r="K522" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>638</v>
+      </c>
+      <c r="B523" t="s">
+        <v>12</v>
+      </c>
+      <c r="C523" t="s">
+        <v>13</v>
+      </c>
+      <c r="D523" t="s">
+        <v>396</v>
+      </c>
+      <c r="E523">
+        <v>200</v>
+      </c>
+      <c r="F523" t="s">
+        <v>30</v>
+      </c>
+      <c r="G523" t="s">
+        <v>177</v>
+      </c>
+      <c r="H523" t="s">
+        <v>400</v>
+      </c>
+      <c r="I523" t="s">
+        <v>16</v>
+      </c>
+      <c r="J523" t="s">
+        <v>39</v>
+      </c>
+      <c r="K523" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>639</v>
+      </c>
+      <c r="B524" t="s">
+        <v>12</v>
+      </c>
+      <c r="C524" t="s">
+        <v>13</v>
+      </c>
+      <c r="D524" t="s">
+        <v>592</v>
+      </c>
+      <c r="E524">
+        <v>404</v>
+      </c>
+      <c r="F524" t="s">
+        <v>15</v>
+      </c>
+      <c r="G524" t="s">
+        <v>16</v>
+      </c>
+      <c r="H524" t="s">
+        <v>16</v>
+      </c>
+      <c r="I524" t="s">
+        <v>45</v>
+      </c>
+      <c r="J524" t="s">
+        <v>377</v>
+      </c>
+      <c r="K524" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>640</v>
+      </c>
+      <c r="B525" t="s">
+        <v>12</v>
+      </c>
+      <c r="C525" t="s">
+        <v>13</v>
+      </c>
+      <c r="D525" t="s">
+        <v>379</v>
+      </c>
+      <c r="E525">
+        <v>404</v>
+      </c>
+      <c r="F525" t="s">
+        <v>15</v>
+      </c>
+      <c r="G525" t="s">
+        <v>16</v>
+      </c>
+      <c r="H525" t="s">
+        <v>16</v>
+      </c>
+      <c r="I525" t="s">
+        <v>16</v>
+      </c>
+      <c r="J525" t="s">
+        <v>380</v>
+      </c>
+      <c r="K525" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>641</v>
+      </c>
+      <c r="B526" t="s">
+        <v>12</v>
+      </c>
+      <c r="C526" t="s">
+        <v>13</v>
+      </c>
+      <c r="D526" t="s">
+        <v>376</v>
+      </c>
+      <c r="E526">
+        <v>404</v>
+      </c>
+      <c r="F526" t="s">
+        <v>15</v>
+      </c>
+      <c r="G526" t="s">
+        <v>16</v>
+      </c>
+      <c r="H526" t="s">
+        <v>16</v>
+      </c>
+      <c r="I526" t="s">
+        <v>79</v>
+      </c>
+      <c r="J526" t="s">
+        <v>377</v>
+      </c>
+      <c r="K526" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>642</v>
+      </c>
+      <c r="B527" t="s">
+        <v>12</v>
+      </c>
+      <c r="C527" t="s">
+        <v>13</v>
+      </c>
+      <c r="D527" t="s">
+        <v>379</v>
+      </c>
+      <c r="E527">
+        <v>404</v>
+      </c>
+      <c r="F527" t="s">
+        <v>15</v>
+      </c>
+      <c r="G527" t="s">
+        <v>16</v>
+      </c>
+      <c r="H527" t="s">
+        <v>16</v>
+      </c>
+      <c r="I527" t="s">
+        <v>16</v>
+      </c>
+      <c r="J527" t="s">
+        <v>380</v>
+      </c>
+      <c r="K527" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>643</v>
+      </c>
+      <c r="B528" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" t="s">
+        <v>13</v>
+      </c>
+      <c r="D528" t="s">
+        <v>376</v>
+      </c>
+      <c r="E528">
+        <v>404</v>
+      </c>
+      <c r="F528" t="s">
+        <v>15</v>
+      </c>
+      <c r="G528" t="s">
+        <v>16</v>
+      </c>
+      <c r="H528" t="s">
+        <v>16</v>
+      </c>
+      <c r="I528" t="s">
+        <v>79</v>
+      </c>
+      <c r="J528" t="s">
+        <v>377</v>
+      </c>
+      <c r="K528" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>644</v>
+      </c>
+      <c r="B529" t="s">
+        <v>12</v>
+      </c>
+      <c r="C529" t="s">
+        <v>13</v>
+      </c>
+      <c r="D529" t="s">
+        <v>379</v>
+      </c>
+      <c r="E529">
+        <v>404</v>
+      </c>
+      <c r="F529" t="s">
+        <v>15</v>
+      </c>
+      <c r="G529" t="s">
+        <v>16</v>
+      </c>
+      <c r="H529" t="s">
+        <v>16</v>
+      </c>
+      <c r="I529" t="s">
+        <v>16</v>
+      </c>
+      <c r="J529" t="s">
+        <v>380</v>
+      </c>
+      <c r="K529" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>645</v>
+      </c>
+      <c r="B530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C530" t="s">
+        <v>13</v>
+      </c>
+      <c r="D530" t="s">
+        <v>376</v>
+      </c>
+      <c r="E530">
+        <v>404</v>
+      </c>
+      <c r="F530" t="s">
+        <v>15</v>
+      </c>
+      <c r="G530" t="s">
+        <v>16</v>
+      </c>
+      <c r="H530" t="s">
+        <v>16</v>
+      </c>
+      <c r="I530" t="s">
+        <v>79</v>
+      </c>
+      <c r="J530" t="s">
+        <v>377</v>
+      </c>
+      <c r="K530" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>646</v>
+      </c>
+      <c r="B531" t="s">
+        <v>12</v>
+      </c>
+      <c r="C531" t="s">
+        <v>13</v>
+      </c>
+      <c r="D531" t="s">
+        <v>379</v>
+      </c>
+      <c r="E531">
+        <v>404</v>
+      </c>
+      <c r="F531" t="s">
+        <v>15</v>
+      </c>
+      <c r="G531" t="s">
+        <v>16</v>
+      </c>
+      <c r="H531" t="s">
+        <v>16</v>
+      </c>
+      <c r="I531" t="s">
+        <v>16</v>
+      </c>
+      <c r="J531" t="s">
+        <v>380</v>
+      </c>
+      <c r="K531" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>647</v>
+      </c>
+      <c r="B532" t="s">
+        <v>12</v>
+      </c>
+      <c r="C532" t="s">
+        <v>13</v>
+      </c>
+      <c r="D532" t="s">
+        <v>376</v>
+      </c>
+      <c r="E532">
+        <v>404</v>
+      </c>
+      <c r="F532" t="s">
+        <v>15</v>
+      </c>
+      <c r="G532" t="s">
+        <v>16</v>
+      </c>
+      <c r="H532" t="s">
+        <v>16</v>
+      </c>
+      <c r="I532" t="s">
+        <v>79</v>
+      </c>
+      <c r="J532" t="s">
+        <v>377</v>
+      </c>
+      <c r="K532" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>648</v>
+      </c>
+      <c r="B533" t="s">
+        <v>12</v>
+      </c>
+      <c r="C533" t="s">
+        <v>13</v>
+      </c>
+      <c r="D533" t="s">
+        <v>379</v>
+      </c>
+      <c r="E533">
+        <v>404</v>
+      </c>
+      <c r="F533" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" t="s">
+        <v>16</v>
+      </c>
+      <c r="H533" t="s">
+        <v>16</v>
+      </c>
+      <c r="I533" t="s">
+        <v>16</v>
+      </c>
+      <c r="J533" t="s">
+        <v>380</v>
+      </c>
+      <c r="K533" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>649</v>
+      </c>
+      <c r="B534" t="s">
+        <v>12</v>
+      </c>
+      <c r="C534" t="s">
+        <v>13</v>
+      </c>
+      <c r="D534" t="s">
+        <v>557</v>
+      </c>
+      <c r="E534">
+        <v>200</v>
+      </c>
+      <c r="F534" t="s">
+        <v>30</v>
+      </c>
+      <c r="G534" t="s">
+        <v>177</v>
+      </c>
+      <c r="H534" t="s">
+        <v>400</v>
+      </c>
+      <c r="I534" t="s">
+        <v>79</v>
+      </c>
+      <c r="J534" t="s">
+        <v>37</v>
+      </c>
+      <c r="K534" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>650</v>
+      </c>
+      <c r="B535" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535" t="s">
+        <v>13</v>
+      </c>
+      <c r="D535" t="s">
+        <v>396</v>
+      </c>
+      <c r="E535">
+        <v>200</v>
+      </c>
+      <c r="F535" t="s">
+        <v>30</v>
+      </c>
+      <c r="G535" t="s">
+        <v>177</v>
+      </c>
+      <c r="H535" t="s">
+        <v>400</v>
+      </c>
+      <c r="I535" t="s">
+        <v>16</v>
+      </c>
+      <c r="J535" t="s">
+        <v>39</v>
+      </c>
+      <c r="K535" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>651</v>
+      </c>
+      <c r="B536" t="s">
+        <v>12</v>
+      </c>
+      <c r="C536" t="s">
+        <v>13</v>
+      </c>
+      <c r="D536" t="s">
+        <v>557</v>
+      </c>
+      <c r="E536">
+        <v>200</v>
+      </c>
+      <c r="F536" t="s">
+        <v>30</v>
+      </c>
+      <c r="G536" t="s">
+        <v>177</v>
+      </c>
+      <c r="H536" t="s">
+        <v>400</v>
+      </c>
+      <c r="I536" t="s">
+        <v>79</v>
+      </c>
+      <c r="J536" t="s">
+        <v>37</v>
+      </c>
+      <c r="K536" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>652</v>
+      </c>
+      <c r="B537" t="s">
+        <v>12</v>
+      </c>
+      <c r="C537" t="s">
+        <v>13</v>
+      </c>
+      <c r="D537" t="s">
+        <v>396</v>
+      </c>
+      <c r="E537">
+        <v>200</v>
+      </c>
+      <c r="F537" t="s">
+        <v>30</v>
+      </c>
+      <c r="G537" t="s">
+        <v>177</v>
+      </c>
+      <c r="H537" t="s">
+        <v>400</v>
+      </c>
+      <c r="I537" t="s">
+        <v>16</v>
+      </c>
+      <c r="J537" t="s">
+        <v>39</v>
+      </c>
+      <c r="K537" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>653</v>
+      </c>
+      <c r="B538" t="s">
+        <v>12</v>
+      </c>
+      <c r="C538" t="s">
+        <v>13</v>
+      </c>
+      <c r="D538" t="s">
+        <v>635</v>
+      </c>
+      <c r="E538">
+        <v>403</v>
+      </c>
+      <c r="F538" t="s">
+        <v>15</v>
+      </c>
+      <c r="G538" t="s">
+        <v>177</v>
+      </c>
+      <c r="H538" t="s">
+        <v>400</v>
+      </c>
+      <c r="I538" t="s">
+        <v>45</v>
+      </c>
+      <c r="J538" t="s">
+        <v>262</v>
+      </c>
+      <c r="K538" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>654</v>
+      </c>
+      <c r="B539" t="s">
+        <v>12</v>
+      </c>
+      <c r="C539" t="s">
+        <v>13</v>
+      </c>
+      <c r="D539" t="s">
+        <v>396</v>
+      </c>
+      <c r="E539">
+        <v>200</v>
+      </c>
+      <c r="F539" t="s">
+        <v>30</v>
+      </c>
+      <c r="G539" t="s">
+        <v>177</v>
+      </c>
+      <c r="H539" t="s">
+        <v>400</v>
+      </c>
+      <c r="I539" t="s">
+        <v>16</v>
+      </c>
+      <c r="J539" t="s">
+        <v>39</v>
+      </c>
+      <c r="K539" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>655</v>
+      </c>
+      <c r="B540" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540" t="s">
+        <v>13</v>
+      </c>
+      <c r="D540" t="s">
+        <v>557</v>
+      </c>
+      <c r="E540">
+        <v>200</v>
+      </c>
+      <c r="F540" t="s">
+        <v>30</v>
+      </c>
+      <c r="G540" t="s">
+        <v>177</v>
+      </c>
+      <c r="H540" t="s">
+        <v>400</v>
+      </c>
+      <c r="I540" t="s">
+        <v>79</v>
+      </c>
+      <c r="J540" t="s">
+        <v>37</v>
+      </c>
+      <c r="K540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>656</v>
+      </c>
+      <c r="B541" t="s">
+        <v>12</v>
+      </c>
+      <c r="C541" t="s">
+        <v>13</v>
+      </c>
+      <c r="D541" t="s">
+        <v>396</v>
+      </c>
+      <c r="E541">
+        <v>200</v>
+      </c>
+      <c r="F541" t="s">
+        <v>30</v>
+      </c>
+      <c r="G541" t="s">
+        <v>177</v>
+      </c>
+      <c r="H541" t="s">
+        <v>400</v>
+      </c>
+      <c r="I541" t="s">
+        <v>16</v>
+      </c>
+      <c r="J541" t="s">
+        <v>39</v>
+      </c>
+      <c r="K541" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>657</v>
+      </c>
+      <c r="B542" t="s">
+        <v>12</v>
+      </c>
+      <c r="C542" t="s">
+        <v>13</v>
+      </c>
+      <c r="D542" t="s">
+        <v>635</v>
+      </c>
+      <c r="E542">
+        <v>403</v>
+      </c>
+      <c r="F542" t="s">
+        <v>15</v>
+      </c>
+      <c r="G542" t="s">
+        <v>177</v>
+      </c>
+      <c r="H542" t="s">
+        <v>400</v>
+      </c>
+      <c r="I542" t="s">
+        <v>45</v>
+      </c>
+      <c r="J542" t="s">
+        <v>262</v>
+      </c>
+      <c r="K542" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>658</v>
+      </c>
+      <c r="B543" t="s">
+        <v>12</v>
+      </c>
+      <c r="C543" t="s">
+        <v>13</v>
+      </c>
+      <c r="D543" t="s">
+        <v>396</v>
+      </c>
+      <c r="E543">
+        <v>200</v>
+      </c>
+      <c r="F543" t="s">
+        <v>30</v>
+      </c>
+      <c r="G543" t="s">
+        <v>177</v>
+      </c>
+      <c r="H543" t="s">
+        <v>400</v>
+      </c>
+      <c r="I543" t="s">
+        <v>16</v>
+      </c>
+      <c r="J543" t="s">
+        <v>39</v>
+      </c>
+      <c r="K543" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>659</v>
+      </c>
+      <c r="B544" t="s">
+        <v>12</v>
+      </c>
+      <c r="C544" t="s">
+        <v>13</v>
+      </c>
+      <c r="D544" t="s">
+        <v>557</v>
+      </c>
+      <c r="E544">
+        <v>200</v>
+      </c>
+      <c r="F544" t="s">
+        <v>30</v>
+      </c>
+      <c r="G544" t="s">
+        <v>177</v>
+      </c>
+      <c r="H544" t="s">
+        <v>400</v>
+      </c>
+      <c r="I544" t="s">
+        <v>79</v>
+      </c>
+      <c r="J544" t="s">
+        <v>37</v>
+      </c>
+      <c r="K544" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>660</v>
+      </c>
+      <c r="B545" t="s">
+        <v>12</v>
+      </c>
+      <c r="C545" t="s">
+        <v>13</v>
+      </c>
+      <c r="D545" t="s">
+        <v>396</v>
+      </c>
+      <c r="E545">
+        <v>200</v>
+      </c>
+      <c r="F545" t="s">
+        <v>30</v>
+      </c>
+      <c r="G545" t="s">
+        <v>177</v>
+      </c>
+      <c r="H545" t="s">
+        <v>400</v>
+      </c>
+      <c r="I545" t="s">
+        <v>16</v>
+      </c>
+      <c r="J545" t="s">
+        <v>39</v>
+      </c>
+      <c r="K545" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>661</v>
+      </c>
+      <c r="B546" t="s">
+        <v>12</v>
+      </c>
+      <c r="C546" t="s">
+        <v>13</v>
+      </c>
+      <c r="D546" t="s">
+        <v>376</v>
+      </c>
+      <c r="E546">
+        <v>404</v>
+      </c>
+      <c r="F546" t="s">
+        <v>15</v>
+      </c>
+      <c r="G546" t="s">
+        <v>16</v>
+      </c>
+      <c r="H546" t="s">
+        <v>16</v>
+      </c>
+      <c r="I546" t="s">
+        <v>79</v>
+      </c>
+      <c r="J546" t="s">
+        <v>377</v>
+      </c>
+      <c r="K546" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>662</v>
+      </c>
+      <c r="B547" t="s">
+        <v>12</v>
+      </c>
+      <c r="C547" t="s">
+        <v>13</v>
+      </c>
+      <c r="D547" t="s">
+        <v>379</v>
+      </c>
+      <c r="E547">
+        <v>404</v>
+      </c>
+      <c r="F547" t="s">
+        <v>15</v>
+      </c>
+      <c r="G547" t="s">
+        <v>16</v>
+      </c>
+      <c r="H547" t="s">
+        <v>16</v>
+      </c>
+      <c r="I547" t="s">
+        <v>16</v>
+      </c>
+      <c r="J547" t="s">
+        <v>380</v>
+      </c>
+      <c r="K547" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>663</v>
+      </c>
+      <c r="B548" t="s">
+        <v>12</v>
+      </c>
+      <c r="C548" t="s">
+        <v>13</v>
+      </c>
+      <c r="D548" t="s">
+        <v>376</v>
+      </c>
+      <c r="E548">
+        <v>404</v>
+      </c>
+      <c r="F548" t="s">
+        <v>15</v>
+      </c>
+      <c r="G548" t="s">
+        <v>16</v>
+      </c>
+      <c r="H548" t="s">
+        <v>16</v>
+      </c>
+      <c r="I548" t="s">
+        <v>79</v>
+      </c>
+      <c r="J548" t="s">
+        <v>377</v>
+      </c>
+      <c r="K548" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>664</v>
+      </c>
+      <c r="B549" t="s">
+        <v>12</v>
+      </c>
+      <c r="C549" t="s">
+        <v>13</v>
+      </c>
+      <c r="D549" t="s">
+        <v>379</v>
+      </c>
+      <c r="E549">
+        <v>404</v>
+      </c>
+      <c r="F549" t="s">
+        <v>15</v>
+      </c>
+      <c r="G549" t="s">
+        <v>16</v>
+      </c>
+      <c r="H549" t="s">
+        <v>16</v>
+      </c>
+      <c r="I549" t="s">
+        <v>16</v>
+      </c>
+      <c r="J549" t="s">
+        <v>380</v>
+      </c>
+      <c r="K549" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>665</v>
+      </c>
+      <c r="B550" t="s">
+        <v>12</v>
+      </c>
+      <c r="C550" t="s">
+        <v>13</v>
+      </c>
+      <c r="D550" t="s">
+        <v>376</v>
+      </c>
+      <c r="E550">
+        <v>404</v>
+      </c>
+      <c r="F550" t="s">
+        <v>15</v>
+      </c>
+      <c r="G550" t="s">
+        <v>16</v>
+      </c>
+      <c r="H550" t="s">
+        <v>16</v>
+      </c>
+      <c r="I550" t="s">
+        <v>79</v>
+      </c>
+      <c r="J550" t="s">
+        <v>377</v>
+      </c>
+      <c r="K550" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>666</v>
+      </c>
+      <c r="B551" t="s">
+        <v>12</v>
+      </c>
+      <c r="C551" t="s">
+        <v>13</v>
+      </c>
+      <c r="D551" t="s">
+        <v>379</v>
+      </c>
+      <c r="E551">
+        <v>404</v>
+      </c>
+      <c r="F551" t="s">
+        <v>15</v>
+      </c>
+      <c r="G551" t="s">
+        <v>16</v>
+      </c>
+      <c r="H551" t="s">
+        <v>16</v>
+      </c>
+      <c r="I551" t="s">
+        <v>16</v>
+      </c>
+      <c r="J551" t="s">
+        <v>380</v>
+      </c>
+      <c r="K551" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>667</v>
+      </c>
+      <c r="B552" t="s">
+        <v>12</v>
+      </c>
+      <c r="C552" t="s">
+        <v>13</v>
+      </c>
+      <c r="D552" t="s">
+        <v>557</v>
+      </c>
+      <c r="E552">
+        <v>200</v>
+      </c>
+      <c r="F552" t="s">
+        <v>30</v>
+      </c>
+      <c r="G552" t="s">
+        <v>177</v>
+      </c>
+      <c r="H552" t="s">
+        <v>400</v>
+      </c>
+      <c r="I552" t="s">
+        <v>79</v>
+      </c>
+      <c r="J552" t="s">
+        <v>37</v>
+      </c>
+      <c r="K552" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>668</v>
+      </c>
+      <c r="B553" t="s">
+        <v>12</v>
+      </c>
+      <c r="C553" t="s">
+        <v>13</v>
+      </c>
+      <c r="D553" t="s">
+        <v>396</v>
+      </c>
+      <c r="E553">
+        <v>200</v>
+      </c>
+      <c r="F553" t="s">
+        <v>30</v>
+      </c>
+      <c r="G553" t="s">
+        <v>177</v>
+      </c>
+      <c r="H553" t="s">
+        <v>400</v>
+      </c>
+      <c r="I553" t="s">
+        <v>16</v>
+      </c>
+      <c r="J553" t="s">
+        <v>39</v>
+      </c>
+      <c r="K553" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>669</v>
+      </c>
+      <c r="B554" t="s">
+        <v>12</v>
+      </c>
+      <c r="C554" t="s">
+        <v>13</v>
+      </c>
+      <c r="D554" t="s">
+        <v>557</v>
+      </c>
+      <c r="E554">
+        <v>200</v>
+      </c>
+      <c r="F554" t="s">
+        <v>30</v>
+      </c>
+      <c r="G554" t="s">
+        <v>177</v>
+      </c>
+      <c r="H554" t="s">
+        <v>400</v>
+      </c>
+      <c r="I554" t="s">
+        <v>79</v>
+      </c>
+      <c r="J554" t="s">
+        <v>37</v>
+      </c>
+      <c r="K554" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>670</v>
+      </c>
+      <c r="B555" t="s">
+        <v>12</v>
+      </c>
+      <c r="C555" t="s">
+        <v>13</v>
+      </c>
+      <c r="D555" t="s">
+        <v>396</v>
+      </c>
+      <c r="E555">
+        <v>200</v>
+      </c>
+      <c r="F555" t="s">
+        <v>30</v>
+      </c>
+      <c r="G555" t="s">
+        <v>177</v>
+      </c>
+      <c r="H555" t="s">
+        <v>400</v>
+      </c>
+      <c r="I555" t="s">
+        <v>16</v>
+      </c>
+      <c r="J555" t="s">
+        <v>39</v>
+      </c>
+      <c r="K555" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>671</v>
+      </c>
+      <c r="B556" t="s">
+        <v>12</v>
+      </c>
+      <c r="C556" t="s">
+        <v>13</v>
+      </c>
+      <c r="D556" t="s">
+        <v>557</v>
+      </c>
+      <c r="E556">
+        <v>200</v>
+      </c>
+      <c r="F556" t="s">
+        <v>30</v>
+      </c>
+      <c r="G556" t="s">
+        <v>177</v>
+      </c>
+      <c r="H556" t="s">
+        <v>400</v>
+      </c>
+      <c r="I556" t="s">
+        <v>79</v>
+      </c>
+      <c r="J556" t="s">
+        <v>37</v>
+      </c>
+      <c r="K556" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>672</v>
+      </c>
+      <c r="B557" t="s">
+        <v>12</v>
+      </c>
+      <c r="C557" t="s">
+        <v>13</v>
+      </c>
+      <c r="D557" t="s">
+        <v>396</v>
+      </c>
+      <c r="E557">
+        <v>200</v>
+      </c>
+      <c r="F557" t="s">
+        <v>30</v>
+      </c>
+      <c r="G557" t="s">
+        <v>177</v>
+      </c>
+      <c r="H557" t="s">
+        <v>400</v>
+      </c>
+      <c r="I557" t="s">
+        <v>16</v>
+      </c>
+      <c r="J557" t="s">
+        <v>39</v>
+      </c>
+      <c r="K557" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>673</v>
+      </c>
+      <c r="B558" t="s">
+        <v>12</v>
+      </c>
+      <c r="C558" t="s">
+        <v>13</v>
+      </c>
+      <c r="D558" t="s">
+        <v>376</v>
+      </c>
+      <c r="E558">
+        <v>404</v>
+      </c>
+      <c r="F558" t="s">
+        <v>15</v>
+      </c>
+      <c r="G558" t="s">
+        <v>16</v>
+      </c>
+      <c r="H558" t="s">
+        <v>16</v>
+      </c>
+      <c r="I558" t="s">
+        <v>79</v>
+      </c>
+      <c r="J558" t="s">
+        <v>377</v>
+      </c>
+      <c r="K558" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>674</v>
+      </c>
+      <c r="B559" t="s">
+        <v>12</v>
+      </c>
+      <c r="C559" t="s">
+        <v>13</v>
+      </c>
+      <c r="D559" t="s">
+        <v>379</v>
+      </c>
+      <c r="E559">
+        <v>404</v>
+      </c>
+      <c r="F559" t="s">
+        <v>15</v>
+      </c>
+      <c r="G559" t="s">
+        <v>16</v>
+      </c>
+      <c r="H559" t="s">
+        <v>16</v>
+      </c>
+      <c r="I559" t="s">
+        <v>16</v>
+      </c>
+      <c r="J559" t="s">
+        <v>380</v>
+      </c>
+      <c r="K559" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>675</v>
+      </c>
+      <c r="B560" t="s">
+        <v>12</v>
+      </c>
+      <c r="C560" t="s">
+        <v>13</v>
+      </c>
+      <c r="D560" t="s">
+        <v>557</v>
+      </c>
+      <c r="E560">
+        <v>200</v>
+      </c>
+      <c r="F560" t="s">
+        <v>30</v>
+      </c>
+      <c r="G560" t="s">
+        <v>177</v>
+      </c>
+      <c r="H560" t="s">
+        <v>400</v>
+      </c>
+      <c r="I560" t="s">
+        <v>79</v>
+      </c>
+      <c r="J560" t="s">
+        <v>37</v>
+      </c>
+      <c r="K560" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>676</v>
+      </c>
+      <c r="B561" t="s">
+        <v>12</v>
+      </c>
+      <c r="C561" t="s">
+        <v>13</v>
+      </c>
+      <c r="D561" t="s">
+        <v>396</v>
+      </c>
+      <c r="E561">
+        <v>200</v>
+      </c>
+      <c r="F561" t="s">
+        <v>30</v>
+      </c>
+      <c r="G561" t="s">
+        <v>177</v>
+      </c>
+      <c r="H561" t="s">
+        <v>400</v>
+      </c>
+      <c r="I561" t="s">
+        <v>16</v>
+      </c>
+      <c r="J561" t="s">
+        <v>39</v>
+      </c>
+      <c r="K561" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>677</v>
+      </c>
+      <c r="B562" t="s">
+        <v>12</v>
+      </c>
+      <c r="C562" t="s">
+        <v>13</v>
+      </c>
+      <c r="D562" t="s">
+        <v>557</v>
+      </c>
+      <c r="E562">
+        <v>200</v>
+      </c>
+      <c r="F562" t="s">
+        <v>30</v>
+      </c>
+      <c r="G562" t="s">
+        <v>177</v>
+      </c>
+      <c r="H562" t="s">
+        <v>400</v>
+      </c>
+      <c r="I562" t="s">
+        <v>79</v>
+      </c>
+      <c r="J562" t="s">
+        <v>37</v>
+      </c>
+      <c r="K562" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>678</v>
+      </c>
+      <c r="B563" t="s">
+        <v>12</v>
+      </c>
+      <c r="C563" t="s">
+        <v>13</v>
+      </c>
+      <c r="D563" t="s">
+        <v>396</v>
+      </c>
+      <c r="E563">
+        <v>200</v>
+      </c>
+      <c r="F563" t="s">
+        <v>30</v>
+      </c>
+      <c r="G563" t="s">
+        <v>177</v>
+      </c>
+      <c r="H563" t="s">
+        <v>400</v>
+      </c>
+      <c r="I563" t="s">
+        <v>16</v>
+      </c>
+      <c r="J563" t="s">
+        <v>39</v>
+      </c>
+      <c r="K563" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>679</v>
+      </c>
+      <c r="B564" t="s">
+        <v>12</v>
+      </c>
+      <c r="C564" t="s">
+        <v>13</v>
+      </c>
+      <c r="D564" t="s">
+        <v>557</v>
+      </c>
+      <c r="E564">
+        <v>200</v>
+      </c>
+      <c r="F564" t="s">
+        <v>30</v>
+      </c>
+      <c r="G564" t="s">
+        <v>177</v>
+      </c>
+      <c r="H564" t="s">
+        <v>400</v>
+      </c>
+      <c r="I564" t="s">
+        <v>79</v>
+      </c>
+      <c r="J564" t="s">
+        <v>37</v>
+      </c>
+      <c r="K564" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>680</v>
+      </c>
+      <c r="B565" t="s">
+        <v>12</v>
+      </c>
+      <c r="C565" t="s">
+        <v>13</v>
+      </c>
+      <c r="D565" t="s">
+        <v>396</v>
+      </c>
+      <c r="E565">
+        <v>200</v>
+      </c>
+      <c r="F565" t="s">
+        <v>30</v>
+      </c>
+      <c r="G565" t="s">
+        <v>177</v>
+      </c>
+      <c r="H565" t="s">
+        <v>400</v>
+      </c>
+      <c r="I565" t="s">
+        <v>16</v>
+      </c>
+      <c r="J565" t="s">
+        <v>39</v>
+      </c>
+      <c r="K565" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>681</v>
+      </c>
+      <c r="B566" t="s">
+        <v>12</v>
+      </c>
+      <c r="C566" t="s">
+        <v>13</v>
+      </c>
+      <c r="D566" t="s">
+        <v>557</v>
+      </c>
+      <c r="E566">
+        <v>200</v>
+      </c>
+      <c r="F566" t="s">
+        <v>30</v>
+      </c>
+      <c r="G566" t="s">
+        <v>177</v>
+      </c>
+      <c r="H566" t="s">
+        <v>400</v>
+      </c>
+      <c r="I566" t="s">
+        <v>79</v>
+      </c>
+      <c r="J566" t="s">
+        <v>37</v>
+      </c>
+      <c r="K566" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>682</v>
+      </c>
+      <c r="B567" t="s">
+        <v>12</v>
+      </c>
+      <c r="C567" t="s">
+        <v>13</v>
+      </c>
+      <c r="D567" t="s">
+        <v>396</v>
+      </c>
+      <c r="E567">
+        <v>200</v>
+      </c>
+      <c r="F567" t="s">
+        <v>30</v>
+      </c>
+      <c r="G567" t="s">
+        <v>177</v>
+      </c>
+      <c r="H567" t="s">
+        <v>400</v>
+      </c>
+      <c r="I567" t="s">
+        <v>16</v>
+      </c>
+      <c r="J567" t="s">
+        <v>39</v>
+      </c>
+      <c r="K567" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>683</v>
+      </c>
+      <c r="B568" t="s">
+        <v>12</v>
+      </c>
+      <c r="C568" t="s">
+        <v>13</v>
+      </c>
+      <c r="D568" t="s">
+        <v>376</v>
+      </c>
+      <c r="E568">
+        <v>404</v>
+      </c>
+      <c r="F568" t="s">
+        <v>15</v>
+      </c>
+      <c r="G568" t="s">
+        <v>16</v>
+      </c>
+      <c r="H568" t="s">
+        <v>16</v>
+      </c>
+      <c r="I568" t="s">
+        <v>79</v>
+      </c>
+      <c r="J568" t="s">
+        <v>377</v>
+      </c>
+      <c r="K568" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>684</v>
+      </c>
+      <c r="B569" t="s">
+        <v>12</v>
+      </c>
+      <c r="C569" t="s">
+        <v>13</v>
+      </c>
+      <c r="D569" t="s">
+        <v>379</v>
+      </c>
+      <c r="E569">
+        <v>404</v>
+      </c>
+      <c r="F569" t="s">
+        <v>15</v>
+      </c>
+      <c r="G569" t="s">
+        <v>16</v>
+      </c>
+      <c r="H569" t="s">
+        <v>16</v>
+      </c>
+      <c r="I569" t="s">
+        <v>16</v>
+      </c>
+      <c r="J569" t="s">
+        <v>380</v>
+      </c>
+      <c r="K569" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>685</v>
+      </c>
+      <c r="B570" t="s">
+        <v>12</v>
+      </c>
+      <c r="C570" t="s">
+        <v>13</v>
+      </c>
+      <c r="D570" t="s">
+        <v>557</v>
+      </c>
+      <c r="E570">
+        <v>200</v>
+      </c>
+      <c r="F570" t="s">
+        <v>30</v>
+      </c>
+      <c r="G570" t="s">
+        <v>177</v>
+      </c>
+      <c r="H570" t="s">
+        <v>400</v>
+      </c>
+      <c r="I570" t="s">
+        <v>79</v>
+      </c>
+      <c r="J570" t="s">
+        <v>37</v>
+      </c>
+      <c r="K570" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>686</v>
+      </c>
+      <c r="B571" t="s">
+        <v>12</v>
+      </c>
+      <c r="C571" t="s">
+        <v>13</v>
+      </c>
+      <c r="D571" t="s">
+        <v>396</v>
+      </c>
+      <c r="E571">
+        <v>200</v>
+      </c>
+      <c r="F571" t="s">
+        <v>30</v>
+      </c>
+      <c r="G571" t="s">
+        <v>177</v>
+      </c>
+      <c r="H571" t="s">
+        <v>400</v>
+      </c>
+      <c r="I571" t="s">
+        <v>16</v>
+      </c>
+      <c r="J571" t="s">
+        <v>39</v>
+      </c>
+      <c r="K571" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>687</v>
+      </c>
+      <c r="B572" t="s">
+        <v>12</v>
+      </c>
+      <c r="C572" t="s">
+        <v>13</v>
+      </c>
+      <c r="D572" t="s">
+        <v>557</v>
+      </c>
+      <c r="E572">
+        <v>200</v>
+      </c>
+      <c r="F572" t="s">
+        <v>30</v>
+      </c>
+      <c r="G572" t="s">
+        <v>177</v>
+      </c>
+      <c r="H572" t="s">
+        <v>400</v>
+      </c>
+      <c r="I572" t="s">
+        <v>79</v>
+      </c>
+      <c r="J572" t="s">
+        <v>37</v>
+      </c>
+      <c r="K572" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>688</v>
+      </c>
+      <c r="B573" t="s">
+        <v>12</v>
+      </c>
+      <c r="C573" t="s">
+        <v>13</v>
+      </c>
+      <c r="D573" t="s">
+        <v>396</v>
+      </c>
+      <c r="E573">
+        <v>200</v>
+      </c>
+      <c r="F573" t="s">
+        <v>30</v>
+      </c>
+      <c r="G573" t="s">
+        <v>177</v>
+      </c>
+      <c r="H573" t="s">
+        <v>400</v>
+      </c>
+      <c r="I573" t="s">
+        <v>16</v>
+      </c>
+      <c r="J573" t="s">
+        <v>39</v>
+      </c>
+      <c r="K573" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>689</v>
+      </c>
+      <c r="B574" t="s">
+        <v>12</v>
+      </c>
+      <c r="C574" t="s">
+        <v>13</v>
+      </c>
+      <c r="D574" t="s">
+        <v>557</v>
+      </c>
+      <c r="E574">
+        <v>200</v>
+      </c>
+      <c r="F574" t="s">
+        <v>30</v>
+      </c>
+      <c r="G574" t="s">
+        <v>177</v>
+      </c>
+      <c r="H574" t="s">
+        <v>400</v>
+      </c>
+      <c r="I574" t="s">
+        <v>79</v>
+      </c>
+      <c r="J574" t="s">
+        <v>37</v>
+      </c>
+      <c r="K574" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>690</v>
+      </c>
+      <c r="B575" t="s">
+        <v>12</v>
+      </c>
+      <c r="C575" t="s">
+        <v>13</v>
+      </c>
+      <c r="D575" t="s">
+        <v>396</v>
+      </c>
+      <c r="E575">
+        <v>200</v>
+      </c>
+      <c r="F575" t="s">
+        <v>30</v>
+      </c>
+      <c r="G575" t="s">
+        <v>177</v>
+      </c>
+      <c r="H575" t="s">
+        <v>400</v>
+      </c>
+      <c r="I575" t="s">
+        <v>16</v>
+      </c>
+      <c r="J575" t="s">
+        <v>39</v>
+      </c>
+      <c r="K575" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>691</v>
+      </c>
+      <c r="B576" t="s">
+        <v>12</v>
+      </c>
+      <c r="C576" t="s">
+        <v>13</v>
+      </c>
+      <c r="D576" t="s">
+        <v>557</v>
+      </c>
+      <c r="E576">
+        <v>200</v>
+      </c>
+      <c r="F576" t="s">
+        <v>30</v>
+      </c>
+      <c r="G576" t="s">
+        <v>177</v>
+      </c>
+      <c r="H576" t="s">
+        <v>400</v>
+      </c>
+      <c r="I576" t="s">
+        <v>79</v>
+      </c>
+      <c r="J576" t="s">
+        <v>37</v>
+      </c>
+      <c r="K576" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>692</v>
+      </c>
+      <c r="B577" t="s">
+        <v>12</v>
+      </c>
+      <c r="C577" t="s">
+        <v>13</v>
+      </c>
+      <c r="D577" t="s">
+        <v>396</v>
+      </c>
+      <c r="E577">
+        <v>200</v>
+      </c>
+      <c r="F577" t="s">
+        <v>30</v>
+      </c>
+      <c r="G577" t="s">
+        <v>177</v>
+      </c>
+      <c r="H577" t="s">
+        <v>400</v>
+      </c>
+      <c r="I577" t="s">
+        <v>16</v>
+      </c>
+      <c r="J577" t="s">
+        <v>39</v>
+      </c>
+      <c r="K577" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>693</v>
+      </c>
+      <c r="B578" t="s">
+        <v>12</v>
+      </c>
+      <c r="C578" t="s">
+        <v>13</v>
+      </c>
+      <c r="D578" t="s">
+        <v>635</v>
+      </c>
+      <c r="E578">
+        <v>403</v>
+      </c>
+      <c r="F578" t="s">
+        <v>15</v>
+      </c>
+      <c r="G578" t="s">
+        <v>177</v>
+      </c>
+      <c r="H578" t="s">
+        <v>400</v>
+      </c>
+      <c r="I578" t="s">
+        <v>45</v>
+      </c>
+      <c r="J578" t="s">
+        <v>262</v>
+      </c>
+      <c r="K578" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>694</v>
+      </c>
+      <c r="B579" t="s">
+        <v>12</v>
+      </c>
+      <c r="C579" t="s">
+        <v>13</v>
+      </c>
+      <c r="D579" t="s">
+        <v>396</v>
+      </c>
+      <c r="E579">
+        <v>200</v>
+      </c>
+      <c r="F579" t="s">
+        <v>30</v>
+      </c>
+      <c r="G579" t="s">
+        <v>177</v>
+      </c>
+      <c r="H579" t="s">
+        <v>400</v>
+      </c>
+      <c r="I579" t="s">
+        <v>16</v>
+      </c>
+      <c r="J579" t="s">
+        <v>39</v>
+      </c>
+      <c r="K579" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>695</v>
+      </c>
+      <c r="B580" t="s">
+        <v>12</v>
+      </c>
+      <c r="C580" t="s">
+        <v>13</v>
+      </c>
+      <c r="D580" t="s">
+        <v>635</v>
+      </c>
+      <c r="E580">
+        <v>403</v>
+      </c>
+      <c r="F580" t="s">
+        <v>15</v>
+      </c>
+      <c r="G580" t="s">
+        <v>177</v>
+      </c>
+      <c r="H580" t="s">
+        <v>400</v>
+      </c>
+      <c r="I580" t="s">
+        <v>45</v>
+      </c>
+      <c r="J580" t="s">
+        <v>262</v>
+      </c>
+      <c r="K580" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>696</v>
+      </c>
+      <c r="B581" t="s">
+        <v>12</v>
+      </c>
+      <c r="C581" t="s">
+        <v>13</v>
+      </c>
+      <c r="D581" t="s">
+        <v>396</v>
+      </c>
+      <c r="E581">
+        <v>200</v>
+      </c>
+      <c r="F581" t="s">
+        <v>30</v>
+      </c>
+      <c r="G581" t="s">
+        <v>177</v>
+      </c>
+      <c r="H581" t="s">
+        <v>400</v>
+      </c>
+      <c r="I581" t="s">
+        <v>16</v>
+      </c>
+      <c r="J581" t="s">
+        <v>39</v>
+      </c>
+      <c r="K581" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>697</v>
+      </c>
+      <c r="B582" t="s">
+        <v>12</v>
+      </c>
+      <c r="C582" t="s">
+        <v>13</v>
+      </c>
+      <c r="D582" t="s">
+        <v>557</v>
+      </c>
+      <c r="E582">
+        <v>200</v>
+      </c>
+      <c r="F582" t="s">
+        <v>30</v>
+      </c>
+      <c r="G582" t="s">
+        <v>177</v>
+      </c>
+      <c r="H582" t="s">
+        <v>400</v>
+      </c>
+      <c r="I582" t="s">
+        <v>79</v>
+      </c>
+      <c r="J582" t="s">
+        <v>37</v>
+      </c>
+      <c r="K582" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>698</v>
+      </c>
+      <c r="B583" t="s">
+        <v>12</v>
+      </c>
+      <c r="C583" t="s">
+        <v>13</v>
+      </c>
+      <c r="D583" t="s">
+        <v>396</v>
+      </c>
+      <c r="E583">
+        <v>200</v>
+      </c>
+      <c r="F583" t="s">
+        <v>30</v>
+      </c>
+      <c r="G583" t="s">
+        <v>177</v>
+      </c>
+      <c r="H583" t="s">
+        <v>400</v>
+      </c>
+      <c r="I583" t="s">
+        <v>16</v>
+      </c>
+      <c r="J583" t="s">
+        <v>39</v>
+      </c>
+      <c r="K583" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>699</v>
+      </c>
+      <c r="B584" t="s">
+        <v>12</v>
+      </c>
+      <c r="C584" t="s">
+        <v>13</v>
+      </c>
+      <c r="D584" t="s">
+        <v>557</v>
+      </c>
+      <c r="E584">
+        <v>200</v>
+      </c>
+      <c r="F584" t="s">
+        <v>30</v>
+      </c>
+      <c r="G584" t="s">
+        <v>177</v>
+      </c>
+      <c r="H584" t="s">
+        <v>400</v>
+      </c>
+      <c r="I584" t="s">
+        <v>79</v>
+      </c>
+      <c r="J584" t="s">
+        <v>37</v>
+      </c>
+      <c r="K584" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>700</v>
+      </c>
+      <c r="B585" t="s">
+        <v>12</v>
+      </c>
+      <c r="C585" t="s">
+        <v>13</v>
+      </c>
+      <c r="D585" t="s">
+        <v>396</v>
+      </c>
+      <c r="E585">
+        <v>200</v>
+      </c>
+      <c r="F585" t="s">
+        <v>30</v>
+      </c>
+      <c r="G585" t="s">
+        <v>177</v>
+      </c>
+      <c r="H585" t="s">
+        <v>400</v>
+      </c>
+      <c r="I585" t="s">
+        <v>16</v>
+      </c>
+      <c r="J585" t="s">
+        <v>39</v>
+      </c>
+      <c r="K585" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>701</v>
+      </c>
+      <c r="B586" t="s">
+        <v>12</v>
+      </c>
+      <c r="C586" t="s">
+        <v>13</v>
+      </c>
+      <c r="D586" t="s">
+        <v>557</v>
+      </c>
+      <c r="E586">
+        <v>200</v>
+      </c>
+      <c r="F586" t="s">
+        <v>30</v>
+      </c>
+      <c r="G586" t="s">
+        <v>177</v>
+      </c>
+      <c r="H586" t="s">
+        <v>400</v>
+      </c>
+      <c r="I586" t="s">
+        <v>79</v>
+      </c>
+      <c r="J586" t="s">
+        <v>37</v>
+      </c>
+      <c r="K586" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>702</v>
+      </c>
+      <c r="B587" t="s">
+        <v>12</v>
+      </c>
+      <c r="C587" t="s">
+        <v>13</v>
+      </c>
+      <c r="D587" t="s">
+        <v>396</v>
+      </c>
+      <c r="E587">
+        <v>200</v>
+      </c>
+      <c r="F587" t="s">
+        <v>30</v>
+      </c>
+      <c r="G587" t="s">
+        <v>177</v>
+      </c>
+      <c r="H587" t="s">
+        <v>400</v>
+      </c>
+      <c r="I587" t="s">
+        <v>16</v>
+      </c>
+      <c r="J587" t="s">
+        <v>39</v>
+      </c>
+      <c r="K587" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>703</v>
+      </c>
+      <c r="B588" t="s">
+        <v>12</v>
+      </c>
+      <c r="C588" t="s">
+        <v>13</v>
+      </c>
+      <c r="D588" t="s">
+        <v>557</v>
+      </c>
+      <c r="E588">
+        <v>200</v>
+      </c>
+      <c r="F588" t="s">
+        <v>30</v>
+      </c>
+      <c r="G588" t="s">
+        <v>177</v>
+      </c>
+      <c r="H588" t="s">
+        <v>400</v>
+      </c>
+      <c r="I588" t="s">
+        <v>79</v>
+      </c>
+      <c r="J588" t="s">
+        <v>37</v>
+      </c>
+      <c r="K588" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>704</v>
+      </c>
+      <c r="B589" t="s">
+        <v>12</v>
+      </c>
+      <c r="C589" t="s">
+        <v>13</v>
+      </c>
+      <c r="D589" t="s">
+        <v>396</v>
+      </c>
+      <c r="E589">
+        <v>200</v>
+      </c>
+      <c r="F589" t="s">
+        <v>30</v>
+      </c>
+      <c r="G589" t="s">
+        <v>177</v>
+      </c>
+      <c r="H589" t="s">
+        <v>400</v>
+      </c>
+      <c r="I589" t="s">
+        <v>16</v>
+      </c>
+      <c r="J589" t="s">
+        <v>39</v>
+      </c>
+      <c r="K589" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>705</v>
+      </c>
+      <c r="B590" t="s">
+        <v>12</v>
+      </c>
+      <c r="C590" t="s">
+        <v>13</v>
+      </c>
+      <c r="D590" t="s">
+        <v>557</v>
+      </c>
+      <c r="E590">
+        <v>200</v>
+      </c>
+      <c r="F590" t="s">
+        <v>30</v>
+      </c>
+      <c r="G590" t="s">
+        <v>177</v>
+      </c>
+      <c r="H590" t="s">
+        <v>400</v>
+      </c>
+      <c r="I590" t="s">
+        <v>79</v>
+      </c>
+      <c r="J590" t="s">
+        <v>37</v>
+      </c>
+      <c r="K590" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>706</v>
+      </c>
+      <c r="B591" t="s">
+        <v>12</v>
+      </c>
+      <c r="C591" t="s">
+        <v>13</v>
+      </c>
+      <c r="D591" t="s">
+        <v>396</v>
+      </c>
+      <c r="E591">
+        <v>200</v>
+      </c>
+      <c r="F591" t="s">
+        <v>30</v>
+      </c>
+      <c r="G591" t="s">
+        <v>177</v>
+      </c>
+      <c r="H591" t="s">
+        <v>400</v>
+      </c>
+      <c r="I591" t="s">
+        <v>16</v>
+      </c>
+      <c r="J591" t="s">
+        <v>39</v>
+      </c>
+      <c r="K591" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>707</v>
+      </c>
+      <c r="B592" t="s">
+        <v>12</v>
+      </c>
+      <c r="C592" t="s">
+        <v>13</v>
+      </c>
+      <c r="D592" t="s">
+        <v>376</v>
+      </c>
+      <c r="E592">
+        <v>404</v>
+      </c>
+      <c r="F592" t="s">
+        <v>15</v>
+      </c>
+      <c r="G592" t="s">
+        <v>16</v>
+      </c>
+      <c r="H592" t="s">
+        <v>16</v>
+      </c>
+      <c r="I592" t="s">
+        <v>79</v>
+      </c>
+      <c r="J592" t="s">
+        <v>377</v>
+      </c>
+      <c r="K592" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>708</v>
+      </c>
+      <c r="B593" t="s">
+        <v>12</v>
+      </c>
+      <c r="C593" t="s">
+        <v>13</v>
+      </c>
+      <c r="D593" t="s">
+        <v>379</v>
+      </c>
+      <c r="E593">
+        <v>404</v>
+      </c>
+      <c r="F593" t="s">
+        <v>15</v>
+      </c>
+      <c r="G593" t="s">
+        <v>16</v>
+      </c>
+      <c r="H593" t="s">
+        <v>16</v>
+      </c>
+      <c r="I593" t="s">
+        <v>16</v>
+      </c>
+      <c r="J593" t="s">
+        <v>380</v>
+      </c>
+      <c r="K593" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>709</v>
+      </c>
+      <c r="B594" t="s">
+        <v>12</v>
+      </c>
+      <c r="C594" t="s">
+        <v>13</v>
+      </c>
+      <c r="D594" t="s">
+        <v>376</v>
+      </c>
+      <c r="E594">
+        <v>404</v>
+      </c>
+      <c r="F594" t="s">
+        <v>15</v>
+      </c>
+      <c r="G594" t="s">
+        <v>16</v>
+      </c>
+      <c r="H594" t="s">
+        <v>16</v>
+      </c>
+      <c r="I594" t="s">
+        <v>79</v>
+      </c>
+      <c r="J594" t="s">
+        <v>377</v>
+      </c>
+      <c r="K594" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>710</v>
+      </c>
+      <c r="B595" t="s">
+        <v>12</v>
+      </c>
+      <c r="C595" t="s">
+        <v>13</v>
+      </c>
+      <c r="D595" t="s">
+        <v>379</v>
+      </c>
+      <c r="E595">
+        <v>404</v>
+      </c>
+      <c r="F595" t="s">
+        <v>15</v>
+      </c>
+      <c r="G595" t="s">
+        <v>16</v>
+      </c>
+      <c r="H595" t="s">
+        <v>16</v>
+      </c>
+      <c r="I595" t="s">
+        <v>16</v>
+      </c>
+      <c r="J595" t="s">
+        <v>380</v>
+      </c>
+      <c r="K595" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>711</v>
+      </c>
+      <c r="B596" t="s">
+        <v>12</v>
+      </c>
+      <c r="C596" t="s">
+        <v>13</v>
+      </c>
+      <c r="D596" t="s">
+        <v>376</v>
+      </c>
+      <c r="E596">
+        <v>404</v>
+      </c>
+      <c r="F596" t="s">
+        <v>15</v>
+      </c>
+      <c r="G596" t="s">
+        <v>16</v>
+      </c>
+      <c r="H596" t="s">
+        <v>16</v>
+      </c>
+      <c r="I596" t="s">
+        <v>79</v>
+      </c>
+      <c r="J596" t="s">
+        <v>377</v>
+      </c>
+      <c r="K596" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>712</v>
+      </c>
+      <c r="B597" t="s">
+        <v>12</v>
+      </c>
+      <c r="C597" t="s">
+        <v>13</v>
+      </c>
+      <c r="D597" t="s">
+        <v>379</v>
+      </c>
+      <c r="E597">
+        <v>404</v>
+      </c>
+      <c r="F597" t="s">
+        <v>15</v>
+      </c>
+      <c r="G597" t="s">
+        <v>16</v>
+      </c>
+      <c r="H597" t="s">
+        <v>16</v>
+      </c>
+      <c r="I597" t="s">
+        <v>16</v>
+      </c>
+      <c r="J597" t="s">
+        <v>380</v>
+      </c>
+      <c r="K597" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>713</v>
+      </c>
+      <c r="B598" t="s">
+        <v>12</v>
+      </c>
+      <c r="C598" t="s">
+        <v>13</v>
+      </c>
+      <c r="D598" t="s">
+        <v>376</v>
+      </c>
+      <c r="E598">
+        <v>404</v>
+      </c>
+      <c r="F598" t="s">
+        <v>15</v>
+      </c>
+      <c r="G598" t="s">
+        <v>16</v>
+      </c>
+      <c r="H598" t="s">
+        <v>16</v>
+      </c>
+      <c r="I598" t="s">
+        <v>79</v>
+      </c>
+      <c r="J598" t="s">
+        <v>377</v>
+      </c>
+      <c r="K598" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>714</v>
+      </c>
+      <c r="B599" t="s">
+        <v>12</v>
+      </c>
+      <c r="C599" t="s">
+        <v>13</v>
+      </c>
+      <c r="D599" t="s">
+        <v>379</v>
+      </c>
+      <c r="E599">
+        <v>404</v>
+      </c>
+      <c r="F599" t="s">
+        <v>15</v>
+      </c>
+      <c r="G599" t="s">
+        <v>16</v>
+      </c>
+      <c r="H599" t="s">
+        <v>16</v>
+      </c>
+      <c r="I599" t="s">
+        <v>16</v>
+      </c>
+      <c r="J599" t="s">
+        <v>380</v>
+      </c>
+      <c r="K599" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>715</v>
+      </c>
+      <c r="B600" t="s">
+        <v>12</v>
+      </c>
+      <c r="C600" t="s">
+        <v>13</v>
+      </c>
+      <c r="D600" t="s">
+        <v>376</v>
+      </c>
+      <c r="E600">
+        <v>404</v>
+      </c>
+      <c r="F600" t="s">
+        <v>15</v>
+      </c>
+      <c r="G600" t="s">
+        <v>16</v>
+      </c>
+      <c r="H600" t="s">
+        <v>16</v>
+      </c>
+      <c r="I600" t="s">
+        <v>79</v>
+      </c>
+      <c r="J600" t="s">
+        <v>377</v>
+      </c>
+      <c r="K600" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>716</v>
+      </c>
+      <c r="B601" t="s">
+        <v>12</v>
+      </c>
+      <c r="C601" t="s">
+        <v>13</v>
+      </c>
+      <c r="D601" t="s">
+        <v>379</v>
+      </c>
+      <c r="E601">
+        <v>404</v>
+      </c>
+      <c r="F601" t="s">
+        <v>15</v>
+      </c>
+      <c r="G601" t="s">
+        <v>16</v>
+      </c>
+      <c r="H601" t="s">
+        <v>16</v>
+      </c>
+      <c r="I601" t="s">
+        <v>16</v>
+      </c>
+      <c r="J601" t="s">
+        <v>380</v>
+      </c>
+      <c r="K601" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>717</v>
+      </c>
+      <c r="B602" t="s">
+        <v>12</v>
+      </c>
+      <c r="C602" t="s">
+        <v>28</v>
+      </c>
+      <c r="D602" t="s">
+        <v>29</v>
+      </c>
+      <c r="E602">
+        <v>200</v>
+      </c>
+      <c r="F602" t="s">
+        <v>30</v>
+      </c>
+      <c r="G602" t="s">
+        <v>718</v>
+      </c>
+      <c r="H602" t="s">
+        <v>528</v>
+      </c>
+      <c r="I602" t="s">
+        <v>79</v>
+      </c>
+      <c r="J602" t="s">
+        <v>34</v>
+      </c>
+      <c r="K602" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>719</v>
+      </c>
+      <c r="B603" t="s">
+        <v>12</v>
+      </c>
+      <c r="C603" t="s">
+        <v>13</v>
+      </c>
+      <c r="D603" t="s">
+        <v>376</v>
+      </c>
+      <c r="E603">
+        <v>200</v>
+      </c>
+      <c r="F603" t="s">
+        <v>30</v>
+      </c>
+      <c r="G603" t="s">
+        <v>718</v>
+      </c>
+      <c r="H603" t="s">
+        <v>528</v>
+      </c>
+      <c r="I603" t="s">
+        <v>79</v>
+      </c>
+      <c r="J603" t="s">
+        <v>37</v>
+      </c>
+      <c r="K603" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>720</v>
+      </c>
+      <c r="B604" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" t="s">
+        <v>13</v>
+      </c>
+      <c r="D604" t="s">
+        <v>379</v>
+      </c>
+      <c r="E604">
+        <v>200</v>
+      </c>
+      <c r="F604" t="s">
+        <v>30</v>
+      </c>
+      <c r="G604" t="s">
+        <v>718</v>
+      </c>
+      <c r="H604" t="s">
+        <v>528</v>
+      </c>
+      <c r="I604" t="s">
+        <v>16</v>
+      </c>
+      <c r="J604" t="s">
+        <v>39</v>
+      </c>
+      <c r="K604" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>721</v>
+      </c>
+      <c r="B605" t="s">
+        <v>12</v>
+      </c>
+      <c r="C605" t="s">
+        <v>13</v>
+      </c>
+      <c r="D605" t="s">
+        <v>376</v>
+      </c>
+      <c r="E605">
+        <v>200</v>
+      </c>
+      <c r="F605" t="s">
+        <v>30</v>
+      </c>
+      <c r="G605" t="s">
+        <v>718</v>
+      </c>
+      <c r="H605" t="s">
+        <v>528</v>
+      </c>
+      <c r="I605" t="s">
+        <v>79</v>
+      </c>
+      <c r="J605" t="s">
+        <v>37</v>
+      </c>
+      <c r="K605" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>722</v>
+      </c>
+      <c r="B606" t="s">
+        <v>12</v>
+      </c>
+      <c r="C606" t="s">
+        <v>13</v>
+      </c>
+      <c r="D606" t="s">
+        <v>379</v>
+      </c>
+      <c r="E606">
+        <v>200</v>
+      </c>
+      <c r="F606" t="s">
+        <v>30</v>
+      </c>
+      <c r="G606" t="s">
+        <v>718</v>
+      </c>
+      <c r="H606" t="s">
+        <v>528</v>
+      </c>
+      <c r="I606" t="s">
+        <v>16</v>
+      </c>
+      <c r="J606" t="s">
+        <v>39</v>
+      </c>
+      <c r="K606" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>723</v>
+      </c>
+      <c r="B607" t="s">
+        <v>12</v>
+      </c>
+      <c r="C607" t="s">
+        <v>13</v>
+      </c>
+      <c r="D607" t="s">
+        <v>376</v>
+      </c>
+      <c r="E607">
+        <v>200</v>
+      </c>
+      <c r="F607" t="s">
+        <v>30</v>
+      </c>
+      <c r="G607" t="s">
+        <v>718</v>
+      </c>
+      <c r="H607" t="s">
+        <v>528</v>
+      </c>
+      <c r="I607" t="s">
+        <v>79</v>
+      </c>
+      <c r="J607" t="s">
+        <v>37</v>
+      </c>
+      <c r="K607" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>724</v>
+      </c>
+      <c r="B608" t="s">
+        <v>12</v>
+      </c>
+      <c r="C608" t="s">
+        <v>13</v>
+      </c>
+      <c r="D608" t="s">
+        <v>379</v>
+      </c>
+      <c r="E608">
+        <v>200</v>
+      </c>
+      <c r="F608" t="s">
+        <v>30</v>
+      </c>
+      <c r="G608" t="s">
+        <v>718</v>
+      </c>
+      <c r="H608" t="s">
+        <v>528</v>
+      </c>
+      <c r="I608" t="s">
+        <v>16</v>
+      </c>
+      <c r="J608" t="s">
+        <v>39</v>
+      </c>
+      <c r="K608" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>725</v>
+      </c>
+      <c r="B609" t="s">
+        <v>12</v>
+      </c>
+      <c r="C609" t="s">
+        <v>13</v>
+      </c>
+      <c r="D609" t="s">
+        <v>376</v>
+      </c>
+      <c r="E609">
+        <v>200</v>
+      </c>
+      <c r="F609" t="s">
+        <v>30</v>
+      </c>
+      <c r="G609" t="s">
+        <v>718</v>
+      </c>
+      <c r="H609" t="s">
+        <v>528</v>
+      </c>
+      <c r="I609" t="s">
+        <v>79</v>
+      </c>
+      <c r="J609" t="s">
+        <v>37</v>
+      </c>
+      <c r="K609" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>726</v>
+      </c>
+      <c r="B610" t="s">
+        <v>12</v>
+      </c>
+      <c r="C610" t="s">
+        <v>13</v>
+      </c>
+      <c r="D610" t="s">
+        <v>379</v>
+      </c>
+      <c r="E610">
+        <v>200</v>
+      </c>
+      <c r="F610" t="s">
+        <v>30</v>
+      </c>
+      <c r="G610" t="s">
+        <v>718</v>
+      </c>
+      <c r="H610" t="s">
+        <v>528</v>
+      </c>
+      <c r="I610" t="s">
+        <v>16</v>
+      </c>
+      <c r="J610" t="s">
+        <v>39</v>
+      </c>
+      <c r="K610" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>727</v>
+      </c>
+      <c r="B611" t="s">
+        <v>12</v>
+      </c>
+      <c r="C611" t="s">
+        <v>13</v>
+      </c>
+      <c r="D611" t="s">
+        <v>376</v>
+      </c>
+      <c r="E611">
+        <v>200</v>
+      </c>
+      <c r="F611" t="s">
+        <v>30</v>
+      </c>
+      <c r="G611" t="s">
+        <v>718</v>
+      </c>
+      <c r="H611" t="s">
+        <v>528</v>
+      </c>
+      <c r="I611" t="s">
+        <v>79</v>
+      </c>
+      <c r="J611" t="s">
+        <v>37</v>
+      </c>
+      <c r="K611" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>728</v>
+      </c>
+      <c r="B612" t="s">
+        <v>12</v>
+      </c>
+      <c r="C612" t="s">
+        <v>13</v>
+      </c>
+      <c r="D612" t="s">
+        <v>379</v>
+      </c>
+      <c r="E612">
+        <v>200</v>
+      </c>
+      <c r="F612" t="s">
+        <v>30</v>
+      </c>
+      <c r="G612" t="s">
+        <v>718</v>
+      </c>
+      <c r="H612" t="s">
+        <v>528</v>
+      </c>
+      <c r="I612" t="s">
+        <v>16</v>
+      </c>
+      <c r="J612" t="s">
+        <v>39</v>
+      </c>
+      <c r="K612" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>729</v>
+      </c>
+      <c r="B613" t="s">
+        <v>12</v>
+      </c>
+      <c r="C613" t="s">
+        <v>13</v>
+      </c>
+      <c r="D613" t="s">
+        <v>557</v>
+      </c>
+      <c r="E613">
+        <v>200</v>
+      </c>
+      <c r="F613" t="s">
+        <v>30</v>
+      </c>
+      <c r="G613" t="s">
+        <v>177</v>
+      </c>
+      <c r="H613" t="s">
+        <v>400</v>
+      </c>
+      <c r="I613" t="s">
+        <v>79</v>
+      </c>
+      <c r="J613" t="s">
+        <v>37</v>
+      </c>
+      <c r="K613" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>730</v>
+      </c>
+      <c r="B614" t="s">
+        <v>12</v>
+      </c>
+      <c r="C614" t="s">
+        <v>13</v>
+      </c>
+      <c r="D614" t="s">
+        <v>396</v>
+      </c>
+      <c r="E614">
+        <v>200</v>
+      </c>
+      <c r="F614" t="s">
+        <v>30</v>
+      </c>
+      <c r="G614" t="s">
+        <v>177</v>
+      </c>
+      <c r="H614" t="s">
+        <v>400</v>
+      </c>
+      <c r="I614" t="s">
+        <v>16</v>
+      </c>
+      <c r="J614" t="s">
+        <v>39</v>
+      </c>
+      <c r="K614" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>731</v>
+      </c>
+      <c r="B615" t="s">
+        <v>12</v>
+      </c>
+      <c r="C615" t="s">
+        <v>13</v>
+      </c>
+      <c r="D615" t="s">
+        <v>557</v>
+      </c>
+      <c r="E615">
+        <v>200</v>
+      </c>
+      <c r="F615" t="s">
+        <v>30</v>
+      </c>
+      <c r="G615" t="s">
+        <v>177</v>
+      </c>
+      <c r="H615" t="s">
+        <v>400</v>
+      </c>
+      <c r="I615" t="s">
+        <v>79</v>
+      </c>
+      <c r="J615" t="s">
+        <v>37</v>
+      </c>
+      <c r="K615" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>732</v>
+      </c>
+      <c r="B616" t="s">
+        <v>12</v>
+      </c>
+      <c r="C616" t="s">
+        <v>13</v>
+      </c>
+      <c r="D616" t="s">
+        <v>396</v>
+      </c>
+      <c r="E616">
+        <v>200</v>
+      </c>
+      <c r="F616" t="s">
+        <v>30</v>
+      </c>
+      <c r="G616" t="s">
+        <v>177</v>
+      </c>
+      <c r="H616" t="s">
+        <v>400</v>
+      </c>
+      <c r="I616" t="s">
+        <v>16</v>
+      </c>
+      <c r="J616" t="s">
+        <v>39</v>
+      </c>
+      <c r="K616" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>733</v>
+      </c>
+      <c r="B617" t="s">
+        <v>12</v>
+      </c>
+      <c r="C617" t="s">
+        <v>13</v>
+      </c>
+      <c r="D617" t="s">
+        <v>376</v>
+      </c>
+      <c r="E617">
+        <v>200</v>
+      </c>
+      <c r="F617" t="s">
+        <v>30</v>
+      </c>
+      <c r="G617" t="s">
+        <v>718</v>
+      </c>
+      <c r="H617" t="s">
+        <v>528</v>
+      </c>
+      <c r="I617" t="s">
+        <v>79</v>
+      </c>
+      <c r="J617" t="s">
+        <v>37</v>
+      </c>
+      <c r="K617" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>734</v>
+      </c>
+      <c r="B618" t="s">
+        <v>12</v>
+      </c>
+      <c r="C618" t="s">
+        <v>13</v>
+      </c>
+      <c r="D618" t="s">
+        <v>379</v>
+      </c>
+      <c r="E618">
+        <v>200</v>
+      </c>
+      <c r="F618" t="s">
+        <v>30</v>
+      </c>
+      <c r="G618" t="s">
+        <v>718</v>
+      </c>
+      <c r="H618" t="s">
+        <v>528</v>
+      </c>
+      <c r="I618" t="s">
+        <v>16</v>
+      </c>
+      <c r="J618" t="s">
+        <v>39</v>
+      </c>
+      <c r="K618" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>735</v>
+      </c>
+      <c r="B619" t="s">
+        <v>12</v>
+      </c>
+      <c r="C619" t="s">
+        <v>13</v>
+      </c>
+      <c r="D619" t="s">
+        <v>376</v>
+      </c>
+      <c r="E619">
+        <v>200</v>
+      </c>
+      <c r="F619" t="s">
+        <v>30</v>
+      </c>
+      <c r="G619" t="s">
+        <v>718</v>
+      </c>
+      <c r="H619" t="s">
+        <v>528</v>
+      </c>
+      <c r="I619" t="s">
+        <v>79</v>
+      </c>
+      <c r="J619" t="s">
+        <v>37</v>
+      </c>
+      <c r="K619" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>736</v>
+      </c>
+      <c r="B620" t="s">
+        <v>12</v>
+      </c>
+      <c r="C620" t="s">
+        <v>13</v>
+      </c>
+      <c r="D620" t="s">
+        <v>379</v>
+      </c>
+      <c r="E620">
+        <v>200</v>
+      </c>
+      <c r="F620" t="s">
+        <v>30</v>
+      </c>
+      <c r="G620" t="s">
+        <v>718</v>
+      </c>
+      <c r="H620" t="s">
+        <v>528</v>
+      </c>
+      <c r="I620" t="s">
+        <v>16</v>
+      </c>
+      <c r="J620" t="s">
+        <v>39</v>
+      </c>
+      <c r="K620" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>737</v>
+      </c>
+      <c r="B621" t="s">
+        <v>12</v>
+      </c>
+      <c r="C621" t="s">
+        <v>13</v>
+      </c>
+      <c r="D621" t="s">
+        <v>376</v>
+      </c>
+      <c r="E621">
+        <v>200</v>
+      </c>
+      <c r="F621" t="s">
+        <v>30</v>
+      </c>
+      <c r="G621" t="s">
+        <v>718</v>
+      </c>
+      <c r="H621" t="s">
+        <v>528</v>
+      </c>
+      <c r="I621" t="s">
+        <v>79</v>
+      </c>
+      <c r="J621" t="s">
+        <v>37</v>
+      </c>
+      <c r="K621" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>738</v>
+      </c>
+      <c r="B622" t="s">
+        <v>12</v>
+      </c>
+      <c r="C622" t="s">
+        <v>13</v>
+      </c>
+      <c r="D622" t="s">
+        <v>379</v>
+      </c>
+      <c r="E622">
+        <v>200</v>
+      </c>
+      <c r="F622" t="s">
+        <v>30</v>
+      </c>
+      <c r="G622" t="s">
+        <v>718</v>
+      </c>
+      <c r="H622" t="s">
+        <v>528</v>
+      </c>
+      <c r="I622" t="s">
+        <v>16</v>
+      </c>
+      <c r="J622" t="s">
+        <v>39</v>
+      </c>
+      <c r="K622" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>739</v>
+      </c>
+      <c r="B623" t="s">
+        <v>12</v>
+      </c>
+      <c r="C623" t="s">
+        <v>70</v>
+      </c>
+      <c r="D623" t="s">
+        <v>547</v>
+      </c>
+      <c r="E623">
+        <v>200</v>
+      </c>
+      <c r="F623" t="s">
+        <v>30</v>
+      </c>
+      <c r="G623" t="s">
+        <v>718</v>
+      </c>
+      <c r="H623" t="s">
+        <v>528</v>
+      </c>
+      <c r="I623" t="s">
+        <v>79</v>
+      </c>
+      <c r="J623" t="s">
+        <v>289</v>
+      </c>
+      <c r="K623" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>740</v>
+      </c>
+      <c r="B624" t="s">
+        <v>12</v>
+      </c>
+      <c r="C624" t="s">
+        <v>13</v>
+      </c>
+      <c r="D624" t="s">
+        <v>592</v>
+      </c>
+      <c r="E624">
+        <v>404</v>
+      </c>
+      <c r="F624" t="s">
+        <v>15</v>
+      </c>
+      <c r="G624" t="s">
+        <v>16</v>
+      </c>
+      <c r="H624" t="s">
+        <v>16</v>
+      </c>
+      <c r="I624" t="s">
+        <v>45</v>
+      </c>
+      <c r="J624" t="s">
+        <v>377</v>
+      </c>
+      <c r="K624" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>741</v>
+      </c>
+      <c r="B625" t="s">
+        <v>12</v>
+      </c>
+      <c r="C625" t="s">
+        <v>13</v>
+      </c>
+      <c r="D625" t="s">
+        <v>379</v>
+      </c>
+      <c r="E625">
+        <v>404</v>
+      </c>
+      <c r="F625" t="s">
+        <v>15</v>
+      </c>
+      <c r="G625" t="s">
+        <v>16</v>
+      </c>
+      <c r="H625" t="s">
+        <v>16</v>
+      </c>
+      <c r="I625" t="s">
+        <v>16</v>
+      </c>
+      <c r="J625" t="s">
+        <v>380</v>
+      </c>
+      <c r="K625" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>742</v>
+      </c>
+      <c r="B626" t="s">
+        <v>12</v>
+      </c>
+      <c r="C626" t="s">
+        <v>13</v>
+      </c>
+      <c r="D626" t="s">
+        <v>376</v>
+      </c>
+      <c r="E626">
+        <v>404</v>
+      </c>
+      <c r="F626" t="s">
+        <v>15</v>
+      </c>
+      <c r="G626" t="s">
+        <v>16</v>
+      </c>
+      <c r="H626" t="s">
+        <v>16</v>
+      </c>
+      <c r="I626" t="s">
+        <v>79</v>
+      </c>
+      <c r="J626" t="s">
+        <v>377</v>
+      </c>
+      <c r="K626" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>743</v>
+      </c>
+      <c r="B627" t="s">
+        <v>12</v>
+      </c>
+      <c r="C627" t="s">
+        <v>13</v>
+      </c>
+      <c r="D627" t="s">
+        <v>379</v>
+      </c>
+      <c r="E627">
+        <v>404</v>
+      </c>
+      <c r="F627" t="s">
+        <v>15</v>
+      </c>
+      <c r="G627" t="s">
+        <v>16</v>
+      </c>
+      <c r="H627" t="s">
+        <v>16</v>
+      </c>
+      <c r="I627" t="s">
+        <v>16</v>
+      </c>
+      <c r="J627" t="s">
+        <v>380</v>
+      </c>
+      <c r="K627" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>744</v>
+      </c>
+      <c r="B628" t="s">
+        <v>12</v>
+      </c>
+      <c r="C628" t="s">
+        <v>70</v>
+      </c>
+      <c r="D628" t="s">
+        <v>547</v>
+      </c>
+      <c r="E628">
+        <v>404</v>
+      </c>
+      <c r="F628" t="s">
+        <v>15</v>
+      </c>
+      <c r="G628" t="s">
+        <v>16</v>
+      </c>
+      <c r="H628" t="s">
+        <v>16</v>
+      </c>
+      <c r="I628" t="s">
+        <v>16</v>
+      </c>
+      <c r="J628" t="s">
+        <v>606</v>
+      </c>
+      <c r="K628" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>745</v>
+      </c>
+      <c r="B629" t="s">
+        <v>12</v>
+      </c>
+      <c r="C629" t="s">
+        <v>13</v>
+      </c>
+      <c r="D629" t="s">
+        <v>376</v>
+      </c>
+      <c r="E629">
+        <v>404</v>
+      </c>
+      <c r="F629" t="s">
+        <v>15</v>
+      </c>
+      <c r="G629" t="s">
+        <v>16</v>
+      </c>
+      <c r="H629" t="s">
+        <v>16</v>
+      </c>
+      <c r="I629" t="s">
+        <v>79</v>
+      </c>
+      <c r="J629" t="s">
+        <v>377</v>
+      </c>
+      <c r="K629" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>746</v>
+      </c>
+      <c r="B630" t="s">
+        <v>12</v>
+      </c>
+      <c r="C630" t="s">
+        <v>13</v>
+      </c>
+      <c r="D630" t="s">
+        <v>379</v>
+      </c>
+      <c r="E630">
+        <v>404</v>
+      </c>
+      <c r="F630" t="s">
+        <v>15</v>
+      </c>
+      <c r="G630" t="s">
+        <v>16</v>
+      </c>
+      <c r="H630" t="s">
+        <v>16</v>
+      </c>
+      <c r="I630" t="s">
+        <v>16</v>
+      </c>
+      <c r="J630" t="s">
+        <v>380</v>
+      </c>
+      <c r="K630" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>747</v>
+      </c>
+      <c r="B631" t="s">
+        <v>12</v>
+      </c>
+      <c r="C631" t="s">
+        <v>70</v>
+      </c>
+      <c r="D631" t="s">
+        <v>547</v>
+      </c>
+      <c r="E631">
+        <v>404</v>
+      </c>
+      <c r="F631" t="s">
+        <v>15</v>
+      </c>
+      <c r="G631" t="s">
+        <v>16</v>
+      </c>
+      <c r="H631" t="s">
+        <v>16</v>
+      </c>
+      <c r="I631" t="s">
+        <v>16</v>
+      </c>
+      <c r="J631" t="s">
+        <v>606</v>
+      </c>
+      <c r="K631" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>748</v>
+      </c>
+      <c r="B632" t="s">
+        <v>12</v>
+      </c>
+      <c r="C632" t="s">
+        <v>13</v>
+      </c>
+      <c r="D632" t="s">
+        <v>376</v>
+      </c>
+      <c r="E632">
+        <v>404</v>
+      </c>
+      <c r="F632" t="s">
+        <v>15</v>
+      </c>
+      <c r="G632" t="s">
+        <v>16</v>
+      </c>
+      <c r="H632" t="s">
+        <v>16</v>
+      </c>
+      <c r="I632" t="s">
+        <v>79</v>
+      </c>
+      <c r="J632" t="s">
+        <v>377</v>
+      </c>
+      <c r="K632" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>749</v>
+      </c>
+      <c r="B633" t="s">
+        <v>12</v>
+      </c>
+      <c r="C633" t="s">
+        <v>13</v>
+      </c>
+      <c r="D633" t="s">
+        <v>379</v>
+      </c>
+      <c r="E633">
+        <v>404</v>
+      </c>
+      <c r="F633" t="s">
+        <v>15</v>
+      </c>
+      <c r="G633" t="s">
+        <v>16</v>
+      </c>
+      <c r="H633" t="s">
+        <v>16</v>
+      </c>
+      <c r="I633" t="s">
+        <v>16</v>
+      </c>
+      <c r="J633" t="s">
+        <v>380</v>
+      </c>
+      <c r="K633" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>750</v>
+      </c>
+      <c r="B634" t="s">
+        <v>12</v>
+      </c>
+      <c r="C634" t="s">
+        <v>70</v>
+      </c>
+      <c r="D634" t="s">
+        <v>408</v>
+      </c>
+      <c r="E634">
+        <v>200</v>
+      </c>
+      <c r="F634" t="s">
+        <v>30</v>
+      </c>
+      <c r="G634" t="s">
+        <v>177</v>
+      </c>
+      <c r="H634" t="s">
+        <v>400</v>
+      </c>
+      <c r="I634" t="s">
+        <v>16</v>
+      </c>
+      <c r="J634" t="s">
+        <v>77</v>
+      </c>
+      <c r="K634" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>751</v>
+      </c>
+      <c r="B635" t="s">
+        <v>12</v>
+      </c>
+      <c r="C635" t="s">
+        <v>28</v>
+      </c>
+      <c r="D635" t="s">
+        <v>255</v>
+      </c>
+      <c r="E635">
+        <v>200</v>
+      </c>
+      <c r="F635" t="s">
+        <v>30</v>
+      </c>
+      <c r="G635" t="s">
+        <v>16</v>
+      </c>
+      <c r="H635" t="s">
+        <v>16</v>
+      </c>
+      <c r="I635" t="s">
+        <v>16</v>
+      </c>
+      <c r="J635" t="s">
+        <v>16</v>
+      </c>
+      <c r="K635" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>752</v>
+      </c>
+      <c r="B636" t="s">
+        <v>12</v>
+      </c>
+      <c r="C636" t="s">
+        <v>13</v>
+      </c>
+      <c r="D636" t="s">
+        <v>376</v>
+      </c>
+      <c r="E636">
+        <v>404</v>
+      </c>
+      <c r="F636" t="s">
+        <v>15</v>
+      </c>
+      <c r="G636" t="s">
+        <v>16</v>
+      </c>
+      <c r="H636" t="s">
+        <v>16</v>
+      </c>
+      <c r="I636" t="s">
+        <v>79</v>
+      </c>
+      <c r="J636" t="s">
+        <v>377</v>
+      </c>
+      <c r="K636" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>753</v>
+      </c>
+      <c r="B637" t="s">
+        <v>12</v>
+      </c>
+      <c r="C637" t="s">
+        <v>13</v>
+      </c>
+      <c r="D637" t="s">
+        <v>379</v>
+      </c>
+      <c r="E637">
+        <v>404</v>
+      </c>
+      <c r="F637" t="s">
+        <v>15</v>
+      </c>
+      <c r="G637" t="s">
+        <v>16</v>
+      </c>
+      <c r="H637" t="s">
+        <v>16</v>
+      </c>
+      <c r="I637" t="s">
+        <v>16</v>
+      </c>
+      <c r="J637" t="s">
+        <v>380</v>
+      </c>
+      <c r="K637" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>754</v>
+      </c>
+      <c r="B638" t="s">
+        <v>12</v>
+      </c>
+      <c r="C638" t="s">
+        <v>13</v>
+      </c>
+      <c r="D638" t="s">
+        <v>376</v>
+      </c>
+      <c r="E638">
+        <v>404</v>
+      </c>
+      <c r="F638" t="s">
+        <v>15</v>
+      </c>
+      <c r="G638" t="s">
+        <v>16</v>
+      </c>
+      <c r="H638" t="s">
+        <v>16</v>
+      </c>
+      <c r="I638" t="s">
+        <v>79</v>
+      </c>
+      <c r="J638" t="s">
+        <v>377</v>
+      </c>
+      <c r="K638" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>755</v>
+      </c>
+      <c r="B639" t="s">
+        <v>12</v>
+      </c>
+      <c r="C639" t="s">
+        <v>13</v>
+      </c>
+      <c r="D639" t="s">
+        <v>379</v>
+      </c>
+      <c r="E639">
+        <v>404</v>
+      </c>
+      <c r="F639" t="s">
+        <v>15</v>
+      </c>
+      <c r="G639" t="s">
+        <v>16</v>
+      </c>
+      <c r="H639" t="s">
+        <v>16</v>
+      </c>
+      <c r="I639" t="s">
+        <v>16</v>
+      </c>
+      <c r="J639" t="s">
+        <v>380</v>
+      </c>
+      <c r="K639" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>756</v>
+      </c>
+      <c r="B640" t="s">
+        <v>12</v>
+      </c>
+      <c r="C640" t="s">
+        <v>13</v>
+      </c>
+      <c r="D640" t="s">
+        <v>376</v>
+      </c>
+      <c r="E640">
+        <v>404</v>
+      </c>
+      <c r="F640" t="s">
+        <v>15</v>
+      </c>
+      <c r="G640" t="s">
+        <v>16</v>
+      </c>
+      <c r="H640" t="s">
+        <v>16</v>
+      </c>
+      <c r="I640" t="s">
+        <v>79</v>
+      </c>
+      <c r="J640" t="s">
+        <v>377</v>
+      </c>
+      <c r="K640" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>757</v>
+      </c>
+      <c r="B641" t="s">
+        <v>12</v>
+      </c>
+      <c r="C641" t="s">
+        <v>13</v>
+      </c>
+      <c r="D641" t="s">
+        <v>379</v>
+      </c>
+      <c r="E641">
+        <v>404</v>
+      </c>
+      <c r="F641" t="s">
+        <v>15</v>
+      </c>
+      <c r="G641" t="s">
+        <v>16</v>
+      </c>
+      <c r="H641" t="s">
+        <v>16</v>
+      </c>
+      <c r="I641" t="s">
+        <v>16</v>
+      </c>
+      <c r="J641" t="s">
+        <v>380</v>
+      </c>
+      <c r="K641" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>758</v>
+      </c>
+      <c r="B642" t="s">
+        <v>12</v>
+      </c>
+      <c r="C642" t="s">
+        <v>13</v>
+      </c>
+      <c r="D642" t="s">
+        <v>557</v>
+      </c>
+      <c r="E642">
+        <v>404</v>
+      </c>
+      <c r="F642" t="s">
+        <v>15</v>
+      </c>
+      <c r="G642" t="s">
+        <v>16</v>
+      </c>
+      <c r="H642" t="s">
+        <v>16</v>
+      </c>
+      <c r="I642" t="s">
+        <v>79</v>
+      </c>
+      <c r="J642" t="s">
+        <v>394</v>
+      </c>
+      <c r="K642" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>759</v>
+      </c>
+      <c r="B643" t="s">
+        <v>12</v>
+      </c>
+      <c r="C643" t="s">
+        <v>13</v>
+      </c>
+      <c r="D643" t="s">
+        <v>396</v>
+      </c>
+      <c r="E643">
+        <v>404</v>
+      </c>
+      <c r="F643" t="s">
+        <v>15</v>
+      </c>
+      <c r="G643" t="s">
+        <v>16</v>
+      </c>
+      <c r="H643" t="s">
+        <v>16</v>
+      </c>
+      <c r="I643" t="s">
+        <v>16</v>
+      </c>
+      <c r="J643" t="s">
+        <v>397</v>
+      </c>
+      <c r="K643" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>760</v>
+      </c>
+      <c r="B644" t="s">
+        <v>12</v>
+      </c>
+      <c r="C644" t="s">
+        <v>13</v>
+      </c>
+      <c r="D644" t="s">
+        <v>557</v>
+      </c>
+      <c r="E644">
+        <v>404</v>
+      </c>
+      <c r="F644" t="s">
+        <v>15</v>
+      </c>
+      <c r="G644" t="s">
+        <v>16</v>
+      </c>
+      <c r="H644" t="s">
+        <v>16</v>
+      </c>
+      <c r="I644" t="s">
+        <v>79</v>
+      </c>
+      <c r="J644" t="s">
+        <v>394</v>
+      </c>
+      <c r="K644" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>761</v>
+      </c>
+      <c r="B645" t="s">
+        <v>12</v>
+      </c>
+      <c r="C645" t="s">
+        <v>13</v>
+      </c>
+      <c r="D645" t="s">
+        <v>396</v>
+      </c>
+      <c r="E645">
+        <v>404</v>
+      </c>
+      <c r="F645" t="s">
+        <v>15</v>
+      </c>
+      <c r="G645" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" t="s">
+        <v>16</v>
+      </c>
+      <c r="I645" t="s">
+        <v>16</v>
+      </c>
+      <c r="J645" t="s">
+        <v>397</v>
+      </c>
+      <c r="K645" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>762</v>
+      </c>
+      <c r="B646" t="s">
+        <v>12</v>
+      </c>
+      <c r="C646" t="s">
+        <v>28</v>
+      </c>
+      <c r="D646" t="s">
+        <v>29</v>
+      </c>
+      <c r="E646">
+        <v>200</v>
+      </c>
+      <c r="F646" t="s">
+        <v>30</v>
+      </c>
+      <c r="G646" t="s">
+        <v>543</v>
+      </c>
+      <c r="H646" t="s">
+        <v>528</v>
+      </c>
+      <c r="I646" t="s">
+        <v>79</v>
+      </c>
+      <c r="J646" t="s">
+        <v>34</v>
+      </c>
+      <c r="K646" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>763</v>
+      </c>
+      <c r="B647" t="s">
+        <v>12</v>
+      </c>
+      <c r="C647" t="s">
+        <v>13</v>
+      </c>
+      <c r="D647" t="s">
+        <v>376</v>
+      </c>
+      <c r="E647">
+        <v>200</v>
+      </c>
+      <c r="F647" t="s">
+        <v>30</v>
+      </c>
+      <c r="G647" t="s">
+        <v>543</v>
+      </c>
+      <c r="H647" t="s">
+        <v>528</v>
+      </c>
+      <c r="I647" t="s">
+        <v>79</v>
+      </c>
+      <c r="J647" t="s">
+        <v>37</v>
+      </c>
+      <c r="K647" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>764</v>
+      </c>
+      <c r="B648" t="s">
+        <v>12</v>
+      </c>
+      <c r="C648" t="s">
+        <v>13</v>
+      </c>
+      <c r="D648" t="s">
+        <v>379</v>
+      </c>
+      <c r="E648">
+        <v>200</v>
+      </c>
+      <c r="F648" t="s">
+        <v>30</v>
+      </c>
+      <c r="G648" t="s">
+        <v>543</v>
+      </c>
+      <c r="H648" t="s">
+        <v>528</v>
+      </c>
+      <c r="I648" t="s">
+        <v>16</v>
+      </c>
+      <c r="J648" t="s">
+        <v>39</v>
+      </c>
+      <c r="K648" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>765</v>
+      </c>
+      <c r="B649" t="s">
+        <v>12</v>
+      </c>
+      <c r="C649" t="s">
+        <v>13</v>
+      </c>
+      <c r="D649" t="s">
+        <v>252</v>
+      </c>
+      <c r="E649">
+        <v>404</v>
+      </c>
+      <c r="F649" t="s">
+        <v>15</v>
+      </c>
+      <c r="G649" t="s">
+        <v>16</v>
+      </c>
+      <c r="H649" t="s">
+        <v>16</v>
+      </c>
+      <c r="I649" t="s">
+        <v>16</v>
+      </c>
+      <c r="J649" t="s">
+        <v>16</v>
+      </c>
+      <c r="K649" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>766</v>
+      </c>
+      <c r="B650" t="s">
+        <v>12</v>
+      </c>
+      <c r="C650" t="s">
+        <v>13</v>
+      </c>
+      <c r="D650" t="s">
+        <v>376</v>
+      </c>
+      <c r="E650">
+        <v>200</v>
+      </c>
+      <c r="F650" t="s">
+        <v>30</v>
+      </c>
+      <c r="G650" t="s">
+        <v>543</v>
+      </c>
+      <c r="H650" t="s">
+        <v>528</v>
+      </c>
+      <c r="I650" t="s">
+        <v>79</v>
+      </c>
+      <c r="J650" t="s">
+        <v>37</v>
+      </c>
+      <c r="K650" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>767</v>
+      </c>
+      <c r="B651" t="s">
+        <v>12</v>
+      </c>
+      <c r="C651" t="s">
+        <v>13</v>
+      </c>
+      <c r="D651" t="s">
+        <v>379</v>
+      </c>
+      <c r="E651">
+        <v>200</v>
+      </c>
+      <c r="F651" t="s">
+        <v>30</v>
+      </c>
+      <c r="G651" t="s">
+        <v>543</v>
+      </c>
+      <c r="H651" t="s">
+        <v>528</v>
+      </c>
+      <c r="I651" t="s">
+        <v>16</v>
+      </c>
+      <c r="J651" t="s">
+        <v>39</v>
+      </c>
+      <c r="K651" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>768</v>
+      </c>
+      <c r="B652" t="s">
+        <v>12</v>
+      </c>
+      <c r="C652" t="s">
+        <v>13</v>
+      </c>
+      <c r="D652" t="s">
+        <v>557</v>
+      </c>
+      <c r="E652">
+        <v>404</v>
+      </c>
+      <c r="F652" t="s">
+        <v>15</v>
+      </c>
+      <c r="G652" t="s">
+        <v>16</v>
+      </c>
+      <c r="H652" t="s">
+        <v>16</v>
+      </c>
+      <c r="I652" t="s">
+        <v>79</v>
+      </c>
+      <c r="J652" t="s">
+        <v>394</v>
+      </c>
+      <c r="K652" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>769</v>
+      </c>
+      <c r="B653" t="s">
+        <v>12</v>
+      </c>
+      <c r="C653" t="s">
+        <v>13</v>
+      </c>
+      <c r="D653" t="s">
+        <v>396</v>
+      </c>
+      <c r="E653">
+        <v>404</v>
+      </c>
+      <c r="F653" t="s">
+        <v>15</v>
+      </c>
+      <c r="G653" t="s">
+        <v>16</v>
+      </c>
+      <c r="H653" t="s">
+        <v>16</v>
+      </c>
+      <c r="I653" t="s">
+        <v>16</v>
+      </c>
+      <c r="J653" t="s">
+        <v>397</v>
+      </c>
+      <c r="K653" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>770</v>
+      </c>
+      <c r="B654" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" t="s">
+        <v>13</v>
+      </c>
+      <c r="D654" t="s">
+        <v>557</v>
+      </c>
+      <c r="E654">
+        <v>404</v>
+      </c>
+      <c r="F654" t="s">
+        <v>15</v>
+      </c>
+      <c r="G654" t="s">
+        <v>16</v>
+      </c>
+      <c r="H654" t="s">
+        <v>16</v>
+      </c>
+      <c r="I654" t="s">
+        <v>79</v>
+      </c>
+      <c r="J654" t="s">
+        <v>394</v>
+      </c>
+      <c r="K654" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>771</v>
+      </c>
+      <c r="B655" t="s">
+        <v>12</v>
+      </c>
+      <c r="C655" t="s">
+        <v>13</v>
+      </c>
+      <c r="D655" t="s">
+        <v>396</v>
+      </c>
+      <c r="E655">
+        <v>404</v>
+      </c>
+      <c r="F655" t="s">
+        <v>15</v>
+      </c>
+      <c r="G655" t="s">
+        <v>16</v>
+      </c>
+      <c r="H655" t="s">
+        <v>16</v>
+      </c>
+      <c r="I655" t="s">
+        <v>16</v>
+      </c>
+      <c r="J655" t="s">
+        <v>397</v>
+      </c>
+      <c r="K655" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>772</v>
+      </c>
+      <c r="B656" t="s">
+        <v>12</v>
+      </c>
+      <c r="C656" t="s">
+        <v>13</v>
+      </c>
+      <c r="D656" t="s">
+        <v>557</v>
+      </c>
+      <c r="E656">
+        <v>404</v>
+      </c>
+      <c r="F656" t="s">
+        <v>15</v>
+      </c>
+      <c r="G656" t="s">
+        <v>16</v>
+      </c>
+      <c r="H656" t="s">
+        <v>16</v>
+      </c>
+      <c r="I656" t="s">
+        <v>79</v>
+      </c>
+      <c r="J656" t="s">
+        <v>394</v>
+      </c>
+      <c r="K656" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>773</v>
+      </c>
+      <c r="B657" t="s">
+        <v>12</v>
+      </c>
+      <c r="C657" t="s">
+        <v>13</v>
+      </c>
+      <c r="D657" t="s">
+        <v>396</v>
+      </c>
+      <c r="E657">
+        <v>404</v>
+      </c>
+      <c r="F657" t="s">
+        <v>15</v>
+      </c>
+      <c r="G657" t="s">
+        <v>16</v>
+      </c>
+      <c r="H657" t="s">
+        <v>16</v>
+      </c>
+      <c r="I657" t="s">
+        <v>16</v>
+      </c>
+      <c r="J657" t="s">
+        <v>397</v>
+      </c>
+      <c r="K657" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>774</v>
+      </c>
+      <c r="B658" t="s">
+        <v>12</v>
+      </c>
+      <c r="C658" t="s">
+        <v>13</v>
+      </c>
+      <c r="D658" t="s">
+        <v>376</v>
+      </c>
+      <c r="E658">
+        <v>200</v>
+      </c>
+      <c r="F658" t="s">
+        <v>30</v>
+      </c>
+      <c r="G658" t="s">
+        <v>543</v>
+      </c>
+      <c r="H658" t="s">
+        <v>528</v>
+      </c>
+      <c r="I658" t="s">
+        <v>79</v>
+      </c>
+      <c r="J658" t="s">
+        <v>37</v>
+      </c>
+      <c r="K658" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>775</v>
+      </c>
+      <c r="B659" t="s">
+        <v>12</v>
+      </c>
+      <c r="C659" t="s">
+        <v>13</v>
+      </c>
+      <c r="D659" t="s">
+        <v>379</v>
+      </c>
+      <c r="E659">
+        <v>200</v>
+      </c>
+      <c r="F659" t="s">
+        <v>30</v>
+      </c>
+      <c r="G659" t="s">
+        <v>543</v>
+      </c>
+      <c r="H659" t="s">
+        <v>528</v>
+      </c>
+      <c r="I659" t="s">
+        <v>16</v>
+      </c>
+      <c r="J659" t="s">
+        <v>39</v>
+      </c>
+      <c r="K659" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>776</v>
+      </c>
+      <c r="B660" t="s">
+        <v>12</v>
+      </c>
+      <c r="C660" t="s">
+        <v>13</v>
+      </c>
+      <c r="D660" t="s">
+        <v>376</v>
+      </c>
+      <c r="E660">
+        <v>200</v>
+      </c>
+      <c r="F660" t="s">
+        <v>30</v>
+      </c>
+      <c r="G660" t="s">
+        <v>543</v>
+      </c>
+      <c r="H660" t="s">
+        <v>528</v>
+      </c>
+      <c r="I660" t="s">
+        <v>79</v>
+      </c>
+      <c r="J660" t="s">
+        <v>37</v>
+      </c>
+      <c r="K660" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>777</v>
+      </c>
+      <c r="B661" t="s">
+        <v>12</v>
+      </c>
+      <c r="C661" t="s">
+        <v>13</v>
+      </c>
+      <c r="D661" t="s">
+        <v>379</v>
+      </c>
+      <c r="E661">
+        <v>200</v>
+      </c>
+      <c r="F661" t="s">
+        <v>30</v>
+      </c>
+      <c r="G661" t="s">
+        <v>543</v>
+      </c>
+      <c r="H661" t="s">
+        <v>528</v>
+      </c>
+      <c r="I661" t="s">
+        <v>16</v>
+      </c>
+      <c r="J661" t="s">
+        <v>39</v>
+      </c>
+      <c r="K661" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>778</v>
+      </c>
+      <c r="B662" t="s">
+        <v>12</v>
+      </c>
+      <c r="C662" t="s">
+        <v>13</v>
+      </c>
+      <c r="D662" t="s">
+        <v>779</v>
+      </c>
+      <c r="E662">
+        <v>200</v>
+      </c>
+      <c r="F662" t="s">
+        <v>30</v>
+      </c>
+      <c r="G662" t="s">
+        <v>543</v>
+      </c>
+      <c r="H662" t="s">
+        <v>528</v>
+      </c>
+      <c r="I662" t="s">
+        <v>16</v>
+      </c>
+      <c r="J662" t="s">
+        <v>52</v>
+      </c>
+      <c r="K662" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>780</v>
+      </c>
+      <c r="B663" t="s">
+        <v>12</v>
+      </c>
+      <c r="C663" t="s">
+        <v>13</v>
+      </c>
+      <c r="D663" t="s">
+        <v>252</v>
+      </c>
+      <c r="E663">
+        <v>404</v>
+      </c>
+      <c r="F663" t="s">
+        <v>15</v>
+      </c>
+      <c r="G663" t="s">
+        <v>16</v>
+      </c>
+      <c r="H663" t="s">
+        <v>16</v>
+      </c>
+      <c r="I663" t="s">
+        <v>16</v>
+      </c>
+      <c r="J663" t="s">
+        <v>16</v>
+      </c>
+      <c r="K663" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>781</v>
+      </c>
+      <c r="B664" t="s">
+        <v>12</v>
+      </c>
+      <c r="C664" t="s">
+        <v>13</v>
+      </c>
+      <c r="D664" t="s">
+        <v>50</v>
+      </c>
+      <c r="E664">
+        <v>200</v>
+      </c>
+      <c r="F664" t="s">
+        <v>30</v>
+      </c>
+      <c r="G664" t="s">
+        <v>31</v>
+      </c>
+      <c r="H664" t="s">
+        <v>51</v>
+      </c>
+      <c r="I664" t="s">
+        <v>16</v>
+      </c>
+      <c r="J664" t="s">
+        <v>52</v>
+      </c>
+      <c r="K664" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>782</v>
+      </c>
+      <c r="B665" t="s">
+        <v>12</v>
+      </c>
+      <c r="C665" t="s">
+        <v>13</v>
+      </c>
+      <c r="D665" t="s">
+        <v>176</v>
+      </c>
+      <c r="E665">
+        <v>200</v>
+      </c>
+      <c r="F665" t="s">
+        <v>30</v>
+      </c>
+      <c r="G665" t="s">
+        <v>177</v>
+      </c>
+      <c r="H665" t="s">
+        <v>32</v>
+      </c>
+      <c r="I665" t="s">
+        <v>16</v>
+      </c>
+      <c r="J665" t="s">
+        <v>52</v>
+      </c>
+      <c r="K665" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>783</v>
+      </c>
+      <c r="B666" t="s">
+        <v>12</v>
+      </c>
+      <c r="C666" t="s">
+        <v>13</v>
+      </c>
+      <c r="D666" t="s">
+        <v>376</v>
+      </c>
+      <c r="E666">
+        <v>200</v>
+      </c>
+      <c r="F666" t="s">
+        <v>30</v>
+      </c>
+      <c r="G666" t="s">
+        <v>543</v>
+      </c>
+      <c r="H666" t="s">
+        <v>528</v>
+      </c>
+      <c r="I666" t="s">
+        <v>79</v>
+      </c>
+      <c r="J666" t="s">
+        <v>37</v>
+      </c>
+      <c r="K666" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>784</v>
+      </c>
+      <c r="B667" t="s">
+        <v>12</v>
+      </c>
+      <c r="C667" t="s">
+        <v>13</v>
+      </c>
+      <c r="D667" t="s">
+        <v>379</v>
+      </c>
+      <c r="E667">
+        <v>200</v>
+      </c>
+      <c r="F667" t="s">
+        <v>30</v>
+      </c>
+      <c r="G667" t="s">
+        <v>543</v>
+      </c>
+      <c r="H667" t="s">
+        <v>528</v>
+      </c>
+      <c r="I667" t="s">
+        <v>16</v>
+      </c>
+      <c r="J667" t="s">
+        <v>39</v>
+      </c>
+      <c r="K667" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>785</v>
+      </c>
+      <c r="B668" t="s">
+        <v>12</v>
+      </c>
+      <c r="C668" t="s">
+        <v>13</v>
+      </c>
+      <c r="D668" t="s">
+        <v>376</v>
+      </c>
+      <c r="E668">
+        <v>200</v>
+      </c>
+      <c r="F668" t="s">
+        <v>30</v>
+      </c>
+      <c r="G668" t="s">
+        <v>543</v>
+      </c>
+      <c r="H668" t="s">
+        <v>528</v>
+      </c>
+      <c r="I668" t="s">
+        <v>79</v>
+      </c>
+      <c r="J668" t="s">
+        <v>37</v>
+      </c>
+      <c r="K668" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>786</v>
+      </c>
+      <c r="B669" t="s">
+        <v>12</v>
+      </c>
+      <c r="C669" t="s">
+        <v>13</v>
+      </c>
+      <c r="D669" t="s">
+        <v>379</v>
+      </c>
+      <c r="E669">
+        <v>200</v>
+      </c>
+      <c r="F669" t="s">
+        <v>30</v>
+      </c>
+      <c r="G669" t="s">
+        <v>543</v>
+      </c>
+      <c r="H669" t="s">
+        <v>528</v>
+      </c>
+      <c r="I669" t="s">
+        <v>16</v>
+      </c>
+      <c r="J669" t="s">
+        <v>39</v>
+      </c>
+      <c r="K669" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>787</v>
+      </c>
+      <c r="B670" t="s">
+        <v>12</v>
+      </c>
+      <c r="C670" t="s">
+        <v>13</v>
+      </c>
+      <c r="D670" t="s">
+        <v>376</v>
+      </c>
+      <c r="E670">
+        <v>200</v>
+      </c>
+      <c r="F670" t="s">
+        <v>30</v>
+      </c>
+      <c r="G670" t="s">
+        <v>543</v>
+      </c>
+      <c r="H670" t="s">
+        <v>528</v>
+      </c>
+      <c r="I670" t="s">
+        <v>79</v>
+      </c>
+      <c r="J670" t="s">
+        <v>37</v>
+      </c>
+      <c r="K670" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>788</v>
+      </c>
+      <c r="B671" t="s">
+        <v>12</v>
+      </c>
+      <c r="C671" t="s">
+        <v>13</v>
+      </c>
+      <c r="D671" t="s">
+        <v>379</v>
+      </c>
+      <c r="E671">
+        <v>200</v>
+      </c>
+      <c r="F671" t="s">
+        <v>30</v>
+      </c>
+      <c r="G671" t="s">
+        <v>543</v>
+      </c>
+      <c r="H671" t="s">
+        <v>528</v>
+      </c>
+      <c r="I671" t="s">
+        <v>16</v>
+      </c>
+      <c r="J671" t="s">
+        <v>39</v>
+      </c>
+      <c r="K671" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>789</v>
+      </c>
+      <c r="B672" t="s">
+        <v>12</v>
+      </c>
+      <c r="C672" t="s">
+        <v>13</v>
+      </c>
+      <c r="D672" t="s">
+        <v>557</v>
+      </c>
+      <c r="E672">
+        <v>404</v>
+      </c>
+      <c r="F672" t="s">
+        <v>15</v>
+      </c>
+      <c r="G672" t="s">
+        <v>16</v>
+      </c>
+      <c r="H672" t="s">
+        <v>16</v>
+      </c>
+      <c r="I672" t="s">
+        <v>79</v>
+      </c>
+      <c r="J672" t="s">
+        <v>394</v>
+      </c>
+      <c r="K672" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>790</v>
+      </c>
+      <c r="B673" t="s">
+        <v>12</v>
+      </c>
+      <c r="C673" t="s">
+        <v>13</v>
+      </c>
+      <c r="D673" t="s">
+        <v>396</v>
+      </c>
+      <c r="E673">
+        <v>404</v>
+      </c>
+      <c r="F673" t="s">
+        <v>15</v>
+      </c>
+      <c r="G673" t="s">
+        <v>16</v>
+      </c>
+      <c r="H673" t="s">
+        <v>16</v>
+      </c>
+      <c r="I673" t="s">
+        <v>16</v>
+      </c>
+      <c r="J673" t="s">
+        <v>397</v>
+      </c>
+      <c r="K673" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>791</v>
+      </c>
+      <c r="B674" t="s">
+        <v>12</v>
+      </c>
+      <c r="C674" t="s">
+        <v>13</v>
+      </c>
+      <c r="D674" t="s">
+        <v>50</v>
+      </c>
+      <c r="E674">
+        <v>200</v>
+      </c>
+      <c r="F674" t="s">
+        <v>30</v>
+      </c>
+      <c r="G674" t="s">
+        <v>31</v>
+      </c>
+      <c r="H674" t="s">
+        <v>51</v>
+      </c>
+      <c r="I674" t="s">
+        <v>16</v>
+      </c>
+      <c r="J674" t="s">
+        <v>52</v>
+      </c>
+      <c r="K674" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>792</v>
+      </c>
+      <c r="B675" t="s">
+        <v>12</v>
+      </c>
+      <c r="C675" t="s">
+        <v>13</v>
+      </c>
+      <c r="D675" t="s">
+        <v>50</v>
+      </c>
+      <c r="E675">
+        <v>200</v>
+      </c>
+      <c r="F675" t="s">
+        <v>30</v>
+      </c>
+      <c r="G675" t="s">
+        <v>31</v>
+      </c>
+      <c r="H675" t="s">
+        <v>51</v>
+      </c>
+      <c r="I675" t="s">
+        <v>16</v>
+      </c>
+      <c r="J675" t="s">
+        <v>52</v>
+      </c>
+      <c r="K675" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>793</v>
+      </c>
+      <c r="B676" t="s">
+        <v>12</v>
+      </c>
+      <c r="C676" t="s">
+        <v>13</v>
+      </c>
+      <c r="D676" t="s">
+        <v>376</v>
+      </c>
+      <c r="E676">
+        <v>200</v>
+      </c>
+      <c r="F676" t="s">
+        <v>30</v>
+      </c>
+      <c r="G676" t="s">
+        <v>543</v>
+      </c>
+      <c r="H676" t="s">
+        <v>528</v>
+      </c>
+      <c r="I676" t="s">
+        <v>79</v>
+      </c>
+      <c r="J676" t="s">
+        <v>37</v>
+      </c>
+      <c r="K676" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>794</v>
+      </c>
+      <c r="B677" t="s">
+        <v>12</v>
+      </c>
+      <c r="C677" t="s">
+        <v>13</v>
+      </c>
+      <c r="D677" t="s">
+        <v>379</v>
+      </c>
+      <c r="E677">
+        <v>200</v>
+      </c>
+      <c r="F677" t="s">
+        <v>30</v>
+      </c>
+      <c r="G677" t="s">
+        <v>543</v>
+      </c>
+      <c r="H677" t="s">
+        <v>528</v>
+      </c>
+      <c r="I677" t="s">
+        <v>16</v>
+      </c>
+      <c r="J677" t="s">
+        <v>39</v>
+      </c>
+      <c r="K677" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>795</v>
+      </c>
+      <c r="B678" t="s">
+        <v>12</v>
+      </c>
+      <c r="C678" t="s">
+        <v>13</v>
+      </c>
+      <c r="D678" t="s">
+        <v>557</v>
+      </c>
+      <c r="E678">
+        <v>404</v>
+      </c>
+      <c r="F678" t="s">
+        <v>15</v>
+      </c>
+      <c r="G678" t="s">
+        <v>16</v>
+      </c>
+      <c r="H678" t="s">
+        <v>16</v>
+      </c>
+      <c r="I678" t="s">
+        <v>79</v>
+      </c>
+      <c r="J678" t="s">
+        <v>394</v>
+      </c>
+      <c r="K678" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>796</v>
+      </c>
+      <c r="B679" t="s">
+        <v>12</v>
+      </c>
+      <c r="C679" t="s">
+        <v>13</v>
+      </c>
+      <c r="D679" t="s">
+        <v>396</v>
+      </c>
+      <c r="E679">
+        <v>404</v>
+      </c>
+      <c r="F679" t="s">
+        <v>15</v>
+      </c>
+      <c r="G679" t="s">
+        <v>16</v>
+      </c>
+      <c r="H679" t="s">
+        <v>16</v>
+      </c>
+      <c r="I679" t="s">
+        <v>16</v>
+      </c>
+      <c r="J679" t="s">
+        <v>397</v>
+      </c>
+      <c r="K679" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>797</v>
+      </c>
+      <c r="B680" t="s">
+        <v>12</v>
+      </c>
+      <c r="C680" t="s">
+        <v>13</v>
+      </c>
+      <c r="D680" t="s">
+        <v>50</v>
+      </c>
+      <c r="E680">
+        <v>200</v>
+      </c>
+      <c r="F680" t="s">
+        <v>30</v>
+      </c>
+      <c r="G680" t="s">
+        <v>31</v>
+      </c>
+      <c r="H680" t="s">
+        <v>51</v>
+      </c>
+      <c r="I680" t="s">
+        <v>16</v>
+      </c>
+      <c r="J680" t="s">
+        <v>52</v>
+      </c>
+      <c r="K680" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>798</v>
+      </c>
+      <c r="B681" t="s">
+        <v>12</v>
+      </c>
+      <c r="C681" t="s">
+        <v>28</v>
+      </c>
+      <c r="D681" t="s">
+        <v>255</v>
+      </c>
+      <c r="E681">
+        <v>200</v>
+      </c>
+      <c r="F681" t="s">
+        <v>30</v>
+      </c>
+      <c r="G681" t="s">
+        <v>16</v>
+      </c>
+      <c r="H681" t="s">
+        <v>16</v>
+      </c>
+      <c r="I681" t="s">
+        <v>16</v>
+      </c>
+      <c r="J681" t="s">
+        <v>16</v>
+      </c>
+      <c r="K681" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>799</v>
+      </c>
+      <c r="B682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C682" t="s">
+        <v>13</v>
+      </c>
+      <c r="D682" t="s">
+        <v>376</v>
+      </c>
+      <c r="E682">
+        <v>200</v>
+      </c>
+      <c r="F682" t="s">
+        <v>30</v>
+      </c>
+      <c r="G682" t="s">
+        <v>543</v>
+      </c>
+      <c r="H682" t="s">
+        <v>528</v>
+      </c>
+      <c r="I682" t="s">
+        <v>79</v>
+      </c>
+      <c r="J682" t="s">
+        <v>37</v>
+      </c>
+      <c r="K682" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>800</v>
+      </c>
+      <c r="B683" t="s">
+        <v>12</v>
+      </c>
+      <c r="C683" t="s">
+        <v>13</v>
+      </c>
+      <c r="D683" t="s">
+        <v>379</v>
+      </c>
+      <c r="E683">
+        <v>200</v>
+      </c>
+      <c r="F683" t="s">
+        <v>30</v>
+      </c>
+      <c r="G683" t="s">
+        <v>543</v>
+      </c>
+      <c r="H683" t="s">
+        <v>528</v>
+      </c>
+      <c r="I683" t="s">
+        <v>16</v>
+      </c>
+      <c r="J683" t="s">
+        <v>39</v>
+      </c>
+      <c r="K683" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>801</v>
+      </c>
+      <c r="B684" t="s">
+        <v>12</v>
+      </c>
+      <c r="C684" t="s">
+        <v>13</v>
+      </c>
+      <c r="D684" t="s">
+        <v>557</v>
+      </c>
+      <c r="E684">
+        <v>404</v>
+      </c>
+      <c r="F684" t="s">
+        <v>15</v>
+      </c>
+      <c r="G684" t="s">
+        <v>16</v>
+      </c>
+      <c r="H684" t="s">
+        <v>16</v>
+      </c>
+      <c r="I684" t="s">
+        <v>79</v>
+      </c>
+      <c r="J684" t="s">
+        <v>394</v>
+      </c>
+      <c r="K684" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>802</v>
+      </c>
+      <c r="B685" t="s">
+        <v>12</v>
+      </c>
+      <c r="C685" t="s">
+        <v>13</v>
+      </c>
+      <c r="D685" t="s">
+        <v>396</v>
+      </c>
+      <c r="E685">
+        <v>404</v>
+      </c>
+      <c r="F685" t="s">
+        <v>15</v>
+      </c>
+      <c r="G685" t="s">
+        <v>16</v>
+      </c>
+      <c r="H685" t="s">
+        <v>16</v>
+      </c>
+      <c r="I685" t="s">
+        <v>16</v>
+      </c>
+      <c r="J685" t="s">
+        <v>397</v>
+      </c>
+      <c r="K685" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>803</v>
+      </c>
+      <c r="B686" t="s">
+        <v>12</v>
+      </c>
+      <c r="C686" t="s">
+        <v>13</v>
+      </c>
+      <c r="D686" t="s">
+        <v>557</v>
+      </c>
+      <c r="E686">
+        <v>404</v>
+      </c>
+      <c r="F686" t="s">
+        <v>15</v>
+      </c>
+      <c r="G686" t="s">
+        <v>16</v>
+      </c>
+      <c r="H686" t="s">
+        <v>16</v>
+      </c>
+      <c r="I686" t="s">
+        <v>79</v>
+      </c>
+      <c r="J686" t="s">
+        <v>394</v>
+      </c>
+      <c r="K686" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>804</v>
+      </c>
+      <c r="B687" t="s">
+        <v>12</v>
+      </c>
+      <c r="C687" t="s">
+        <v>13</v>
+      </c>
+      <c r="D687" t="s">
+        <v>396</v>
+      </c>
+      <c r="E687">
+        <v>404</v>
+      </c>
+      <c r="F687" t="s">
+        <v>15</v>
+      </c>
+      <c r="G687" t="s">
+        <v>16</v>
+      </c>
+      <c r="H687" t="s">
+        <v>16</v>
+      </c>
+      <c r="I687" t="s">
+        <v>16</v>
+      </c>
+      <c r="J687" t="s">
+        <v>397</v>
+      </c>
+      <c r="K687" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>805</v>
+      </c>
+      <c r="B688" t="s">
+        <v>12</v>
+      </c>
+      <c r="C688" t="s">
+        <v>13</v>
+      </c>
+      <c r="D688" t="s">
+        <v>376</v>
+      </c>
+      <c r="E688">
+        <v>200</v>
+      </c>
+      <c r="F688" t="s">
+        <v>30</v>
+      </c>
+      <c r="G688" t="s">
+        <v>543</v>
+      </c>
+      <c r="H688" t="s">
+        <v>528</v>
+      </c>
+      <c r="I688" t="s">
+        <v>79</v>
+      </c>
+      <c r="J688" t="s">
+        <v>37</v>
+      </c>
+      <c r="K688" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>806</v>
+      </c>
+      <c r="B689" t="s">
+        <v>12</v>
+      </c>
+      <c r="C689" t="s">
+        <v>13</v>
+      </c>
+      <c r="D689" t="s">
+        <v>379</v>
+      </c>
+      <c r="E689">
+        <v>200</v>
+      </c>
+      <c r="F689" t="s">
+        <v>30</v>
+      </c>
+      <c r="G689" t="s">
+        <v>543</v>
+      </c>
+      <c r="H689" t="s">
+        <v>528</v>
+      </c>
+      <c r="I689" t="s">
+        <v>16</v>
+      </c>
+      <c r="J689" t="s">
+        <v>39</v>
+      </c>
+      <c r="K689" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>807</v>
+      </c>
+      <c r="B690" t="s">
+        <v>12</v>
+      </c>
+      <c r="C690" t="s">
+        <v>13</v>
+      </c>
+      <c r="D690" t="s">
+        <v>779</v>
+      </c>
+      <c r="E690">
+        <v>200</v>
+      </c>
+      <c r="F690" t="s">
+        <v>30</v>
+      </c>
+      <c r="G690" t="s">
+        <v>543</v>
+      </c>
+      <c r="H690" t="s">
+        <v>528</v>
+      </c>
+      <c r="I690" t="s">
+        <v>16</v>
+      </c>
+      <c r="J690" t="s">
+        <v>52</v>
+      </c>
+      <c r="K690" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12841" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13851" uniqueCount="1520">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4265,6 +4265,312 @@
   </si>
   <si>
     <t>2025-11-29T23:35:24.603Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:35:56.767Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:35:56.860Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:00.480Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:02.160Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:03.875Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:03.953Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:05.087Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:05.155Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:06.125Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:06.234Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:07.150Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:09.697Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:09.754Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:12.159Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:17.603Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:22.592Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:27.599Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:32.603Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:37.595Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:42.591Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:47.594Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:52.603Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:36:57.591Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:37:02.599Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:37:07.608Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:37:12.593Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:37:24.609Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:38:24.617Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:39:24.604Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:24.605Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:34.073Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:34.136Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:37.335Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:39.799Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:39.870Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:42.145Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:44.244Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:44.305Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:47.153Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:48.044Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:48.125Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:50.413Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:50.703Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:52.156Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:53.044Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:53.133Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:40:57.145Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:01.423Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:01.483Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:02.147Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:03.608Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:03.668Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:05.953Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:06.035Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:07.142Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:07.280Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:07.358Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:12.145Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:14.083Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:14.132Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:16.312Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:16.383Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:17.147Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:17.660Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:17.719Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:20.679Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:20.755Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:22.000Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:22.107Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:22.180Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:23.263Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:23.360Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:25.297Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:25.365Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:27.156Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:31.441Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:31.518Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:32.145Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:36.415Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:37.144Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:37.722Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:37.803Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:38.816Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:38.876Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:40.977Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:41.071Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:42.157Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:42.258Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:42.433Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:45.803Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:45.878Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:47.146Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:48.750Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:48.813Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:49.841Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:49.914Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:52.143Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:53.192Z</t>
+  </si>
+  <si>
+    <t>/room/EA4C7814/106</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:41:57.155Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:42:02.147Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:42:07.152Z</t>
   </si>
 </sst>
 </file>
@@ -4641,7 +4947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1284"/>
+  <dimension ref="A1:K1385"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -49584,6 +49890,3541 @@
         <v>250</v>
       </c>
     </row>
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1285">
+        <v>200</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1285" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1286">
+        <v>200</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1286" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1287">
+        <v>200</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1287" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1288">
+        <v>200</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1288" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1289">
+        <v>200</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1289" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1290">
+        <v>200</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1291">
+        <v>200</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1291" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1292">
+        <v>200</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1292" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1293">
+        <v>200</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1293" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1294">
+        <v>200</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1295">
+        <v>200</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1295" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1296">
+        <v>403</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1296" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1297">
+        <v>200</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1297" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1298">
+        <v>200</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1298" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1299">
+        <v>200</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1299" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1300">
+        <v>200</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1301">
+        <v>200</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1301" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1302">
+        <v>200</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1302" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1303">
+        <v>200</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1303" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1304">
+        <v>200</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1304" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1305">
+        <v>200</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1305" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1306">
+        <v>200</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1306" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1307">
+        <v>200</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1307" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1308">
+        <v>200</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1308" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1309">
+        <v>200</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1309" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1310">
+        <v>200</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1310" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1311">
+        <v>200</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1311" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1312">
+        <v>200</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1312" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1313">
+        <v>200</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1313" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1314">
+        <v>200</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1314" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1315">
+        <v>200</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1315" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1316">
+        <v>200</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1316" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1317">
+        <v>200</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1317" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1318">
+        <v>403</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1318" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1319">
+        <v>200</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1319" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1320">
+        <v>200</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1320" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1321">
+        <v>200</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1321" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1322">
+        <v>200</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1323">
+        <v>200</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1323" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1324">
+        <v>200</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1324" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1325">
+        <v>200</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1325" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1326">
+        <v>200</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1326" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1327">
+        <v>200</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1327" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1328">
+        <v>200</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1328" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1328" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1329">
+        <v>403</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1329" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>809</v>
+      </c>
+      <c r="K1329" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1330">
+        <v>200</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1330" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1330" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1331">
+        <v>200</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1331" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1332">
+        <v>403</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1332" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1333">
+        <v>200</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1333" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1334">
+        <v>200</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1334" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1335">
+        <v>200</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1335" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1335" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1335" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1336">
+        <v>200</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1336" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1336" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1336" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1337">
+        <v>200</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1337" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1337" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1338">
+        <v>200</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1338" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1338" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1338" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1339">
+        <v>200</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1339" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1340">
+        <v>200</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1340" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1340" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1340" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1341">
+        <v>200</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1341" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1341" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1341" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1342">
+        <v>200</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1342" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1342" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1342" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1343">
+        <v>403</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1343" t="s">
+        <v>809</v>
+      </c>
+      <c r="K1343" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1344">
+        <v>200</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1344" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1344" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1344" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1345">
+        <v>200</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1345" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1345" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1345" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1346">
+        <v>200</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1346" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1346" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1346" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1347">
+        <v>200</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1347" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1348">
+        <v>403</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1348" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>809</v>
+      </c>
+      <c r="K1348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1349">
+        <v>200</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1349" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1349" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1350">
+        <v>200</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1350" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1350" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1350" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1351">
+        <v>200</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1351" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1351" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1351" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1352">
+        <v>403</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1352" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1352" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1352" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1353">
+        <v>200</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1353" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1353" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1353" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1354">
+        <v>200</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1354" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1355">
+        <v>200</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1355" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1356">
+        <v>200</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1356" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1357">
+        <v>403</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1357" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1357" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1357" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1358">
+        <v>200</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1358" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1358" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1358" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1359">
+        <v>200</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1359" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1359" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1359" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1360">
+        <v>200</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1360" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1360" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1360" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1361">
+        <v>200</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1361" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1361" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1361" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1362">
+        <v>200</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1362" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1362" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1362" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1363">
+        <v>200</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1363" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1363" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1364">
+        <v>200</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1364" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1364" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1365">
+        <v>404</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1365" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1365" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1366">
+        <v>404</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1366" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1366" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1367">
+        <v>404</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1367" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1367" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1368">
+        <v>404</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1368" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1368" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1369">
+        <v>404</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1369" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1369" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1369" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1370">
+        <v>404</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1370" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1370" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1371">
+        <v>200</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1371" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1371" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1372">
+        <v>404</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1372" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1372" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1372" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1373">
+        <v>404</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1373" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1373" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1374">
+        <v>403</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1374" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1374" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1375">
+        <v>200</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1375" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1375" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1376">
+        <v>200</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1376" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1377">
+        <v>200</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1377" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1377" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1378">
+        <v>200</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1378" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1378" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1379">
+        <v>200</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1379" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1379" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1379" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1380">
+        <v>200</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1380" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1380" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1380" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1381">
+        <v>200</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1381" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1381" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E1382">
+        <v>200</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1382" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1382" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1383">
+        <v>200</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1383" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1384">
+        <v>200</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1384" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1384" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1385">
+        <v>200</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1385" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1385" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13851" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14111" uniqueCount="1547">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4571,6 +4571,87 @@
   </si>
   <si>
     <t>2025-11-29T23:42:07.152Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T23:42:12.152Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:31.838Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:32.004Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:42.002Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:45.608Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:47.226Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:50.060Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:50.151Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:50.557Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:52.604Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:55.935Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:56.012Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:56.750Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:59.482Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:11:59.589Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:00.828Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:00.897Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:01.743Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:01.961Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:02.064Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:06.750Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:07.739Z</t>
+  </si>
+  <si>
+    <t>/room/6BF02F00/106</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:11.741Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:16.764Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:21.753Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:26.751Z</t>
   </si>
 </sst>
 </file>
@@ -4947,7 +5028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1385"/>
+  <dimension ref="A1:K1411"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -53425,6 +53506,916 @@
         <v>250</v>
       </c>
     </row>
+    <row r="1386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1386">
+        <v>200</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1386" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1386" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1387">
+        <v>404</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1387" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1388">
+        <v>404</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1388" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1388" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1389">
+        <v>404</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1389" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1389" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1390">
+        <v>200</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1390" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1391">
+        <v>200</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1391" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1391" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1392">
+        <v>200</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1392" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1393">
+        <v>200</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1393" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1393" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1394">
+        <v>200</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1394" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1395">
+        <v>200</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1395" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1395" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1395" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1396">
+        <v>200</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1396" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1396" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1397">
+        <v>200</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1397" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1397" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1397" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1398">
+        <v>200</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1398" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1398" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1399">
+        <v>200</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1399" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1399" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1399" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1400">
+        <v>200</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1400" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1400" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1400" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1401">
+        <v>200</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1401" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1401" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1401" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1402">
+        <v>200</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1402" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1402" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1403">
+        <v>200</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1403" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1404">
+        <v>200</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1404" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1404" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1405">
+        <v>200</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1405" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1405" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1406">
+        <v>200</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1406" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1406" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E1407">
+        <v>200</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1407" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1408">
+        <v>200</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1408" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1409">
+        <v>200</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1409" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1409" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1410">
+        <v>200</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1410" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1410" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1411">
+        <v>200</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1411" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1411" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14111" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14221" uniqueCount="1558">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4652,6 +4652,39 @@
   </si>
   <si>
     <t>2025-11-30T02:12:26.751Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:31.770Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:41.669Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:42.571Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:46.805Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:52.602Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:12:57.787Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:15:10.742Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:21:29.510Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:23:08.488Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:23:13.595Z</t>
+  </si>
+  <si>
+    <t>2025-11-30T02:28:43.927Z</t>
   </si>
 </sst>
 </file>
@@ -5028,7 +5061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1411"/>
+  <dimension ref="A1:K1422"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -54416,6 +54449,391 @@
         <v>250</v>
       </c>
     </row>
+    <row r="1412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1412">
+        <v>200</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1412" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1412" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1413">
+        <v>200</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1413" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1414">
+        <v>200</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1414" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1415">
+        <v>200</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1415" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1416">
+        <v>200</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1416" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1417">
+        <v>200</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1417" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1417" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1418">
+        <v>200</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1418" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1419">
+        <v>200</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1419" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1419" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1420">
+        <v>200</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1420" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1421">
+        <v>200</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1421" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1422">
+        <v>200</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1422" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Server/rfid-server-DBS-Http/logs.xlsx
+++ b/Server/rfid-server-DBS-Http/logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14221" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14961" uniqueCount="1633">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4685,6 +4685,231 @@
   </si>
   <si>
     <t>2025-11-30T02:28:43.927Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:04:21.580Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:04:21.880Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:04:46.629Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:04:46.714Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:05.511Z</t>
+  </si>
+  <si>
+    <t>/user/EA4C7814?roomID=102</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:05.562Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:23.060Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:23.532Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:32.738Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:34.858Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:34.964Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:35.985Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:05:36.182Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:07.980Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:29.529Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:33.397Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:33.586Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:35.058Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:36.564Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:36.639Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:39.616Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:39.696Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:40.058Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:42.274Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:42.448Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:45.055Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:50.053Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:12:55.053Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:13:00.047Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:13:05.053Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:13:10.050Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:13:15.984Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:13:20.992Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:13:25.986Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:15:47.928Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:19:30.213Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:23:44.436Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:27:35.437Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:29:14.587Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:29:15.051Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:29:20.993Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:32:10.443Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:32:15.994Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:36:29.406Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:41:08.385Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:46:02.602Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:50:08.134Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:53:56.452Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T18:57:36.611Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:01:47.003Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:05:36.487Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:09:45.603Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:14:04.732Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:17:51.921Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:22:32.907Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:26:36.294Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:32:01.554Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:35:51.632Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:39:54.382Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:44:05.255Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:48:04.292Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:51:49.829Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T19:56:13.290Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:00:57.579Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:06:28.587Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:10:34.420Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:14:43.863Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:18:59.413Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:23:10.686Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:28:56.805Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:32:42.597Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:37:14.527Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:41:35.775Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T20:42:47.968Z</t>
   </si>
 </sst>
 </file>
@@ -5061,7 +5286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1422"/>
+  <dimension ref="A1:K1496"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -54834,6 +55059,2596 @@
         <v>250</v>
       </c>
     </row>
+    <row r="1423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1423">
+        <v>404</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1423" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1424">
+        <v>404</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1424" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1425">
+        <v>404</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1425" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1426">
+        <v>404</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1426" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E1427">
+        <v>404</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1427" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1428">
+        <v>404</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1428" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1429">
+        <v>200</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1429" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1430">
+        <v>404</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1430" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1430" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1431">
+        <v>200</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1431" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1431" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1432">
+        <v>200</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1432" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1432" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1433">
+        <v>200</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1433" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1433" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1434">
+        <v>200</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1434" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1434" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1435">
+        <v>200</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1435" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1436">
+        <v>401</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1436" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1437">
+        <v>200</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1437" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1438">
+        <v>200</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1438" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1439">
+        <v>200</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1439" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1440">
+        <v>200</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1440" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1441">
+        <v>200</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1441" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1442">
+        <v>200</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1442" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E1443">
+        <v>404</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1443" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1444">
+        <v>404</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1444" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1445">
+        <v>200</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1445" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1446">
+        <v>200</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1446" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1447">
+        <v>200</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1447" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1448">
+        <v>200</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1448" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1449">
+        <v>200</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1449" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1450">
+        <v>200</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1450" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1451">
+        <v>200</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1451" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1452">
+        <v>200</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1452" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1453">
+        <v>200</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1453" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1454">
+        <v>200</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1454" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1455">
+        <v>200</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1455" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1456">
+        <v>200</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1456" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1457">
+        <v>200</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1457" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1458">
+        <v>200</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1458" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1459">
+        <v>200</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1459" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1460">
+        <v>200</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1460" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1461">
+        <v>200</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1461" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1462">
+        <v>200</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1462" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1463">
+        <v>200</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1463" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1464">
+        <v>200</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1464" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1465">
+        <v>200</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1465" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1466">
+        <v>200</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1466" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1467">
+        <v>200</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1467" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1468">
+        <v>200</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1468" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1469">
+        <v>200</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1469" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1470">
+        <v>200</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1470" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1471">
+        <v>200</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1471" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1472">
+        <v>200</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1472" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1473">
+        <v>200</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1473" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1474">
+        <v>200</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1474" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1475">
+        <v>200</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1475" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1476">
+        <v>200</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1476" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1477">
+        <v>200</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1477" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1478">
+        <v>200</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1478" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1479">
+        <v>200</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1479" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1480">
+        <v>200</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1480" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1481">
+        <v>200</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1481" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1482">
+        <v>200</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1482" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1483">
+        <v>200</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1483" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1484">
+        <v>200</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1484" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1485">
+        <v>200</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1485" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1486">
+        <v>200</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1486" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1487">
+        <v>200</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1487" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1488">
+        <v>200</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1488" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1489">
+        <v>200</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1489" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1490">
+        <v>200</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1490" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1491">
+        <v>200</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1491" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1492">
+        <v>200</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1492" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1493">
+        <v>200</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1493" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1494">
+        <v>200</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1494" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1495">
+        <v>200</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1495" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1496">
+        <v>200</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1496" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
